--- a/Documents/ResultsAnalyse.xlsx
+++ b/Documents/ResultsAnalyse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Asteroids Dodged" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="46">
   <si>
     <t>Non Diegetic</t>
   </si>
@@ -158,6 +158,9 @@
   <si>
     <t>Non Virtual Reality</t>
   </si>
+  <si>
+    <t>Subject 15</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +211,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -250,12 +254,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -272,10 +275,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,13 +284,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -463,34 +607,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>47.5</c:v>
+                  <c:v>47.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.5</c:v>
+                  <c:v>48.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.571428571428569</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.857142857142854</c:v>
+                  <c:v>48.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.5</c:v>
+                  <c:v>48.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.357142857142854</c:v>
+                  <c:v>48.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.214285714285715</c:v>
+                  <c:v>47.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.714285714285715</c:v>
+                  <c:v>56.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.642857142857146</c:v>
+                  <c:v>46.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.214285714285715</c:v>
+                  <c:v>48.733333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,11 +650,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-564461680"/>
-        <c:axId val="-564461136"/>
+        <c:axId val="-97644912"/>
+        <c:axId val="-97642192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-564461680"/>
+        <c:axId val="-97644912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-564461136"/>
+        <c:crossAx val="-97642192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -561,7 +705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-564461136"/>
+        <c:axId val="-97642192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-564461680"/>
+        <c:crossAx val="-97644912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -806,34 +950,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>112.5</c:v>
+                  <c:v>112.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.78571428571429</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.42857142857143</c:v>
+                  <c:v>113.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114.78571428571429</c:v>
+                  <c:v>114.53333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.35714285714286</c:v>
+                  <c:v>111.46666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.5</c:v>
+                  <c:v>112.13333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113.35714285714286</c:v>
+                  <c:v>113.46666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112.35714285714286</c:v>
+                  <c:v>112.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116</c:v>
+                  <c:v>116.06666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115.42857142857143</c:v>
+                  <c:v>115.33333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,11 +993,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-564458960"/>
-        <c:axId val="-564457328"/>
+        <c:axId val="-97799616"/>
+        <c:axId val="-1942462512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-564458960"/>
+        <c:axId val="-97799616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +1040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-564457328"/>
+        <c:crossAx val="-1942462512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -904,7 +1048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-564457328"/>
+        <c:axId val="-1942462512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +1099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-564458960"/>
+        <c:crossAx val="-97799616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1149,34 +1293,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.2857142857142856</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5714285714285712</c:v>
+                  <c:v>6.5333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2857142857142856</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2857142857142856</c:v>
+                  <c:v>4.2666666666666666</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>6</c:v>
+                <c:pt idx="4">
+                  <c:v>5.9333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8571428571428568</c:v>
+                  <c:v>5.7333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1428571428571432</c:v>
+                  <c:v>5.2666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1428571428571432</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7142857142857144</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1428571428571432</c:v>
+                  <c:v>5.2666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,11 +1336,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-564449168"/>
-        <c:axId val="-564459504"/>
+        <c:axId val="-1942473936"/>
+        <c:axId val="-1942470672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-564449168"/>
+        <c:axId val="-1942473936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-564459504"/>
+        <c:crossAx val="-1942470672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1247,7 +1391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-564459504"/>
+        <c:axId val="-1942470672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-564449168"/>
+        <c:crossAx val="-1942473936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,34 +1707,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3809523809523814</c:v>
+                  <c:v>4.3636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3.9545454545454546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9333333333333336</c:v>
+                  <c:v>5.0625</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0588235294117645</c:v>
+                  <c:v>5.9444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0588235294117645</c:v>
+                  <c:v>3.9473684210526314</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9411764705882355</c:v>
+                  <c:v>3.8421052631578947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4705882352941178</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2380952380952381</c:v>
+                  <c:v>4.1739130434782608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,34 +1811,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.7</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9090909090909092</c:v>
+                  <c:v>4.0454545454545459</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6363636363636362</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9444444444444446</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7727272727272729</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2</c:v>
+                  <c:v>4.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9473684210526319</c:v>
+                  <c:v>4.7368421052631575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>3.8421052631578947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8421052631578947</c:v>
+                  <c:v>6.3684210526315788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4285714285714288</c:v>
+                  <c:v>4.7391304347826084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,34 +1915,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.9</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4285714285714288</c:v>
+                  <c:v>3.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2380952380952381</c:v>
+                  <c:v>3.5416666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1428571428571432</c:v>
+                  <c:v>3.7391304347826089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6190476190476186</c:v>
+                  <c:v>4.1363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2631578947368425</c:v>
+                  <c:v>4.8095238095238093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8695652173913047</c:v>
+                  <c:v>3.9230769230769229</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2631578947368425</c:v>
+                  <c:v>6.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2631578947368425</c:v>
+                  <c:v>5.2608695652173916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,34 +2019,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.25</c:v>
+                  <c:v>7.0476190476190474</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0625</c:v>
+                  <c:v>6.041666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8095238095238093</c:v>
+                  <c:v>6.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5</c:v>
+                  <c:v>5.7826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7619047619047619</c:v>
+                  <c:v>6.2272727272727275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0454545454545459</c:v>
+                  <c:v>6.3636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.75</c:v>
+                  <c:v>6.1538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.75</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,34 +2123,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.1428571428571432</c:v>
+                  <c:v>7.9047619047619051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4705882352941178</c:v>
+                  <c:v>7.3043478260869561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3</c:v>
+                  <c:v>7.3478260869565215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7368421052631575</c:v>
+                  <c:v>8.045454545454545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4090909090909092</c:v>
+                  <c:v>7.1363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7142857142857144</c:v>
+                  <c:v>7.4782608695652177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2173913043478262</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8947368421052628</c:v>
+                  <c:v>7.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3684210526315788</c:v>
+                  <c:v>7.0952380952380949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,34 +2227,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.8095238095238093</c:v>
+                  <c:v>7.5238095238095237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.882352941176471</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2105263157894735</c:v>
+                  <c:v>6.8695652173913047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.85</c:v>
+                  <c:v>7.2727272727272725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5</c:v>
+                  <c:v>6.7727272727272725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>8.0434782608695645</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7619047619047619</c:v>
+                  <c:v>7.1904761904761907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5909090909090908</c:v>
+                  <c:v>6.88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5555555555555554</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7647058823529411</c:v>
+                  <c:v>6.7272727272727275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,34 +2333,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.2631578947368425</c:v>
+                  <c:v>7.1904761904761907</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1333333333333329</c:v>
+                  <c:v>7.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.333333333333333</c:v>
+                  <c:v>6.7391304347826084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3684210526315788</c:v>
+                  <c:v>6.5217391304347823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8095238095238093</c:v>
+                  <c:v>6.5217391304347823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.45</c:v>
+                  <c:v>7.6086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.35</c:v>
+                  <c:v>6.958333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2105263157894735</c:v>
+                  <c:v>6.5909090909090908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.833333333333333</c:v>
+                  <c:v>7.6470588235294121</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7777777777777777</c:v>
+                  <c:v>6.6363636363636367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2295,34 +2439,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.4444444444444446</c:v>
+                  <c:v>6.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6315789473684212</c:v>
+                  <c:v>7.6111111111111107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1</c:v>
+                  <c:v>5.7826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>6.3478260869565215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3157894736842106</c:v>
+                  <c:v>6.0869565217391308</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7647058823529411</c:v>
+                  <c:v>5.4347826086956523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5294117647058822</c:v>
+                  <c:v>5.916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3157894736842106</c:v>
+                  <c:v>6.1818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3809523809523814</c:v>
+                  <c:v>5.7058823529411766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3888888888888893</c:v>
+                  <c:v>6.3181818181818183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2401,34 +2545,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.1111111111111107</c:v>
+                  <c:v>6.0454545454545459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8095238095238093</c:v>
+                  <c:v>7.1578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0952380952380949</c:v>
+                  <c:v>5.1818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>6.5238095238095237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8666666666666663</c:v>
+                  <c:v>5.5652173913043477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.875</c:v>
+                  <c:v>4.7826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7222222222222223</c:v>
+                  <c:v>5.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4210526315789478</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5555555555555554</c:v>
+                  <c:v>5.5882352941176467</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2</c:v>
+                  <c:v>6.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,34 +2651,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.9444444444444446</c:v>
+                  <c:v>6.5909090909090908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>6.5263157894736841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1578947368421053</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.125</c:v>
+                  <c:v>6.5714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4375</c:v>
+                  <c:v>6.0434782608695654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0588235294117645</c:v>
+                  <c:v>6.3478260869565215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0588235294117645</c:v>
+                  <c:v>6.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5294117647058822</c:v>
+                  <c:v>7.6470588235294121</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.3</c:v>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2550,11 +2694,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-603954576"/>
-        <c:axId val="-564456240"/>
+        <c:axId val="-1942466864"/>
+        <c:axId val="-1942472848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-603954576"/>
+        <c:axId val="-1942466864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,7 +2741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-564456240"/>
+        <c:crossAx val="-1942472848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2605,7 +2749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-564456240"/>
+        <c:axId val="-1942472848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2656,7 +2800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-603954576"/>
+        <c:crossAx val="-1942466864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2882,34 +3026,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13.785714285714286</c:v>
+                  <c:v>13.933333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.5</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.571428571428571</c:v>
+                  <c:v>14.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.071428571428571</c:v>
+                  <c:v>13.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.5</c:v>
+                  <c:v>13.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.857142857142858</c:v>
+                  <c:v>14.066666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.214285714285714</c:v>
+                  <c:v>14.466666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.714285714285714</c:v>
+                  <c:v>12.866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.785714285714286</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,11 +3069,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-564451888"/>
-        <c:axId val="-564451344"/>
+        <c:axId val="-1942471760"/>
+        <c:axId val="-1942476656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-564451888"/>
+        <c:axId val="-1942471760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2972,7 +3116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-564451344"/>
+        <c:crossAx val="-1942476656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2980,7 +3124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-564451344"/>
+        <c:axId val="-1942476656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,7 +3175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-564451888"/>
+        <c:crossAx val="-1942471760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5827,7 +5971,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5849,7 +5993,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309919" cy="6083710"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5876,7 +6020,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309919" cy="6083710"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5903,7 +6047,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309919" cy="6083710"/>
+    <xdr:ext cx="9294395" cy="6075947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5930,7 +6074,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309919" cy="6083710"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5957,7 +6101,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309919" cy="6083710"/>
+    <xdr:ext cx="9294395" cy="6075947"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6267,10 +6411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6296,35 +6440,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="T1" s="19" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="T1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6430,45 +6574,45 @@
         <v>8</v>
       </c>
       <c r="N3" s="12">
-        <f>AVERAGE(B4,B8,B12,B16,B20,B24,B28,B32,B36,B40,B44,B48,B52,B56)</f>
-        <v>112.5</v>
+        <f>AVERAGE(B4,B8,B12,B16,B20,B24,B28,B32,B36,B40,B44,B48,B52,B56,B60)</f>
+        <v>112.6</v>
       </c>
       <c r="O3" s="12">
-        <f t="shared" ref="O3:X3" si="0">AVERAGE(C4,C8,C12,C16,C20,C24,C28,C32,C36,C40,C44,C48,C52,C56)</f>
-        <v>112.78571428571429</v>
-      </c>
-      <c r="P3" s="14">
+        <f t="shared" ref="O3:R3" si="0">AVERAGE(C4,C8,C12,C16,C20,C24,C28,C32,C36,C40,C44,C48,C52,C56,C60)</f>
+        <v>113</v>
+      </c>
+      <c r="P3" s="12">
         <f t="shared" si="0"/>
-        <v>113.42857142857143</v>
+        <v>113.8</v>
       </c>
       <c r="Q3" s="12">
         <f t="shared" si="0"/>
-        <v>114.78571428571429</v>
+        <v>114.53333333333333</v>
       </c>
       <c r="R3" s="12">
         <f t="shared" si="0"/>
-        <v>111.35714285714286</v>
+        <v>111.46666666666667</v>
       </c>
       <c r="S3" s="12"/>
-      <c r="T3" s="17">
-        <f t="shared" si="0"/>
-        <v>112.5</v>
-      </c>
-      <c r="U3" s="14">
-        <f t="shared" si="0"/>
-        <v>113.35714285714286</v>
+      <c r="T3" s="12">
+        <f t="shared" ref="T3:T4" si="1">AVERAGE(H4,H8,H12,H16,H20,H24,H28,H32,H36,H40,H44,H48,H52,H56,H60)</f>
+        <v>112.13333333333334</v>
+      </c>
+      <c r="U3" s="12">
+        <f t="shared" ref="U3:U4" si="2">AVERAGE(I4,I8,I12,I16,I20,I24,I28,I32,I36,I40,I44,I48,I52,I56,I60)</f>
+        <v>113.46666666666667</v>
       </c>
       <c r="V3" s="12">
-        <f>AVERAGE(J4,J8,J12,J16,J20,J24,J28,J32,J36,J40,J44,J48,J52,J56)</f>
-        <v>112.35714285714286</v>
-      </c>
-      <c r="W3" s="14">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="X3" s="14">
-        <f t="shared" si="0"/>
-        <v>115.42857142857143</v>
+        <f t="shared" ref="V3:V4" si="3">AVERAGE(J4,J8,J12,J16,J20,J24,J28,J32,J36,J40,J44,J48,J52,J56,J60)</f>
+        <v>112.2</v>
+      </c>
+      <c r="W3" s="12">
+        <f t="shared" ref="W3:W4" si="4">AVERAGE(K4,K8,K12,K16,K20,K24,K28,K32,K36,K40,K44,K48,K52,K56,K60)</f>
+        <v>116.06666666666666</v>
+      </c>
+      <c r="X3" s="12">
+        <f t="shared" ref="X3:X4" si="5">AVERAGE(L4,L8,L12,L16,L20,L24,L28,L32,L36,L40,L44,L48,L52,L56,L60)</f>
+        <v>115.33333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -6508,46 +6652,46 @@
       <c r="M4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="14">
-        <f>AVERAGE(B5,B9,B13,B17,B21,B25,B29,B33,B37,B41,B45,B49,B53,B57)</f>
-        <v>47.5</v>
-      </c>
-      <c r="O4" s="14">
-        <f t="shared" ref="O4:R4" si="1">AVERAGE(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45,C49,C53,C57)</f>
-        <v>47.5</v>
+      <c r="N4" s="12">
+        <f>AVERAGE(B5,B9,B13,B17,B21,B25,B29,B33,B37,B41,B45,B49,B53,B57,B61)</f>
+        <v>47.2</v>
+      </c>
+      <c r="O4" s="12">
+        <f t="shared" ref="O4:S4" si="6">AVERAGE(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45,C49,C53,C57,C61)</f>
+        <v>48.4</v>
       </c>
       <c r="P4" s="12">
-        <f t="shared" si="1"/>
-        <v>49.571428571428569</v>
-      </c>
-      <c r="Q4" s="14">
-        <f t="shared" si="1"/>
-        <v>47.857142857142854</v>
-      </c>
-      <c r="R4" s="14">
-        <f t="shared" si="1"/>
-        <v>48.5</v>
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" si="6"/>
+        <v>48.6</v>
+      </c>
+      <c r="R4" s="12">
+        <f t="shared" si="6"/>
+        <v>48.333333333333336</v>
       </c>
       <c r="S4" s="12"/>
       <c r="T4" s="12">
-        <f t="shared" ref="T4" si="2">AVERAGE(H5,H9,H13,H17,H21,H25,H29,H33,H37,H41,H45,H49,H53,H57)</f>
-        <v>47.357142857142854</v>
+        <f t="shared" si="1"/>
+        <v>48.133333333333333</v>
       </c>
       <c r="U4" s="12">
-        <f t="shared" ref="U4" si="3">AVERAGE(I5,I9,I13,I17,I21,I25,I29,I33,I37,I41,I45,I49,I53,I57)</f>
-        <v>47.214285714285715</v>
-      </c>
-      <c r="V4" s="14">
-        <f t="shared" ref="V4" si="4">AVERAGE(J5,J9,J13,J17,J21,J25,J29,J33,J37,J41,J45,J49,J53,J57)</f>
-        <v>55.714285714285715</v>
+        <f t="shared" si="2"/>
+        <v>47.666666666666664</v>
+      </c>
+      <c r="V4" s="12">
+        <f t="shared" si="3"/>
+        <v>56.466666666666669</v>
       </c>
       <c r="W4" s="12">
-        <f t="shared" ref="W4:X4" si="5">AVERAGE(K5,K9,K13,K17,K21,K25,K29,K33,K37,K41,K45,K49,K53,K57)</f>
-        <v>46.642857142857146</v>
+        <f t="shared" si="4"/>
+        <v>46.733333333333334</v>
       </c>
       <c r="X4" s="12">
         <f t="shared" si="5"/>
-        <v>48.214285714285715</v>
+        <v>48.733333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -8431,6 +8575,171 @@
       <c r="L57" s="1">
         <v>47</v>
       </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>482</v>
+      </c>
+      <c r="C59">
+        <v>476</v>
+      </c>
+      <c r="D59">
+        <v>479</v>
+      </c>
+      <c r="E59">
+        <v>478</v>
+      </c>
+      <c r="F59">
+        <v>481</v>
+      </c>
+      <c r="H59">
+        <v>476</v>
+      </c>
+      <c r="I59">
+        <v>484</v>
+      </c>
+      <c r="J59">
+        <v>477</v>
+      </c>
+      <c r="K59">
+        <v>480</v>
+      </c>
+      <c r="L59">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>114</v>
+      </c>
+      <c r="C60">
+        <v>116</v>
+      </c>
+      <c r="D60" s="8">
+        <v>119</v>
+      </c>
+      <c r="E60">
+        <v>111</v>
+      </c>
+      <c r="F60">
+        <v>113</v>
+      </c>
+      <c r="H60">
+        <v>107</v>
+      </c>
+      <c r="I60">
+        <v>115</v>
+      </c>
+      <c r="J60">
+        <v>110</v>
+      </c>
+      <c r="K60">
+        <v>117</v>
+      </c>
+      <c r="L60">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43</v>
+      </c>
+      <c r="C61" s="1">
+        <v>61</v>
+      </c>
+      <c r="D61" s="1">
+        <v>41</v>
+      </c>
+      <c r="E61" s="1">
+        <v>59</v>
+      </c>
+      <c r="F61" s="1">
+        <v>46</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1">
+        <v>59</v>
+      </c>
+      <c r="I61" s="1">
+        <v>54</v>
+      </c>
+      <c r="J61" s="1">
+        <v>67</v>
+      </c>
+      <c r="K61" s="1">
+        <v>48</v>
+      </c>
+      <c r="L61" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="65" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8446,10 +8755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8468,35 +8777,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="T1" s="19" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="T1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8603,44 +8912,45 @@
         <v>4</v>
       </c>
       <c r="N3" s="12">
-        <f>AVERAGE(B3,B5,B7,B9,B11,B13,B15,B17,B19,B21,B23,B25,B27,B29)</f>
-        <v>7.2857142857142856</v>
+        <f>AVERAGE(B3,B5,B7,B9,B11,B13,B15,B17,B19,B21,B23,B25,B27,B29,B31)</f>
+        <v>7.4</v>
       </c>
       <c r="O3" s="12">
-        <f t="shared" ref="N3:X4" si="0">AVERAGE(C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29)</f>
-        <v>6.5714285714285712</v>
+        <f t="shared" ref="O3:X3" si="0">AVERAGE(C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31)</f>
+        <v>6.5333333333333332</v>
       </c>
       <c r="P3" s="12">
         <f t="shared" si="0"/>
-        <v>6.2857142857142856</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="Q3" s="12">
         <f t="shared" si="0"/>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="R3">
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="R3" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="T3" s="14">
+        <v>5.9333333333333336</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12">
         <f t="shared" si="0"/>
-        <v>5.8571428571428568</v>
-      </c>
-      <c r="U3" s="14">
+        <v>5.7333333333333334</v>
+      </c>
+      <c r="U3" s="12">
         <f t="shared" si="0"/>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="V3" s="14">
+        <v>5.2666666666666666</v>
+      </c>
+      <c r="V3" s="12">
         <f t="shared" si="0"/>
-        <v>6.1428571428571432</v>
-      </c>
-      <c r="W3" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="W3" s="12">
         <f t="shared" si="0"/>
-        <v>3.7142857142857144</v>
-      </c>
-      <c r="X3" s="14">
+        <v>3.8</v>
+      </c>
+      <c r="X3" s="12">
         <f t="shared" si="0"/>
-        <v>5.1428571428571432</v>
+        <v>5.2666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -9577,6 +9887,78 @@
       </c>
       <c r="L29" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1">
+        <v>7</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -9593,15 +9975,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X309"/>
+  <dimension ref="A1:X331"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
@@ -9620,36 +10002,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9756,46 +10138,46 @@
       <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="14">
-        <f>AVERAGE(B3,B4,B25,B26,B47,B48,B69,B70,B91,B92,B113,B114,B135,B136,B157,B158,B179,B180,B201,B202,B223,B224,B245,B246,B267,B268,B289,B290)</f>
-        <v>4.3888888888888893</v>
-      </c>
-      <c r="O3" s="12">
-        <f>AVERAGE(C3,C4,C25,C26,C47,C48,C69,C70,C91,C92,C113,C114,C135,C136,C157,C158,C179,C180,C201,C202,C223,C224,C245,C246,C267,C268,C289,C290)</f>
-        <v>4.3809523809523814</v>
-      </c>
-      <c r="P3" s="12">
-        <f>AVERAGE(D3,D4,D25,D26,D47,D48,D69,D70,D91,D92,D113,D114,D135,D136,D157,D158,D179,D180,D201,D202,D223,D224,D245,D246,D267,D268,D289,D290)</f>
+      <c r="N3" s="19">
+        <f>AVERAGE(B3,B4,B25,B26,B47,B48,B69,B70,B91,B92,B113,B114,B135,B136,B157,B158,B179,B180,B201,B202,B223,B224,B245,B246,B267,B268,B289,B290,B311,B312)</f>
+        <v>4.25</v>
+      </c>
+      <c r="O3" s="19">
+        <f>AVERAGE(C3,C4,C25,C26,C47,C48,C69,C70,C91,C92,C113,C114,C135,C136,C157,C158,C179,C180,C201,C202,C223,C224,C245,C246,C267,C268,C289,C290,C311,C312)</f>
+        <v>4.3636363636363633</v>
+      </c>
+      <c r="P3" s="19">
+        <f t="shared" ref="P3:R12" si="0">AVERAGE(D3,D4,D25,D26,D47,D48,D69,D70,D91,D92,D113,D114,D135,D136,D157,D158,D179,D180,D201,D202,D223,D224,D245,D246,D267,D268,D289,D290,D311,D312)</f>
+        <v>3.9545454545454546</v>
+      </c>
+      <c r="Q3" s="19">
+        <f t="shared" si="0"/>
+        <v>5.0625</v>
+      </c>
+      <c r="R3" s="19">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Q3" s="14">
-        <f>AVERAGE(E3,E4,E25,E26,E47,E48,E69,E70,E91,E92,E113,E114,E135,E136,E157,E158,E179,E180,E201,E202,E223,E224,E245,E246,E267,E268,E289,E290)</f>
-        <v>4.9333333333333336</v>
-      </c>
-      <c r="R3" s="14">
-        <f>AVERAGE(F3,F4,F25,F26,F47,F48,F69,F70,F91,F92,F113,F114,F135,F136,F157,F158,F179,F180,F201,F202,F223,F224,F245,F246,F267,F268,F289,F290)</f>
-        <v>4</v>
-      </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12">
-        <f>AVERAGE(H3,H4,H25,H26,H47,H48,H69,H70,H91,H92,H113,H114,H135,H136,H157,H158,H179,H180,H201,H202,H223,H224,H245,H246,H267,H268,H289,H290)</f>
-        <v>6.0588235294117645</v>
-      </c>
-      <c r="U3" s="14">
-        <f>AVERAGE(I3,I4,I25,I26,I47,I48,I69,I70,I91,I92,I113,I114,I135,I136,I157,I158,I179,I180,I201,I202,I223,I224,I245,I246,I267,I268,I289,I290)</f>
-        <v>4.0588235294117645</v>
-      </c>
-      <c r="V3" s="14">
-        <f>AVERAGE(J3,J4,J25,J26,J47,J48,J69,J70,J91,J92,J113,J114,J135,J136,J157,J158,J179,J180,J201,J202,J223,J224,J245,J246,J267,J268,J289,J290)</f>
-        <v>3.9411764705882355</v>
-      </c>
-      <c r="W3" s="12">
-        <f>AVERAGE(K3,K4,K25,K26,K47,K48,K69,K70,K91,K92,K113,K114,K135,K136,K157,K158,K179,K180,K201,K202,K223,K224,K245,K246,K267,K268,K289,K290)</f>
-        <v>6.4705882352941178</v>
-      </c>
-      <c r="X3" s="12">
-        <f>AVERAGE(L3,L4,L25,L26,L47,L48,L69,L70,L91,L92,L113,L114,L135,L136,L157,L158,L179,L180,L201,L202,L223,L224,L245,L246,L267,L268,L289,L290)</f>
-        <v>4.2380952380952381</v>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19">
+        <f t="shared" ref="T3:T12" si="1">AVERAGE(H3,H4,H25,H26,H47,H48,H69,H70,H91,H92,H113,H114,H135,H136,H157,H158,H179,H180,H201,H202,H223,H224,H245,H246,H267,H268,H289,H290,H311,H312)</f>
+        <v>5.9444444444444446</v>
+      </c>
+      <c r="U3" s="19">
+        <f t="shared" ref="U3:U12" si="2">AVERAGE(I3,I4,I25,I26,I47,I48,I69,I70,I91,I92,I113,I114,I135,I136,I157,I158,I179,I180,I201,I202,I223,I224,I245,I246,I267,I268,I289,I290,I311,I312)</f>
+        <v>3.9473684210526314</v>
+      </c>
+      <c r="V3" s="19">
+        <f t="shared" ref="V3:V12" si="3">AVERAGE(J3,J4,J25,J26,J47,J48,J69,J70,J91,J92,J113,J114,J135,J136,J157,J158,J179,J180,J201,J202,J223,J224,J245,J246,J267,J268,J289,J290,J311,J312)</f>
+        <v>3.8421052631578947</v>
+      </c>
+      <c r="W3" s="22">
+        <f t="shared" ref="W3:W12" si="4">AVERAGE(K3,K4,K25,K26,K47,K48,K69,K70,K91,K92,K113,K114,K135,K136,K157,K158,K179,K180,K201,K202,K223,K224,K245,K246,K267,K268,K289,K290,K311,K312)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="X3" s="19">
+        <f t="shared" ref="X3:X12" si="5">AVERAGE(L3,L4,L25,L26,L47,L48,L69,L70,L91,L92,L113,L114,L135,L136,L157,L158,L179,L180,L201,L202,L223,L224,L245,L246,L267,L268,L289,L290,L311,L312)</f>
+        <v>4.1739130434782608</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -9818,46 +10200,46 @@
       <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="14">
-        <f>AVERAGE(B5,B6,B27,B28,B49,B50,B71,B72,B93,B94,B115,B116,B137,B138,B159,B160,B181,B182,B203,B204,B225,B226,B248,B247,B270,B269,B291,B292)</f>
-        <v>3.7</v>
-      </c>
-      <c r="O4" s="14">
-        <f>AVERAGE(C5,C6,C27,C28,C49,C50,C71,C72,C93,C94,C115,C116,C137,C138,C159,C160,C181,C182,C203,C204,C225,C226,C248,C247,C270,C269,C291,C292)</f>
-        <v>3.9090909090909092</v>
-      </c>
-      <c r="P4" s="14">
-        <f>AVERAGE(D5,D6,D27,D28,D49,D50,D71,D72,D93,D94,D115,D116,D137,D138,D159,D160,D181,D182,D203,D204,D225,D226,D248,D247,D270,D269,D291,D292)</f>
-        <v>3.6363636363636362</v>
-      </c>
-      <c r="Q4" s="14">
-        <f>AVERAGE(E5,E6,E27,E28,E49,E50,E71,E72,E93,E94,E115,E116,E137,E138,E159,E160,E181,E182,E203,E204,E225,E226,E248,E247,E270,E269,E291,E292)</f>
-        <v>3.9444444444444446</v>
-      </c>
-      <c r="R4" s="14">
-        <f>AVERAGE(F5,F6,F27,F28,F49,F50,F71,F72,F93,F94,F115,F116,F137,F138,F159,F160,F181,F182,F203,F204,F225,F226,F248,F247,F270,F269,F291,F292)</f>
-        <v>3.7727272727272729</v>
-      </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12">
-        <f>AVERAGE(H5,H6,H27,H28,H49,H50,H71,H72,H93,H94,H115,H116,H137,H138,H159,H160,H181,H182,H203,H204,H225,H226,H248,H247,H270,H269,H291,H292)</f>
-        <v>4.2</v>
-      </c>
-      <c r="U4" s="12">
-        <f>AVERAGE(I5,I6,I27,I28,I49,I50,I71,I72,I93,I94,I115,I116,I137,I138,I159,I160,I181,I182,I203,I204,I225,I226,I248,I247,I270,I269,I291,I292)</f>
-        <v>4.9473684210526319</v>
-      </c>
-      <c r="V4" s="12">
-        <f>AVERAGE(J5,J6,J27,J28,J49,J50,J71,J72,J93,J94,J115,J116,J137,J138,J159,J160,J181,J182,J203,J204,J225,J226,J248,J247,J270,J269,J291,J292)</f>
+      <c r="N4" s="19">
+        <f t="shared" ref="N4:N13" si="6">AVERAGE(B4,B5,B26,B27,B48,B49,B70,B71,B92,B93,B114,B115,B136,B137,B158,B159,B180,B181,B202,B203,B224,B225,B246,B247,B268,B269,B290,B291,B312,B313)</f>
+        <v>3.55</v>
+      </c>
+      <c r="O4" s="19">
+        <f t="shared" ref="O4:O12" si="7">AVERAGE(C4,C5,C26,C27,C48,C49,C70,C71,C92,C93,C114,C115,C136,C137,C158,C159,C180,C181,C202,C203,C224,C225,C246,C247,C268,C269,C290,C291,C312,C313)</f>
+        <v>4.0454545454545459</v>
+      </c>
+      <c r="P4" s="19">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q4" s="19">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="R4" s="19">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W4" s="12">
-        <f>AVERAGE(K5,K6,K27,K28,K49,K50,K71,K72,K93,K94,K115,K116,K137,K138,K159,K160,K181,K182,K203,K204,K225,K226,K248,K247,K270,K269,K291,K292)</f>
-        <v>6.8421052631578947</v>
-      </c>
-      <c r="X4" s="12">
-        <f>AVERAGE(L5,L6,L27,L28,L49,L50,L71,L72,L93,L94,L115,L116,L137,L138,L159,L160,L181,L182,L203,L204,L225,L226,L248,L247,L270,L269,L291,L292)</f>
-        <v>5.4285714285714288</v>
+      <c r="S4" s="20"/>
+      <c r="T4" s="19">
+        <f t="shared" si="1"/>
+        <v>4.3888888888888893</v>
+      </c>
+      <c r="U4" s="19">
+        <f t="shared" si="2"/>
+        <v>4.7368421052631575</v>
+      </c>
+      <c r="V4" s="19">
+        <f t="shared" si="3"/>
+        <v>3.8421052631578947</v>
+      </c>
+      <c r="W4" s="19">
+        <f t="shared" si="4"/>
+        <v>6.3684210526315788</v>
+      </c>
+      <c r="X4" s="19">
+        <f t="shared" si="5"/>
+        <v>4.7391304347826084</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -9898,46 +10280,46 @@
       <c r="M5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="12">
-        <f>AVERAGE(B7,B8,B29,B30,B51,B52,B73,B74,B95,B96,B117,B118,B139,B140,B161,B162,B183,B184,B205,B206,B227,B228,B249,B250,B271,B272,B293,B294)</f>
-        <v>7.9</v>
-      </c>
-      <c r="O5" s="12">
-        <f>AVERAGE(C7,C8,C29,C30,C51,C52,C73,C74,C95,C96,C117,C118,C139,C140,C161,C162,C183,C184,C205,C206,C227,C228,C249,C250,C271,C272,C293,C294)</f>
-        <v>7.4285714285714288</v>
-      </c>
-      <c r="P5" s="14">
-        <f>AVERAGE(D7,D8,D29,D30,D51,D52,D73,D74,D95,D96,D117,D118,D139,D140,D161,D162,D183,D184,D205,D206,D227,D228,D249,D250,D271,D272,D293,D294)</f>
-        <v>7.2380952380952381</v>
-      </c>
-      <c r="Q5" s="12">
-        <f>AVERAGE(E7,E8,E29,E30,E51,E52,E73,E74,E95,E96,E117,E118,E139,E140,E161,E162,E183,E184,E205,E206,E227,E228,E249,E250,E271,E272,E293,E294)</f>
-        <v>8.1</v>
-      </c>
-      <c r="R5" s="14">
-        <f>AVERAGE(F7,F8,F29,F30,F51,F52,F73,F74,F95,F96,F117,F118,F139,F140,F161,F162,F183,F184,F205,F206,F227,F228,F249,F250,F271,F272,F293,F294)</f>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="14">
-        <f>AVERAGE(H7,H8,H29,H30,H51,H52,H73,H74,H95,H96,H117,H118,H139,H140,H161,H162,H183,H184,H205,H206,H227,H228,H249,H250,H271,H272,H293,H294)</f>
-        <v>7.6190476190476186</v>
-      </c>
-      <c r="U5" s="14">
-        <f>AVERAGE(I7,I8,I29,I30,I51,I52,I73,I74,I95,I96,I117,I118,I139,I140,I161,I162,I183,I184,I205,I206,I227,I228,I249,I250,I271,I272,I293,I294)</f>
-        <v>7.2631578947368425</v>
-      </c>
-      <c r="V5" s="12">
-        <f>AVERAGE(J7,J8,J29,J30,J51,J52,J73,J74,J95,J96,J117,J118,J139,J140,J161,J162,J183,J184,J205,J206,J227,J228,J249,J250,J271,J272,J293,J294)</f>
-        <v>7.8695652173913047</v>
-      </c>
-      <c r="W5" s="14">
-        <f>AVERAGE(K7,K8,K29,K30,K51,K52,K73,K74,K95,K96,K117,K118,K139,K140,K161,K162,K183,K184,K205,K206,K227,K228,K249,K250,K271,K272,K293,K294)</f>
-        <v>7.2631578947368425</v>
-      </c>
-      <c r="X5" s="12">
-        <f>AVERAGE(L7,L8,L29,L30,L51,L52,L73,L74,L95,L96,L117,L118,L139,L140,L161,L162,L183,L184,L205,L206,L227,L228,L249,L250,L271,L272,L293,L294)</f>
-        <v>7.2631578947368425</v>
+      <c r="N5" s="19">
+        <f t="shared" si="6"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="O5" s="19">
+        <f t="shared" si="7"/>
+        <v>3.875</v>
+      </c>
+      <c r="P5" s="19">
+        <f t="shared" si="0"/>
+        <v>3.5416666666666665</v>
+      </c>
+      <c r="Q5" s="19">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="R5" s="19">
+        <f t="shared" si="0"/>
+        <v>3.7391304347826089</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="19">
+        <f t="shared" si="1"/>
+        <v>4.1363636363636367</v>
+      </c>
+      <c r="U5" s="19">
+        <f t="shared" si="2"/>
+        <v>4.8095238095238093</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" si="3"/>
+        <v>3.9230769230769229</v>
+      </c>
+      <c r="W5" s="19">
+        <f t="shared" si="4"/>
+        <v>6.7</v>
+      </c>
+      <c r="X5" s="19">
+        <f t="shared" si="5"/>
+        <v>5.2608695652173916</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -9964,46 +10346,46 @@
       <c r="M6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="14">
-        <f>AVERAGE(B9,B10,B31,B32,B53,B54,B75,B76,B97,B98,B119,B120,B141,B142,B163,B164,B185,B186,B207,B208,B229,B230,B251,B252,B273,B274,B295,B296)</f>
-        <v>7.25</v>
-      </c>
-      <c r="O6" s="12">
-        <f>AVERAGE(C9,C10,C31,C32,C53,C54,C75,C76,C97,C98,C119,C120,C141,C142,C163,C164,C185,C186,C207,C208,C229,C230,C251,C252,C273,C274,C295,C296)</f>
-        <v>7.0625</v>
-      </c>
-      <c r="P6" s="12">
-        <f>AVERAGE(D9,D10,D31,D32,D53,D54,D75,D76,D97,D98,D119,D120,D141,D142,D163,D164,D185,D186,D207,D208,D229,D230,D251,D252,D273,D274,D295,D296)</f>
-        <v>6.8095238095238093</v>
-      </c>
-      <c r="Q6" s="14">
-        <f>AVERAGE(E9,E10,E31,E32,E53,E54,E75,E76,E97,E98,E119,E120,E141,E142,E163,E164,E185,E186,E207,E208,E229,E230,E251,E252,E273,E274,E295,E296)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="R6" s="14">
-        <f>AVERAGE(F9,F10,F31,F32,F53,F54,F75,F76,F97,F98,F119,F120,F141,F142,F163,F164,F185,F186,F207,F208,F229,F230,F251,F252,F273,F274,F295,F296)</f>
+      <c r="N6" s="19">
+        <f t="shared" si="6"/>
+        <v>7.0476190476190474</v>
+      </c>
+      <c r="O6" s="19">
+        <f t="shared" si="7"/>
+        <v>6.041666666666667</v>
+      </c>
+      <c r="P6" s="19">
+        <f t="shared" si="0"/>
+        <v>6.125</v>
+      </c>
+      <c r="Q6" s="19">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="R6" s="19">
+        <f t="shared" si="0"/>
+        <v>5.7826086956521738</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="19">
+        <f t="shared" si="1"/>
+        <v>6.2272727272727275</v>
+      </c>
+      <c r="U6" s="19">
+        <f t="shared" si="2"/>
+        <v>6.3636363636363633</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" si="3"/>
+        <v>6.1538461538461542</v>
+      </c>
+      <c r="W6" s="19">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="X6" s="19">
+        <f t="shared" si="5"/>
         <v>6.5</v>
-      </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12">
-        <f>AVERAGE(H9,H10,H31,H32,H53,H54,H75,H76,H97,H98,H119,H120,H141,H142,H163,H164,H185,H186,H207,H208,H229,H230,H251,H252,H273,H274,H295,H296)</f>
-        <v>7.7619047619047619</v>
-      </c>
-      <c r="U6" s="14">
-        <f>AVERAGE(I9,I10,I31,I32,I53,I54,I75,I76,I97,I98,I119,I120,I141,I142,I163,I164,I185,I186,I207,I208,I229,I230,I251,I252,I273,I274,I295,I296)</f>
-        <v>7.0454545454545459</v>
-      </c>
-      <c r="V6" s="14">
-        <f>AVERAGE(J9,J10,J31,J32,J53,J54,J75,J76,J97,J98,J119,J120,J141,J142,J163,J164,J185,J186,J207,J208,J229,J230,J251,J252,J273,J274,J295,J296)</f>
-        <v>6.75</v>
-      </c>
-      <c r="W6" s="12">
-        <f>AVERAGE(K9,K10,K31,K32,K53,K54,K75,K76,K97,K98,K119,K120,K141,K142,K163,K164,K185,K186,K207,K208,K229,K230,K251,K252,K273,K274,K295,K296)</f>
-        <v>7.75</v>
-      </c>
-      <c r="X6" s="12">
-        <f>AVERAGE(L9,L10,L31,L32,L53,L54,L75,L76,L97,L98,L119,L120,L141,L142,L163,L164,L185,L186,L207,L208,L229,L230,L251,L252,L273,L274,L295,L296)</f>
-        <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -10044,46 +10426,46 @@
       <c r="M7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="12">
-        <f>AVERAGE(B11,B12,B33,B34,B55,B56,B77,B78,B99,B100,B121,B122,B143,B144,B165,B166,B187,B188,B209,B210,B231,B232,B253,B254,B275,B276,B297,B298)</f>
-        <v>6.1428571428571432</v>
-      </c>
-      <c r="O7" s="12">
-        <f>AVERAGE(C11,C12,C33,C34,C55,C56,C77,C78,C99,C100,C121,C122,C143,C144,C165,C166,C187,C188,C209,C210,C231,C232,C253,C254,C275,C276,C297,C298)</f>
-        <v>7.4705882352941178</v>
-      </c>
-      <c r="P7" s="14">
-        <f>AVERAGE(D11,D12,D33,D34,D55,D56,D77,D78,D99,D100,D121,D122,D143,D144,D165,D166,D187,D188,D209,D210,D231,D232,D253,D254,D275,D276,D297,D298)</f>
-        <v>5.3</v>
-      </c>
-      <c r="Q7" s="12">
-        <f>AVERAGE(E11,E12,E33,E34,E55,E56,E77,E78,E99,E100,E121,E122,E143,E144,E165,E166,E187,E188,E209,E210,E231,E232,E253,E254,E275,E276,E297,E298)</f>
-        <v>6.7368421052631575</v>
-      </c>
-      <c r="R7" s="14">
-        <f>AVERAGE(F11,F12,F33,F34,F55,F56,F77,F78,F99,F100,F121,F122,F143,F144,F165,F166,F187,F188,F209,F210,F231,F232,F253,F254,F275,F276,F297,F298)</f>
-        <v>5.4090909090909092</v>
-      </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="14">
-        <f>AVERAGE(H11,H12,H33,H34,H55,H56,H77,H78,H99,H100,H121,H122,H143,H144,H165,H166,H187,H188,H209,H210,H231,H232,H253,H254,H275,H276,H297,H298)</f>
-        <v>4.7142857142857144</v>
-      </c>
-      <c r="U7" s="14">
-        <f>AVERAGE(I11,I12,I33,I34,I55,I56,I77,I78,I99,I100,I121,I122,I143,I144,I165,I166,I187,I188,I209,I210,I231,I232,I253,I254,I275,I276,I297,I298)</f>
-        <v>5.2173913043478262</v>
-      </c>
-      <c r="V7" s="12">
-        <f>AVERAGE(J11,J12,J33,J34,J55,J56,J77,J78,J99,J100,J121,J122,J143,J144,J165,J166,J187,J188,J209,J210,J231,J232,J253,J254,J275,J276,J297,J298)</f>
-        <v>5.8947368421052628</v>
-      </c>
-      <c r="W7" s="14">
-        <f>AVERAGE(K11,K12,K33,K34,K55,K56,K77,K78,K99,K100,K121,K122,K143,K144,K165,K166,K187,K188,K209,K210,K231,K232,K253,K254,K275,K276,K297,K298)</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="X7" s="12">
-        <f>AVERAGE(L11,L12,L33,L34,L55,L56,L77,L78,L99,L100,L121,L122,L143,L144,L165,L166,L187,L188,L209,L210,L231,L232,L253,L254,L275,L276,L297,L298)</f>
-        <v>6.3684210526315788</v>
+      <c r="N7" s="19">
+        <f t="shared" si="6"/>
+        <v>7.9047619047619051</v>
+      </c>
+      <c r="O7" s="19">
+        <f t="shared" si="7"/>
+        <v>7.3043478260869561</v>
+      </c>
+      <c r="P7" s="19">
+        <f t="shared" si="0"/>
+        <v>7.3478260869565215</v>
+      </c>
+      <c r="Q7" s="19">
+        <f t="shared" si="0"/>
+        <v>8.045454545454545</v>
+      </c>
+      <c r="R7" s="19">
+        <f t="shared" si="0"/>
+        <v>7.1363636363636367</v>
+      </c>
+      <c r="S7" s="20"/>
+      <c r="T7" s="19">
+        <f t="shared" si="1"/>
+        <v>7.4782608695652177</v>
+      </c>
+      <c r="U7" s="19">
+        <f t="shared" si="2"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="V7" s="19">
+        <f t="shared" si="3"/>
+        <v>7.72</v>
+      </c>
+      <c r="W7" s="19">
+        <f t="shared" si="4"/>
+        <v>7.2</v>
+      </c>
+      <c r="X7" s="19">
+        <f t="shared" si="5"/>
+        <v>7.0952380952380949</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -10108,46 +10490,46 @@
       <c r="M8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="14">
-        <f>AVERAGE(B13,B14,B35,B36,B57,B58,B79,B80,B101,B102,B123,B124,B145,B146,B167,B168,B189,B190,B211,B212,B233,B234,B255,B256,B277,B278,B299,B300)</f>
-        <v>6.8095238095238093</v>
-      </c>
-      <c r="O8" s="12">
-        <f>AVERAGE(C13,C14,C35,C36,C57,C58,C79,C80,C101,C102,C123,C124,C145,C146,C167,C168,C189,C190,C211,C212,C233,C234,C255,C256,C277,C278,C299,C300)</f>
-        <v>6.882352941176471</v>
-      </c>
-      <c r="P8" s="12">
-        <f>AVERAGE(D13,D14,D35,D36,D57,D58,D79,D80,D101,D102,D123,D124,D145,D146,D167,D168,D189,D190,D211,D212,D233,D234,D255,D256,D277,D278,D299,D300)</f>
-        <v>7.2105263157894735</v>
-      </c>
-      <c r="Q8" s="14">
-        <f>AVERAGE(E13,E14,E35,E36,E57,E58,E79,E80,E101,E102,E123,E124,E145,E146,E167,E168,E189,E190,E211,E212,E233,E234,E255,E256,E277,E278,E299,E300)</f>
-        <v>6.85</v>
-      </c>
-      <c r="R8" s="14">
-        <f>AVERAGE(F13,F14,F35,F36,F57,F58,F79,F80,F101,F102,F123,F124,F145,F146,F167,F168,F189,F190,F211,F212,F233,F234,F255,F256,F277,F278,F299,F300)</f>
-        <v>6.5</v>
-      </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12">
-        <f>AVERAGE(H13,H14,H35,H36,H57,H58,H79,H80,H101,H102,H123,H124,H145,H146,H167,H168,H189,H190,H211,H212,H233,H234,H255,H256,H277,H278,H299,H300)</f>
+      <c r="N8" s="19">
+        <f t="shared" si="6"/>
+        <v>7.5238095238095237</v>
+      </c>
+      <c r="O8" s="19">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="U8" s="14">
-        <f>AVERAGE(I13,I14,I35,I36,I57,I58,I79,I80,I101,I102,I123,I124,I145,I146,I167,I168,I189,I190,I211,I212,I233,I234,I255,I256,I277,I278,I299,I300)</f>
-        <v>6.7619047619047619</v>
-      </c>
-      <c r="V8" s="14">
-        <f>AVERAGE(J13,J14,J35,J36,J57,J58,J79,J80,J101,J102,J123,J124,J145,J146,J167,J168,J189,J190,J211,J212,J233,J234,J255,J256,J277,J278,J299,J300)</f>
-        <v>6.5909090909090908</v>
-      </c>
-      <c r="W8" s="12">
-        <f>AVERAGE(K13,K14,K35,K36,K57,K58,K79,K80,K101,K102,K123,K124,K145,K146,K167,K168,K189,K190,K211,K212,K233,K234,K255,K256,K277,K278,K299,K300)</f>
-        <v>7.5555555555555554</v>
-      </c>
-      <c r="X8" s="12">
-        <f>AVERAGE(L13,L14,L35,L36,L57,L58,L79,L80,L101,L102,L123,L124,L145,L146,L167,L168,L189,L190,L211,L212,L233,L234,L255,L256,L277,L278,L299,L300)</f>
-        <v>6.7647058823529411</v>
+      <c r="P8" s="19">
+        <f t="shared" si="0"/>
+        <v>6.8695652173913047</v>
+      </c>
+      <c r="Q8" s="19">
+        <f t="shared" si="0"/>
+        <v>7.2727272727272725</v>
+      </c>
+      <c r="R8" s="19">
+        <f t="shared" si="0"/>
+        <v>6.7727272727272725</v>
+      </c>
+      <c r="S8" s="20"/>
+      <c r="T8" s="19">
+        <f t="shared" si="1"/>
+        <v>8.0434782608695645</v>
+      </c>
+      <c r="U8" s="19">
+        <f t="shared" si="2"/>
+        <v>7.1904761904761907</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="3"/>
+        <v>6.88</v>
+      </c>
+      <c r="W8" s="19">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
+      </c>
+      <c r="X8" s="19">
+        <f t="shared" si="5"/>
+        <v>6.7272727272727275</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -10188,46 +10570,46 @@
       <c r="M9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="14">
-        <f>AVERAGE(B15,B16,B37,B38,B59,B60,B81,B82,B103,B104,B125,B126,B147,B148,B169,B170,B191,B192,B213,B214,B235,B236,B257,B258,B279,B280,B301,B302)</f>
-        <v>7.2631578947368425</v>
-      </c>
-      <c r="O9" s="12">
-        <f>AVERAGE(C15,C16,C37,C38,C59,C60,C81,C82,C103,C104,C125,C126,C147,C148,C169,C170,C191,C192,C213,C214,C235,C236,C257,C258,C279,C280,C301,C302)</f>
-        <v>8.1333333333333329</v>
-      </c>
-      <c r="P9" s="12">
-        <f>AVERAGE(D15,D16,D37,D38,D59,D60,D81,D82,D103,D104,D125,D126,D147,D148,D169,D170,D191,D192,D213,D214,D235,D236,D257,D258,D279,D280,D301,D302)</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="Q9" s="14">
-        <f>AVERAGE(E15,E16,E37,E38,E59,E60,E81,E82,E103,E104,E125,E126,E147,E148,E169,E170,E191,E192,E213,E214,E235,E236,E257,E258,E279,E280,E301,E302)</f>
-        <v>7.3684210526315788</v>
-      </c>
-      <c r="R9" s="12">
-        <f>AVERAGE(F15,F16,F37,F38,F59,F60,F81,F82,F103,F104,F125,F126,F147,F148,F169,F170,F191,F192,F213,F214,F235,F236,F257,F258,F279,F280,F301,F302)</f>
-        <v>7.8095238095238093</v>
-      </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12">
-        <f>AVERAGE(H15,H16,H37,H38,H59,H60,H81,H82,H103,H104,H125,H126,H147,H148,H169,H170,H191,H192,H213,H214,H235,H236,H257,H258,H279,H280,H301,H302)</f>
-        <v>7.45</v>
-      </c>
-      <c r="U9" s="14">
-        <f>AVERAGE(I15,I16,I37,I38,I59,I60,I81,I82,I103,I104,I125,I126,I147,I148,I169,I170,I191,I192,I213,I214,I235,I236,I257,I258,I279,I280,I301,I302)</f>
-        <v>7.35</v>
-      </c>
-      <c r="V9" s="14">
-        <f>AVERAGE(J15,J16,J37,J38,J59,J60,J81,J82,J103,J104,J125,J126,J147,J148,J169,J170,J191,J192,J213,J214,J235,J236,J257,J258,J279,J280,J301,J302)</f>
-        <v>7.2105263157894735</v>
-      </c>
-      <c r="W9" s="12">
-        <f>AVERAGE(K15,K16,K37,K38,K59,K60,K81,K82,K103,K104,K125,K126,K147,K148,K169,K170,K191,K192,K213,K214,K235,K236,K257,K258,K279,K280,K301,K302)</f>
-        <v>7.833333333333333</v>
-      </c>
-      <c r="X9" s="14">
-        <f>AVERAGE(L15,L16,L37,L38,L59,L60,L81,L82,L103,L104,L125,L126,L147,L148,L169,L170,L191,L192,L213,L214,L235,L236,L257,L258,L279,L280,L301,L302)</f>
-        <v>7.7777777777777777</v>
+      <c r="N9" s="19">
+        <f t="shared" si="6"/>
+        <v>7.1904761904761907</v>
+      </c>
+      <c r="O9" s="19">
+        <f t="shared" si="7"/>
+        <v>7.0555555555555554</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" si="0"/>
+        <v>6.7391304347826084</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" si="0"/>
+        <v>6.5217391304347823</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" si="0"/>
+        <v>6.5217391304347823</v>
+      </c>
+      <c r="S9" s="20"/>
+      <c r="T9" s="19">
+        <f t="shared" si="1"/>
+        <v>7.6086956521739131</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" si="2"/>
+        <v>6.958333333333333</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="3"/>
+        <v>6.5909090909090908</v>
+      </c>
+      <c r="W9" s="19">
+        <f t="shared" si="4"/>
+        <v>7.6470588235294121</v>
+      </c>
+      <c r="X9" s="19">
+        <f t="shared" si="5"/>
+        <v>6.6363636363636367</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -10252,46 +10634,46 @@
       <c r="M10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="14">
-        <f>AVERAGE(B17,B18,B39,B40,B61,B62,B83,B84,B105,B106,B127,B128,B149,B150,B171,B172,B193,B194,B215,B216,B237,B238,B259,B260,B281,B282,B303,B304)</f>
-        <v>7.4444444444444446</v>
-      </c>
-      <c r="O10" s="12">
-        <f>AVERAGE(C17,C18,C39,C40,C61,C62,C83,C84,C105,C106,C127,C128,C149,C150,C171,C172,C193,C194,C215,C216,C237,C238,C259,C260,C281,C282,C303,C304)</f>
-        <v>7.6315789473684212</v>
-      </c>
-      <c r="P10" s="14">
-        <f>AVERAGE(D17,D18,D39,D40,D61,D62,D83,D84,D105,D106,D127,D128,D149,D150,D171,D172,D193,D194,D215,D216,D237,D238,D259,D260,D281,D282,D303,D304)</f>
-        <v>7.1</v>
-      </c>
-      <c r="Q10" s="12">
-        <f>AVERAGE(E17,E18,E39,E40,E61,E62,E83,E84,E105,E106,E127,E128,E149,E150,E171,E172,E193,E194,E215,E216,E237,E238,E259,E260,E281,E282,E303,E304)</f>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="R10" s="14">
-        <f>AVERAGE(F17,F18,F39,F40,F61,F62,F83,F84,F105,F106,F127,F128,F149,F150,F171,F172,F193,F194,F215,F216,F237,F238,F259,F260,F281,F282,F303,F304)</f>
-        <v>7.3157894736842106</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12">
-        <f>AVERAGE(H17,H18,H39,H40,H61,H62,H83,H84,H105,H106,H127,H128,H149,H150,H171,H172,H193,H194,H215,H216,H237,H238,H259,H260,H281,H282,H303,H304)</f>
-        <v>7.7647058823529411</v>
-      </c>
-      <c r="U10" s="14">
-        <f>AVERAGE(I17,I18,I39,I40,I61,I62,I83,I84,I105,I106,I127,I128,I149,I150,I171,I172,I193,I194,I215,I216,I237,I238,I259,I260,I281,I282,I303,I304)</f>
-        <v>7.5294117647058822</v>
-      </c>
-      <c r="V10" s="12">
-        <f>AVERAGE(J17,J18,J39,J40,J61,J62,J83,J84,J105,J106,J127,J128,J149,J150,J171,J172,J193,J194,J215,J216,J237,J238,J259,J260,J281,J282,J303,J304)</f>
-        <v>7.3157894736842106</v>
-      </c>
-      <c r="W10" s="14">
-        <f>AVERAGE(K17,K18,K39,K40,K61,K62,K83,K84,K105,K106,K127,K128,K149,K150,K171,K172,K193,K194,K215,K216,K237,K238,K259,K260,K281,K282,K303,K304)</f>
-        <v>7.3809523809523814</v>
-      </c>
-      <c r="X10" s="12">
-        <f>AVERAGE(L17,L18,L39,L40,L61,L62,L83,L84,L105,L106,L127,L128,L149,L150,L171,L172,L193,L194,L215,L216,L237,L238,L259,L260,L281,L282,L303,L304)</f>
-        <v>7.3888888888888893</v>
+      <c r="N10" s="19">
+        <f t="shared" si="6"/>
+        <v>6.1428571428571432</v>
+      </c>
+      <c r="O10" s="19">
+        <f t="shared" si="7"/>
+        <v>7.6111111111111107</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="0"/>
+        <v>5.7826086956521738</v>
+      </c>
+      <c r="Q10" s="19">
+        <f t="shared" si="0"/>
+        <v>6.3478260869565215</v>
+      </c>
+      <c r="R10" s="19">
+        <f t="shared" si="0"/>
+        <v>6.0869565217391308</v>
+      </c>
+      <c r="S10" s="20"/>
+      <c r="T10" s="19">
+        <f t="shared" si="1"/>
+        <v>5.4347826086956523</v>
+      </c>
+      <c r="U10" s="19">
+        <f t="shared" si="2"/>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="3"/>
+        <v>6.1818181818181817</v>
+      </c>
+      <c r="W10" s="19">
+        <f t="shared" si="4"/>
+        <v>5.7058823529411766</v>
+      </c>
+      <c r="X10" s="19">
+        <f t="shared" si="5"/>
+        <v>6.3181818181818183</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -10332,46 +10714,46 @@
       <c r="M11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="12">
-        <f>AVERAGE(B19,B20,B41,B42,B63,B64,B85,B86,B107,B108,B129,B130,B151,B152,B173,B174,B195,B196,B217,B218,B239,B240,B261,B262,B283,B284,B305,B306)</f>
-        <v>6.1111111111111107</v>
-      </c>
-      <c r="O11" s="12">
-        <f>AVERAGE(C19,C20,C41,C42,C63,C64,C85,C86,C107,C108,C129,C130,C151,C152,C173,C174,C195,C196,C217,C218,C239,C240,C261,C262,C283,C284,C305,C306)</f>
-        <v>6.8095238095238093</v>
-      </c>
-      <c r="P11" s="14">
-        <f>AVERAGE(D19,D20,D41,D42,D63,D64,D85,D86,D107,D108,D129,D130,D151,D152,D173,D174,D195,D196,D217,D218,D239,D240,D261,D262,D283,D284,D305,D306)</f>
-        <v>6.0952380952380949</v>
-      </c>
-      <c r="Q11" s="12">
-        <f>AVERAGE(E19,E20,E41,E42,E63,E64,E85,E86,E107,E108,E129,E130,E151,E152,E173,E174,E195,E196,E217,E218,E239,E240,E261,E262,E283,E284,E305,E306)</f>
-        <v>7</v>
-      </c>
-      <c r="R11" s="14">
-        <f>AVERAGE(F19,F20,F41,F42,F63,F64,F85,F86,F107,F108,F129,F130,F151,F152,F173,F174,F195,F196,F217,F218,F239,F240,F261,F262,F283,F284,F305,F306)</f>
-        <v>5.8666666666666663</v>
-      </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="14">
-        <f>AVERAGE(H19,H20,H41,H42,H63,H64,H85,H86,H107,H108,H129,H130,H151,H152,H173,H174,H195,H196,H217,H218,H239,H240,H261,H262,H283,H284,H305,H306)</f>
-        <v>5.875</v>
-      </c>
-      <c r="U11" s="14">
-        <f>AVERAGE(I19,I20,I41,I42,I63,I64,I85,I86,I107,I108,I129,I130,I151,I152,I173,I174,I195,I196,I217,I218,I239,I240,I261,I262,I283,I284,I305,I306)</f>
-        <v>6.7222222222222223</v>
-      </c>
-      <c r="V11" s="12">
-        <f>AVERAGE(J19,J20,J41,J42,J63,J64,J85,J86,J107,J108,J129,J130,J151,J152,J173,J174,J195,J196,J217,J218,J239,J240,J261,J262,J283,J284,J305,J306)</f>
-        <v>6.4210526315789478</v>
-      </c>
-      <c r="W11" s="14">
-        <f>AVERAGE(K19,K20,K41,K42,K63,K64,K85,K86,K107,K108,K129,K130,K151,K152,K173,K174,K195,K196,K217,K218,K239,K240,K261,K262,K283,K284,K305,K306)</f>
-        <v>6.5555555555555554</v>
-      </c>
-      <c r="X11" s="12">
-        <f>AVERAGE(L19,L20,L41,L42,L63,L64,L85,L86,L107,L108,L129,L130,L151,L152,L173,L174,L195,L196,L217,L218,L239,L240,L261,L262,L283,L284,L305,L306)</f>
-        <v>6.2</v>
+      <c r="N11" s="19">
+        <f t="shared" si="6"/>
+        <v>6.0454545454545459</v>
+      </c>
+      <c r="O11" s="19">
+        <f t="shared" si="7"/>
+        <v>7.1578947368421053</v>
+      </c>
+      <c r="P11" s="19">
+        <f t="shared" si="0"/>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="Q11" s="19">
+        <f t="shared" si="0"/>
+        <v>6.5238095238095237</v>
+      </c>
+      <c r="R11" s="19">
+        <f t="shared" si="0"/>
+        <v>5.5652173913043477</v>
+      </c>
+      <c r="S11" s="20"/>
+      <c r="T11" s="19">
+        <f t="shared" si="1"/>
+        <v>4.7826086956521738</v>
+      </c>
+      <c r="U11" s="19">
+        <f t="shared" si="2"/>
+        <v>5.12</v>
+      </c>
+      <c r="V11" s="19">
+        <f t="shared" si="3"/>
+        <v>5.8</v>
+      </c>
+      <c r="W11" s="19">
+        <f t="shared" si="4"/>
+        <v>5.5882352941176467</v>
+      </c>
+      <c r="X11" s="19">
+        <f t="shared" si="5"/>
+        <v>6.35</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -10396,46 +10778,46 @@
       <c r="M12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="14">
-        <f>AVERAGE(B21,B22,B43,B44,B65,B66,B87,B88,B109,B110,B131,B132,B153,B154,B175,B176,B197,B198,B219,B220,B241,B242,B263,B264,B285,B286,B307,B308)</f>
-        <v>7.9444444444444446</v>
-      </c>
-      <c r="O12" s="12">
-        <f>AVERAGE(C21,C22,C43,C44,C65,C66,C87,C88,C109,C110,C131,C132,C153,C154,C175,C176,C197,C198,C219,C220,C241,C242,C263,C264,C285,C286,C307,C308)</f>
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="P12" s="12">
-        <f>AVERAGE(D21,D22,D43,D44,D65,D66,D87,D88,D109,D110,D131,D132,D153,D154,D175,D176,D197,D198,D219,D220,D241,D242,D263,D264,D285,D286,D307,D308)</f>
-        <v>7.1578947368421053</v>
-      </c>
-      <c r="Q12" s="12">
-        <f>AVERAGE(E21,E22,E43,E44,E65,E66,E87,E88,E109,E110,E131,E132,E153,E154,E175,E176,E197,E198,E219,E220,E241,E242,E263,E264,E285,E286,E307,E308)</f>
-        <v>8.125</v>
-      </c>
-      <c r="R12" s="12">
-        <f>AVERAGE(F21,F22,F43,F44,F65,F66,F87,F88,F109,F110,F131,F132,F153,F154,F175,F176,F197,F198,F219,F220,F241,F242,F263,F264,F285,F286,F307,F308)</f>
-        <v>7.4375</v>
-      </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12">
-        <f>AVERAGE(H21,H22,H43,H44,H65,H66,H87,H88,H109,H110,H131,H132,H153,H154,H175,H176,H197,H198,H219,H220,H241,H242,H263,H264,H285,H286,H307,H308)</f>
-        <v>7.0588235294117645</v>
-      </c>
-      <c r="U12" s="14">
-        <f>AVERAGE(I21,I22,I43,I44,I65,I66,I87,I88,I109,I110,I131,I132,I153,I154,I175,I176,I197,I198,I219,I220,I241,I242,I263,I264,I285,I286,I307,I308)</f>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="V12" s="14">
-        <f>AVERAGE(J21,J22,J43,J44,J65,J66,J87,J88,J109,J110,J131,J132,J153,J154,J175,J176,J197,J198,J219,J220,J241,J242,J263,J264,J285,J286,J307,J308)</f>
-        <v>7.0588235294117645</v>
-      </c>
-      <c r="W12" s="14">
-        <f>AVERAGE(K21,K22,K43,K44,K65,K66,K87,K88,K109,K110,K131,K132,K153,K154,K175,K176,K197,K198,K219,K220,K241,K242,K263,K264,K285,K286,K307,K308)</f>
-        <v>7.5294117647058822</v>
-      </c>
-      <c r="X12" s="14">
-        <f>AVERAGE(L21,L22,L43,L44,L65,L66,L87,L88,L109,L110,L131,L132,L153,L154,L175,L176,L197,L198,L219,L220,L241,L242,L263,L264,L285,L286,L307,L308)</f>
-        <v>7.3</v>
+      <c r="N12" s="19">
+        <f t="shared" si="6"/>
+        <v>6.5909090909090908</v>
+      </c>
+      <c r="O12" s="19">
+        <f t="shared" si="7"/>
+        <v>6.5263157894736841</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="0"/>
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" si="0"/>
+        <v>6.0434782608695654</v>
+      </c>
+      <c r="S12" s="20"/>
+      <c r="T12" s="19">
+        <f t="shared" si="1"/>
+        <v>6.3478260869565215</v>
+      </c>
+      <c r="U12" s="19">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="V12" s="19">
+        <f t="shared" si="3"/>
+        <v>6.35</v>
+      </c>
+      <c r="W12" s="19">
+        <f t="shared" si="4"/>
+        <v>7.6470588235294121</v>
+      </c>
+      <c r="X12" s="21">
+        <f t="shared" si="5"/>
+        <v>6.8</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -10477,45 +10859,45 @@
         <v>38</v>
       </c>
       <c r="N13" s="12">
-        <f>AVERAGE(B23,B45,B67,B89,B111,B133,B155,B177,B199,B221,B243,B265,B287,B309)</f>
-        <v>13.785714285714286</v>
+        <f>AVERAGE(B23,B45,B67,B89,B111,B133,B155,B177,B199,B221,B243,B265,B287,B309,B331)</f>
+        <v>13.933333333333334</v>
       </c>
       <c r="O13" s="12">
-        <f>AVERAGE(C23,C45,C67,C89,C111,C133,C155,C177,C199,C221,C243,C265,C287,C309)</f>
-        <v>13.5</v>
+        <f t="shared" ref="O13:R13" si="8">AVERAGE(C23,C45,C67,C89,C111,C133,C155,C177,C199,C221,C243,C265,C287,C309,C331)</f>
+        <v>13.6</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" ref="P13:X13" si="0">AVERAGE(D23,D45,D67,D89,D111,D133,D155,D177,D199,D221,D243,D265,D287,D309)</f>
-        <v>14.571428571428571</v>
+        <f t="shared" si="8"/>
+        <v>14.666666666666666</v>
       </c>
       <c r="Q13" s="12">
-        <f t="shared" si="0"/>
-        <v>13.071428571428571</v>
+        <f t="shared" si="8"/>
+        <v>13.133333333333333</v>
       </c>
       <c r="R13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="S13" s="12"/>
       <c r="T13" s="12">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
+        <f t="shared" ref="T13" si="9">AVERAGE(H23,H45,H67,H89,H111,H133,H155,H177,H199,H221,H243,H265,H287,H309,H331)</f>
+        <v>13.666666666666666</v>
       </c>
       <c r="U13" s="12">
-        <f t="shared" si="0"/>
-        <v>13.857142857142858</v>
+        <f t="shared" ref="U13" si="10">AVERAGE(I23,I45,I67,I89,I111,I133,I155,I177,I199,I221,I243,I265,I287,I309,I331)</f>
+        <v>14.066666666666666</v>
       </c>
       <c r="V13" s="12">
-        <f t="shared" si="0"/>
-        <v>14.214285714285714</v>
+        <f t="shared" ref="V13" si="11">AVERAGE(J23,J45,J67,J89,J111,J133,J155,J177,J199,J221,J243,J265,J287,J309,J331)</f>
+        <v>14.466666666666667</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" si="0"/>
-        <v>12.714285714285714</v>
+        <f t="shared" ref="W13" si="12">AVERAGE(K23,K45,K67,K89,K111,K133,K155,K177,K199,K221,K243,K265,K287,K309,K331)</f>
+        <v>12.866666666666667</v>
       </c>
       <c r="X13" s="12">
-        <f t="shared" si="0"/>
-        <v>13.785714285714286</v>
+        <f t="shared" ref="X13" si="13">AVERAGE(L23,L45,L67,L89,L111,L133,L155,L177,L199,L221,L243,L265,L287,L309,L331)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -10760,48 +11142,48 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <f>COUNT(B3:B22)</f>
         <v>12</v>
       </c>
-      <c r="C23" s="15">
-        <f t="shared" ref="C23:L23" si="1">COUNT(C3:C22)</f>
+      <c r="C23" s="14">
+        <f t="shared" ref="C23:L23" si="14">COUNT(C3:C22)</f>
         <v>10</v>
       </c>
-      <c r="D23" s="15">
-        <f t="shared" si="1"/>
+      <c r="D23" s="14">
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="E23" s="15">
-        <f t="shared" si="1"/>
+      <c r="E23" s="14">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="F23" s="15">
-        <f t="shared" si="1"/>
+      <c r="F23" s="14">
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15">
-        <f t="shared" si="1"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14">
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="I23" s="15">
-        <f t="shared" si="1"/>
+      <c r="I23" s="14">
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="1"/>
+      <c r="J23" s="14">
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="K23" s="15">
-        <f t="shared" si="1"/>
+      <c r="K23" s="14">
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="L23" s="15">
-        <f t="shared" si="1"/>
+      <c r="L23" s="14">
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -11360,48 +11742,48 @@
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="14">
         <f>COUNT(B25:B44)</f>
         <v>10</v>
       </c>
-      <c r="C45" s="15">
-        <f t="shared" ref="C45:L45" si="2">COUNT(C25:C44)</f>
+      <c r="C45" s="14">
+        <f t="shared" ref="C45:L45" si="15">COUNT(C25:C44)</f>
         <v>12</v>
       </c>
-      <c r="D45" s="15">
-        <f t="shared" si="2"/>
+      <c r="D45" s="14">
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="E45" s="15">
-        <f t="shared" si="2"/>
+      <c r="E45" s="14">
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="F45" s="15">
-        <f t="shared" si="2"/>
+      <c r="F45" s="14">
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15">
-        <f t="shared" si="2"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14">
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="I45" s="15">
-        <f t="shared" si="2"/>
+      <c r="I45" s="14">
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="J45" s="15">
-        <f t="shared" si="2"/>
+      <c r="J45" s="14">
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
-      <c r="K45" s="15">
-        <f t="shared" si="2"/>
+      <c r="K45" s="14">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
-      <c r="L45" s="15">
-        <f t="shared" si="2"/>
+      <c r="L45" s="14">
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
@@ -11979,48 +12361,48 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="14">
         <f>COUNT(B47:B66)</f>
         <v>14</v>
       </c>
-      <c r="C67" s="15">
-        <f t="shared" ref="C67:L67" si="3">COUNT(C47:C66)</f>
+      <c r="C67" s="14">
+        <f t="shared" ref="C67:L67" si="16">COUNT(C47:C66)</f>
         <v>14</v>
       </c>
-      <c r="D67" s="15">
-        <f t="shared" si="3"/>
+      <c r="D67" s="14">
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="E67" s="15">
-        <f t="shared" si="3"/>
+      <c r="E67" s="14">
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
-      <c r="F67" s="15">
-        <f t="shared" si="3"/>
+      <c r="F67" s="14">
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15">
-        <f t="shared" si="3"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="I67" s="15">
-        <f t="shared" si="3"/>
+      <c r="I67" s="14">
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="J67" s="15">
-        <f t="shared" si="3"/>
+      <c r="J67" s="14">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="K67" s="15">
-        <f t="shared" si="3"/>
+      <c r="K67" s="14">
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="L67" s="15">
-        <f t="shared" si="3"/>
+      <c r="L67" s="14">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
@@ -12628,48 +13010,48 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="14">
         <f>COUNT(B69:B88)</f>
         <v>14</v>
       </c>
-      <c r="C89" s="15">
-        <f t="shared" ref="C89:L89" si="4">COUNT(C69:C88)</f>
+      <c r="C89" s="14">
+        <f t="shared" ref="C89:L89" si="17">COUNT(C69:C88)</f>
         <v>11</v>
       </c>
-      <c r="D89" s="15">
-        <f t="shared" si="4"/>
+      <c r="D89" s="14">
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="E89" s="15">
-        <f t="shared" si="4"/>
+      <c r="E89" s="14">
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="F89" s="15">
-        <f t="shared" si="4"/>
+      <c r="F89" s="14">
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15">
-        <f t="shared" si="4"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14">
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
-      <c r="I89" s="15">
-        <f t="shared" si="4"/>
+      <c r="I89" s="14">
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
-      <c r="J89" s="15">
-        <f t="shared" si="4"/>
+      <c r="J89" s="14">
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
-      <c r="K89" s="15">
-        <f t="shared" si="4"/>
+      <c r="K89" s="14">
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
-      <c r="L89" s="15">
-        <f t="shared" si="4"/>
+      <c r="L89" s="14">
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
     </row>
@@ -13315,48 +13697,48 @@
       <c r="L110" s="1"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B111" s="15">
+      <c r="B111" s="14">
         <f>COUNT(B91:B110)</f>
         <v>15</v>
       </c>
-      <c r="C111" s="15">
-        <f t="shared" ref="C111:L111" si="5">COUNT(C91:C110)</f>
+      <c r="C111" s="14">
+        <f t="shared" ref="C111:L111" si="18">COUNT(C91:C110)</f>
         <v>15</v>
       </c>
-      <c r="D111" s="15">
-        <f t="shared" si="5"/>
+      <c r="D111" s="14">
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
-      <c r="E111" s="15">
-        <f t="shared" si="5"/>
+      <c r="E111" s="14">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="F111" s="15">
-        <f t="shared" si="5"/>
+      <c r="F111" s="14">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15">
-        <f t="shared" si="5"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14">
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="I111" s="15">
-        <f t="shared" si="5"/>
+      <c r="I111" s="14">
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="J111" s="15">
-        <f t="shared" si="5"/>
+      <c r="J111" s="14">
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="K111" s="15">
-        <f t="shared" si="5"/>
+      <c r="K111" s="14">
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="L111" s="15">
-        <f t="shared" si="5"/>
+      <c r="L111" s="14">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
     </row>
@@ -13992,48 +14374,48 @@
       <c r="L132" s="1"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B133" s="15">
+      <c r="B133" s="14">
         <f>COUNT(B113:B132)</f>
         <v>15</v>
       </c>
-      <c r="C133" s="15">
-        <f t="shared" ref="C133:L133" si="6">COUNT(C113:C132)</f>
+      <c r="C133" s="14">
+        <f t="shared" ref="C133:L133" si="19">COUNT(C113:C132)</f>
         <v>16</v>
       </c>
-      <c r="D133" s="15">
-        <f t="shared" si="6"/>
+      <c r="D133" s="14">
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="E133" s="15">
-        <f t="shared" si="6"/>
+      <c r="E133" s="14">
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="F133" s="15">
-        <f t="shared" si="6"/>
+      <c r="F133" s="14">
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15">
-        <f t="shared" si="6"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14">
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="I133" s="15">
-        <f t="shared" si="6"/>
+      <c r="I133" s="14">
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="J133" s="15">
-        <f t="shared" si="6"/>
+      <c r="J133" s="14">
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="K133" s="15">
-        <f t="shared" si="6"/>
+      <c r="K133" s="14">
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="L133" s="15">
-        <f t="shared" si="6"/>
+      <c r="L133" s="14">
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
     </row>
@@ -14669,48 +15051,48 @@
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="16" t="s">
+      <c r="A155" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B155" s="15">
+      <c r="B155" s="14">
         <f>COUNT(B135:B154)</f>
         <v>16</v>
       </c>
-      <c r="C155" s="15">
-        <f t="shared" ref="C155:L155" si="7">COUNT(C135:C154)</f>
+      <c r="C155" s="14">
+        <f t="shared" ref="C155:L155" si="20">COUNT(C135:C154)</f>
         <v>16</v>
       </c>
-      <c r="D155" s="15">
-        <f t="shared" si="7"/>
+      <c r="D155" s="14">
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="E155" s="15">
-        <f t="shared" si="7"/>
+      <c r="E155" s="14">
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
-      <c r="F155" s="15">
-        <f t="shared" si="7"/>
+      <c r="F155" s="14">
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15">
-        <f t="shared" si="7"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14">
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="I155" s="15">
-        <f t="shared" si="7"/>
+      <c r="I155" s="14">
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="J155" s="15">
-        <f t="shared" si="7"/>
+      <c r="J155" s="14">
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="K155" s="15">
-        <f t="shared" si="7"/>
+      <c r="K155" s="14">
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="L155" s="15">
-        <f t="shared" si="7"/>
+      <c r="L155" s="14">
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
     </row>
@@ -15324,48 +15706,48 @@
       <c r="L176" s="1"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="16" t="s">
+      <c r="A177" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B177" s="15">
+      <c r="B177" s="14">
         <f>COUNT(B157:B176)</f>
         <v>14</v>
       </c>
-      <c r="C177" s="15">
-        <f t="shared" ref="C177:L177" si="8">COUNT(C157:C176)</f>
+      <c r="C177" s="14">
+        <f t="shared" ref="C177:L177" si="21">COUNT(C157:C176)</f>
         <v>13</v>
       </c>
-      <c r="D177" s="15">
-        <f t="shared" si="8"/>
+      <c r="D177" s="14">
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
-      <c r="E177" s="15">
-        <f t="shared" si="8"/>
+      <c r="E177" s="14">
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="F177" s="15">
-        <f t="shared" si="8"/>
+      <c r="F177" s="14">
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="G177" s="15"/>
-      <c r="H177" s="15">
-        <f t="shared" si="8"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="14">
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
-      <c r="I177" s="15">
-        <f t="shared" si="8"/>
+      <c r="I177" s="14">
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
-      <c r="J177" s="15">
-        <f t="shared" si="8"/>
+      <c r="J177" s="14">
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="K177" s="15">
-        <f t="shared" si="8"/>
+      <c r="K177" s="14">
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="L177" s="15">
-        <f t="shared" si="8"/>
+      <c r="L177" s="14">
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
     </row>
@@ -16005,48 +16387,48 @@
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="16" t="s">
+      <c r="A199" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B199" s="15">
+      <c r="B199" s="14">
         <f>COUNT(B179:B198)</f>
         <v>11</v>
       </c>
-      <c r="C199" s="15">
-        <f t="shared" ref="C199:L199" si="9">COUNT(C179:C198)</f>
+      <c r="C199" s="14">
+        <f t="shared" ref="C199:L199" si="22">COUNT(C179:C198)</f>
         <v>14</v>
       </c>
-      <c r="D199" s="15">
-        <f t="shared" si="9"/>
+      <c r="D199" s="14">
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="E199" s="15">
-        <f t="shared" si="9"/>
+      <c r="E199" s="14">
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
-      <c r="F199" s="15">
-        <f t="shared" si="9"/>
+      <c r="F199" s="14">
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
-      <c r="G199" s="15"/>
-      <c r="H199" s="15">
-        <f t="shared" si="9"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="14">
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="I199" s="15">
-        <f t="shared" si="9"/>
+      <c r="I199" s="14">
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
-      <c r="J199" s="15">
-        <f t="shared" si="9"/>
+      <c r="J199" s="14">
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
-      <c r="K199" s="15">
-        <f t="shared" si="9"/>
+      <c r="K199" s="14">
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="L199" s="15">
-        <f t="shared" si="9"/>
+      <c r="L199" s="14">
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
     </row>
@@ -16662,48 +17044,48 @@
       <c r="L220" s="1"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="16" t="s">
+      <c r="A221" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B221" s="15">
+      <c r="B221" s="14">
         <f>COUNT(B201:B220)</f>
         <v>15</v>
       </c>
-      <c r="C221" s="15">
-        <f t="shared" ref="C221:L221" si="10">COUNT(C201:C220)</f>
+      <c r="C221" s="14">
+        <f t="shared" ref="C221:L221" si="23">COUNT(C201:C220)</f>
         <v>15</v>
       </c>
-      <c r="D221" s="15">
-        <f t="shared" si="10"/>
+      <c r="D221" s="14">
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="E221" s="15">
-        <f t="shared" si="10"/>
+      <c r="E221" s="14">
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
-      <c r="F221" s="15">
-        <f t="shared" si="10"/>
+      <c r="F221" s="14">
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
-      <c r="G221" s="15"/>
-      <c r="H221" s="15">
-        <f t="shared" si="10"/>
+      <c r="G221" s="14"/>
+      <c r="H221" s="14">
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
-      <c r="I221" s="15">
-        <f t="shared" si="10"/>
+      <c r="I221" s="14">
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
-      <c r="J221" s="15">
-        <f t="shared" si="10"/>
+      <c r="J221" s="14">
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
-      <c r="K221" s="15">
-        <f t="shared" si="10"/>
+      <c r="K221" s="14">
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
-      <c r="L221" s="15">
-        <f t="shared" si="10"/>
+      <c r="L221" s="14">
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
     </row>
@@ -17261,48 +17643,48 @@
       <c r="L242" s="1"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A243" s="16" t="s">
+      <c r="A243" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B243" s="15">
+      <c r="B243" s="14">
         <f>COUNT(B223:B242)</f>
         <v>10</v>
       </c>
-      <c r="C243" s="15">
-        <f t="shared" ref="C243:L243" si="11">COUNT(C223:C242)</f>
+      <c r="C243" s="14">
+        <f t="shared" ref="C243:L243" si="24">COUNT(C223:C242)</f>
         <v>12</v>
       </c>
-      <c r="D243" s="15">
-        <f t="shared" si="11"/>
+      <c r="D243" s="14">
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
-      <c r="E243" s="15">
-        <f t="shared" si="11"/>
+      <c r="E243" s="14">
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="F243" s="15">
-        <f t="shared" si="11"/>
+      <c r="F243" s="14">
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
-      <c r="G243" s="15"/>
-      <c r="H243" s="15">
-        <f t="shared" si="11"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="14">
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
-      <c r="I243" s="15">
-        <f t="shared" si="11"/>
+      <c r="I243" s="14">
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="J243" s="15">
-        <f t="shared" si="11"/>
+      <c r="J243" s="14">
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
-      <c r="K243" s="15">
-        <f t="shared" si="11"/>
+      <c r="K243" s="14">
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="L243" s="15">
-        <f t="shared" si="11"/>
+      <c r="L243" s="14">
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
     </row>
@@ -17925,48 +18307,48 @@
       <c r="L264" s="1"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A265" s="16" t="s">
+      <c r="A265" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B265" s="15">
+      <c r="B265" s="14">
         <f>COUNT(B245:B264)</f>
         <v>16</v>
       </c>
-      <c r="C265" s="15">
-        <f t="shared" ref="C265:L265" si="12">COUNT(C245:C264)</f>
+      <c r="C265" s="14">
+        <f t="shared" ref="C265:L265" si="25">COUNT(C245:C264)</f>
         <v>11</v>
       </c>
-      <c r="D265" s="15">
-        <f t="shared" si="12"/>
+      <c r="D265" s="14">
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="E265" s="15">
-        <f t="shared" si="12"/>
+      <c r="E265" s="14">
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="F265" s="15">
-        <f t="shared" si="12"/>
+      <c r="F265" s="14">
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="G265" s="15"/>
-      <c r="H265" s="15">
-        <f t="shared" si="12"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="14">
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="I265" s="15">
-        <f t="shared" si="12"/>
+      <c r="I265" s="14">
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="J265" s="15">
-        <f t="shared" si="12"/>
+      <c r="J265" s="14">
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="K265" s="15">
-        <f t="shared" si="12"/>
+      <c r="K265" s="14">
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
-      <c r="L265" s="15">
-        <f t="shared" si="12"/>
+      <c r="L265" s="14">
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
     </row>
@@ -18612,48 +18994,48 @@
       <c r="L286" s="1"/>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A287" s="16" t="s">
+      <c r="A287" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B287" s="15">
+      <c r="B287" s="14">
         <f>COUNT(B267:B286)</f>
         <v>16</v>
       </c>
-      <c r="C287" s="15">
-        <f t="shared" ref="C287:L287" si="13">COUNT(C267:C286)</f>
+      <c r="C287" s="14">
+        <f t="shared" ref="C287:L287" si="26">COUNT(C267:C286)</f>
         <v>15</v>
       </c>
-      <c r="D287" s="15">
-        <f t="shared" si="13"/>
+      <c r="D287" s="14">
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
-      <c r="E287" s="15">
-        <f t="shared" si="13"/>
+      <c r="E287" s="14">
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
-      <c r="F287" s="15">
-        <f t="shared" si="13"/>
+      <c r="F287" s="14">
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
-      <c r="G287" s="15"/>
-      <c r="H287" s="15">
-        <f t="shared" si="13"/>
+      <c r="G287" s="14"/>
+      <c r="H287" s="14">
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
-      <c r="I287" s="15">
-        <f t="shared" si="13"/>
+      <c r="I287" s="14">
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
-      <c r="J287" s="15">
-        <f t="shared" si="13"/>
+      <c r="J287" s="14">
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
-      <c r="K287" s="15">
-        <f t="shared" si="13"/>
+      <c r="K287" s="14">
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
-      <c r="L287" s="15">
-        <f t="shared" si="13"/>
+      <c r="L287" s="14">
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
     </row>
@@ -19287,49 +19669,746 @@
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A309" s="16" t="s">
+      <c r="A309" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B309" s="15">
+      <c r="B309" s="14">
         <f>COUNT(B289:B308)</f>
         <v>15</v>
       </c>
-      <c r="C309" s="15">
-        <f t="shared" ref="C309:L309" si="14">COUNT(C289:C308)</f>
+      <c r="C309" s="14">
+        <f t="shared" ref="C309:L309" si="27">COUNT(C289:C308)</f>
         <v>15</v>
       </c>
-      <c r="D309" s="15">
-        <f t="shared" si="14"/>
+      <c r="D309" s="14">
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
-      <c r="E309" s="15">
-        <f t="shared" si="14"/>
+      <c r="E309" s="14">
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
-      <c r="F309" s="15">
-        <f t="shared" si="14"/>
+      <c r="F309" s="14">
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
-      <c r="G309" s="15"/>
-      <c r="H309" s="15">
-        <f t="shared" si="14"/>
+      <c r="G309" s="14"/>
+      <c r="H309" s="14">
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
-      <c r="I309" s="15">
-        <f t="shared" si="14"/>
+      <c r="I309" s="14">
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
-      <c r="J309" s="15">
-        <f t="shared" si="14"/>
+      <c r="J309" s="14">
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
-      <c r="K309" s="15">
-        <f t="shared" si="14"/>
+      <c r="K309" s="14">
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
-      <c r="L309" s="15">
-        <f t="shared" si="14"/>
+      <c r="L309" s="14">
+        <f t="shared" si="27"/>
         <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G310" s="2"/>
+      <c r="H310" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J310" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L310" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A311" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B311" s="5">
+        <v>4</v>
+      </c>
+      <c r="C311" s="5">
+        <v>4</v>
+      </c>
+      <c r="D311" s="5">
+        <v>4</v>
+      </c>
+      <c r="E311" s="5">
+        <v>7</v>
+      </c>
+      <c r="F311" s="5">
+        <v>4</v>
+      </c>
+      <c r="G311" s="8"/>
+      <c r="H311" s="5">
+        <v>4</v>
+      </c>
+      <c r="I311" s="5">
+        <v>3</v>
+      </c>
+      <c r="J311" s="5">
+        <v>3</v>
+      </c>
+      <c r="K311" s="5">
+        <v>4</v>
+      </c>
+      <c r="L311" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A312" s="3"/>
+      <c r="B312" s="1">
+        <v>2</v>
+      </c>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1">
+        <v>3</v>
+      </c>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
+      <c r="I312" s="1">
+        <v>3</v>
+      </c>
+      <c r="J312" s="1">
+        <v>3</v>
+      </c>
+      <c r="K312" s="1"/>
+      <c r="L312" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A313" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B313" s="10">
+        <v>3</v>
+      </c>
+      <c r="C313" s="10">
+        <v>4</v>
+      </c>
+      <c r="D313" s="10">
+        <v>2</v>
+      </c>
+      <c r="E313" s="10">
+        <v>3</v>
+      </c>
+      <c r="F313" s="10">
+        <v>3</v>
+      </c>
+      <c r="G313" s="10"/>
+      <c r="H313" s="10">
+        <v>4</v>
+      </c>
+      <c r="I313" s="10">
+        <v>3</v>
+      </c>
+      <c r="J313" s="10">
+        <v>3</v>
+      </c>
+      <c r="K313" s="10">
+        <v>4</v>
+      </c>
+      <c r="L313" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A314" s="3"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1">
+        <v>3</v>
+      </c>
+      <c r="D314" s="1">
+        <v>3</v>
+      </c>
+      <c r="E314" s="1">
+        <v>3</v>
+      </c>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1">
+        <v>3</v>
+      </c>
+      <c r="I314" s="1">
+        <v>4</v>
+      </c>
+      <c r="J314" s="1">
+        <v>3</v>
+      </c>
+      <c r="K314" s="1"/>
+      <c r="L314" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A315" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B315" s="10">
+        <v>8</v>
+      </c>
+      <c r="C315" s="10">
+        <v>6</v>
+      </c>
+      <c r="D315" s="10">
+        <v>10</v>
+      </c>
+      <c r="E315" s="10">
+        <v>8</v>
+      </c>
+      <c r="F315" s="10">
+        <v>7</v>
+      </c>
+      <c r="G315" s="10"/>
+      <c r="H315" s="10">
+        <v>6</v>
+      </c>
+      <c r="I315" s="10">
+        <v>7</v>
+      </c>
+      <c r="J315" s="10">
+        <v>6</v>
+      </c>
+      <c r="K315" s="10">
+        <v>6</v>
+      </c>
+      <c r="L315" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A316" s="3"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1">
+        <v>6</v>
+      </c>
+      <c r="D316" s="1">
+        <v>7</v>
+      </c>
+      <c r="E316" s="1">
+        <v>7</v>
+      </c>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="1">
+        <v>6</v>
+      </c>
+      <c r="I316" s="1">
+        <v>9</v>
+      </c>
+      <c r="J316" s="1">
+        <v>6</v>
+      </c>
+      <c r="K316" s="1"/>
+      <c r="L316" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A317" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B317" s="10">
+        <v>6</v>
+      </c>
+      <c r="C317" s="10">
+        <v>7</v>
+      </c>
+      <c r="D317" s="10">
+        <v>6</v>
+      </c>
+      <c r="E317" s="10">
+        <v>7</v>
+      </c>
+      <c r="F317" s="10">
+        <v>7</v>
+      </c>
+      <c r="G317" s="10"/>
+      <c r="H317" s="10">
+        <v>6</v>
+      </c>
+      <c r="I317" s="10">
+        <v>6</v>
+      </c>
+      <c r="J317" s="10">
+        <v>5</v>
+      </c>
+      <c r="K317" s="10">
+        <v>6</v>
+      </c>
+      <c r="L317" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A318" s="3"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1">
+        <v>7</v>
+      </c>
+      <c r="D318" s="1">
+        <v>6</v>
+      </c>
+      <c r="E318" s="1">
+        <v>3</v>
+      </c>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1">
+        <v>6</v>
+      </c>
+      <c r="I318" s="1">
+        <v>6</v>
+      </c>
+      <c r="J318" s="1">
+        <v>5</v>
+      </c>
+      <c r="K318" s="1"/>
+      <c r="L318" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A319" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B319" s="10">
+        <v>4</v>
+      </c>
+      <c r="C319" s="10">
+        <v>5</v>
+      </c>
+      <c r="D319" s="10">
+        <v>4</v>
+      </c>
+      <c r="E319" s="10">
+        <v>4</v>
+      </c>
+      <c r="F319" s="10">
+        <v>9</v>
+      </c>
+      <c r="G319" s="10"/>
+      <c r="H319" s="10">
+        <v>5</v>
+      </c>
+      <c r="I319" s="10">
+        <v>4</v>
+      </c>
+      <c r="J319" s="10">
+        <v>4</v>
+      </c>
+      <c r="K319" s="10">
+        <v>5</v>
+      </c>
+      <c r="L319" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A320" s="3"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1">
+        <v>4</v>
+      </c>
+      <c r="D320" s="1">
+        <v>4</v>
+      </c>
+      <c r="E320" s="1">
+        <v>5</v>
+      </c>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1">
+        <v>6</v>
+      </c>
+      <c r="I320" s="1">
+        <v>4</v>
+      </c>
+      <c r="J320" s="1"/>
+      <c r="K320" s="1">
+        <v>5</v>
+      </c>
+      <c r="L320" s="1"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A321" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B321" s="10">
+        <v>5</v>
+      </c>
+      <c r="C321" s="10">
+        <v>6</v>
+      </c>
+      <c r="D321" s="10">
+        <v>6</v>
+      </c>
+      <c r="E321" s="10">
+        <v>6</v>
+      </c>
+      <c r="F321" s="10">
+        <v>5</v>
+      </c>
+      <c r="G321" s="10"/>
+      <c r="H321" s="10">
+        <v>6</v>
+      </c>
+      <c r="I321" s="10">
+        <v>7</v>
+      </c>
+      <c r="J321" s="10">
+        <v>6</v>
+      </c>
+      <c r="K321" s="10">
+        <v>7</v>
+      </c>
+      <c r="L321" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A322" s="3"/>
+      <c r="B322" s="1">
+        <v>6</v>
+      </c>
+      <c r="C322" s="1">
+        <v>6</v>
+      </c>
+      <c r="D322" s="1">
+        <v>6</v>
+      </c>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+      <c r="H322" s="1">
+        <v>5</v>
+      </c>
+      <c r="I322" s="1">
+        <v>7</v>
+      </c>
+      <c r="J322" s="1"/>
+      <c r="K322" s="1">
+        <v>6</v>
+      </c>
+      <c r="L322" s="1"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A323" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B323" s="10">
+        <v>8</v>
+      </c>
+      <c r="C323" s="10">
+        <v>8</v>
+      </c>
+      <c r="D323" s="10">
+        <v>7</v>
+      </c>
+      <c r="E323" s="10">
+        <v>7</v>
+      </c>
+      <c r="F323" s="10">
+        <v>8</v>
+      </c>
+      <c r="G323" s="10"/>
+      <c r="H323" s="10">
+        <v>6</v>
+      </c>
+      <c r="I323" s="10">
+        <v>5</v>
+      </c>
+      <c r="J323" s="10">
+        <v>6</v>
+      </c>
+      <c r="K323" s="10">
+        <v>7</v>
+      </c>
+      <c r="L323" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A324" s="3"/>
+      <c r="B324" s="1">
+        <v>7</v>
+      </c>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1">
+        <v>10</v>
+      </c>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1">
+        <v>7</v>
+      </c>
+      <c r="I324" s="1"/>
+      <c r="J324" s="1">
+        <v>6</v>
+      </c>
+      <c r="K324" s="1">
+        <v>8</v>
+      </c>
+      <c r="L324" s="1"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A325" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B325" s="10">
+        <v>7</v>
+      </c>
+      <c r="C325" s="10">
+        <v>9</v>
+      </c>
+      <c r="D325" s="10">
+        <v>5</v>
+      </c>
+      <c r="E325" s="10">
+        <v>8</v>
+      </c>
+      <c r="F325" s="10">
+        <v>6</v>
+      </c>
+      <c r="G325" s="10"/>
+      <c r="H325" s="10">
+        <v>5</v>
+      </c>
+      <c r="I325" s="10">
+        <v>7</v>
+      </c>
+      <c r="J325" s="10">
+        <v>6</v>
+      </c>
+      <c r="K325" s="10">
+        <v>6</v>
+      </c>
+      <c r="L325" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A326" s="3"/>
+      <c r="B326" s="1">
+        <v>7</v>
+      </c>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1">
+        <v>7</v>
+      </c>
+      <c r="G326" s="1"/>
+      <c r="H326" s="1"/>
+      <c r="I326" s="1"/>
+      <c r="J326" s="1">
+        <v>5</v>
+      </c>
+      <c r="K326" s="1">
+        <v>6</v>
+      </c>
+      <c r="L326" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A327" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B327" s="10">
+        <v>6</v>
+      </c>
+      <c r="C327" s="10">
+        <v>6</v>
+      </c>
+      <c r="D327" s="10">
+        <v>8</v>
+      </c>
+      <c r="E327" s="10">
+        <v>7</v>
+      </c>
+      <c r="F327" s="10">
+        <v>6</v>
+      </c>
+      <c r="G327" s="10"/>
+      <c r="H327" s="10">
+        <v>5</v>
+      </c>
+      <c r="I327" s="10">
+        <v>6</v>
+      </c>
+      <c r="J327" s="10">
+        <v>5</v>
+      </c>
+      <c r="K327" s="10">
+        <v>6</v>
+      </c>
+      <c r="L327" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A328" s="3"/>
+      <c r="B328" s="1">
+        <v>6</v>
+      </c>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1">
+        <v>6</v>
+      </c>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1"/>
+      <c r="I328" s="1"/>
+      <c r="J328" s="1">
+        <v>5</v>
+      </c>
+      <c r="K328" s="1">
+        <v>5</v>
+      </c>
+      <c r="L328" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B329" s="5">
+        <v>7</v>
+      </c>
+      <c r="C329" s="5">
+        <v>7</v>
+      </c>
+      <c r="D329" s="5">
+        <v>8</v>
+      </c>
+      <c r="E329" s="5">
+        <v>7</v>
+      </c>
+      <c r="F329" s="5">
+        <v>7</v>
+      </c>
+      <c r="H329" s="5">
+        <v>5</v>
+      </c>
+      <c r="I329" s="5">
+        <v>9</v>
+      </c>
+      <c r="J329" s="5">
+        <v>6</v>
+      </c>
+      <c r="K329" s="5">
+        <v>6</v>
+      </c>
+      <c r="L329" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1">
+        <v>7</v>
+      </c>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1">
+        <v>7</v>
+      </c>
+      <c r="G330" s="1"/>
+      <c r="H330" s="1"/>
+      <c r="I330" s="1">
+        <v>6</v>
+      </c>
+      <c r="J330" s="1">
+        <v>6</v>
+      </c>
+      <c r="K330" s="1"/>
+      <c r="L330" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A331" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B331" s="14">
+        <f>COUNT(B311:B330)</f>
+        <v>16</v>
+      </c>
+      <c r="C331" s="14">
+        <f t="shared" ref="C331:L331" si="28">COUNT(C311:C330)</f>
+        <v>15</v>
+      </c>
+      <c r="D331" s="14">
+        <f t="shared" si="28"/>
+        <v>16</v>
+      </c>
+      <c r="E331" s="14">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="F331" s="14">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="G331" s="14"/>
+      <c r="H331" s="14">
+        <f t="shared" si="28"/>
+        <v>16</v>
+      </c>
+      <c r="I331" s="14">
+        <f t="shared" si="28"/>
+        <v>17</v>
+      </c>
+      <c r="J331" s="14">
+        <f t="shared" si="28"/>
+        <v>18</v>
+      </c>
+      <c r="K331" s="14">
+        <f t="shared" si="28"/>
+        <v>15</v>
+      </c>
+      <c r="L331" s="14">
+        <f t="shared" si="28"/>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -19339,8 +20418,8 @@
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="T1:X1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="N3:R12 S3:X3 T4:X12">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19351,10 +20430,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CP197"/>
+  <dimension ref="A1:CP210"/>
   <sheetViews>
     <sheetView topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K194" sqref="K194"/>
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19381,13 +20460,13 @@
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
@@ -20808,13 +21887,13 @@
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -22241,13 +23320,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -23668,13 +24747,13 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -25101,13 +26180,13 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -26528,13 +27607,13 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -27961,13 +29040,13 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -29388,13 +30467,13 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -30824,13 +31903,13 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -32251,13 +33330,13 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -33684,13 +34763,13 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
     </row>
     <row r="68" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -35111,13 +36190,13 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -36544,13 +37623,13 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -37971,13 +39050,13 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -39404,13 +40483,13 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -40831,13 +41910,13 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -42264,13 +43343,13 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
     </row>
     <row r="107" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -43691,13 +44770,13 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="19" t="s">
+      <c r="D112" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
@@ -45124,13 +46203,13 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="19" t="s">
+      <c r="D119" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
     </row>
     <row r="120" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
@@ -46551,13 +47630,13 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
     </row>
     <row r="126" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -47984,24 +49063,24 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
     </row>
     <row r="133" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B133" s="2">
-        <f t="shared" ref="B133:B182" si="4">COUNTIF(D133:CO133, 1)</f>
+        <f t="shared" ref="B133:B195" si="4">COUNTIF(D133:CO133, 1)</f>
         <v>90</v>
       </c>
       <c r="C133" s="2">
-        <f t="shared" ref="C133:C182" si="5">COUNTIF(D133:CO133, 0)</f>
+        <f t="shared" ref="C133:C195" si="5">COUNTIF(D133:CO133, 0)</f>
         <v>0</v>
       </c>
       <c r="D133">
@@ -49411,13 +50490,13 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="19" t="s">
+      <c r="D138" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
     </row>
     <row r="139" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
@@ -50844,13 +51923,13 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="19" t="s">
+      <c r="D145" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -52271,13 +53350,13 @@
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="19" t="s">
+      <c r="D151" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
     </row>
     <row r="152" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
@@ -53704,13 +54783,13 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="19" t="s">
+      <c r="D158" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
     </row>
     <row r="159" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -55131,13 +56210,13 @@
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="19" t="s">
+      <c r="D164" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
     </row>
     <row r="165" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
@@ -56564,13 +57643,13 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="19" t="s">
+      <c r="D171" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
     </row>
     <row r="172" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
@@ -57991,13 +59070,13 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="19" t="s">
+      <c r="D177" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
     </row>
     <row r="178" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
@@ -59414,192 +60493,3036 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="B184" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="13"/>
+    <row r="183" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" spans="1:93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="17"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="17"/>
     </row>
     <row r="185" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
-      <c r="B185" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
+      <c r="A185" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C185" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+      <c r="P185">
+        <v>1</v>
+      </c>
+      <c r="Q185">
+        <v>1</v>
+      </c>
+      <c r="R185">
+        <v>1</v>
+      </c>
+      <c r="S185">
+        <v>1</v>
+      </c>
+      <c r="T185">
+        <v>1</v>
+      </c>
+      <c r="U185">
+        <v>1</v>
+      </c>
+      <c r="V185">
+        <v>1</v>
+      </c>
+      <c r="W185">
+        <v>1</v>
+      </c>
+      <c r="X185">
+        <v>1</v>
+      </c>
+      <c r="Y185">
+        <v>1</v>
+      </c>
+      <c r="Z185">
+        <v>1</v>
+      </c>
+      <c r="AA185">
+        <v>1</v>
+      </c>
+      <c r="AB185">
+        <v>1</v>
+      </c>
+      <c r="AC185">
+        <v>1</v>
+      </c>
+      <c r="AD185">
+        <v>1</v>
+      </c>
+      <c r="AE185">
+        <v>1</v>
+      </c>
+      <c r="AF185">
+        <v>1</v>
+      </c>
+      <c r="AG185">
+        <v>1</v>
+      </c>
+      <c r="AH185">
+        <v>1</v>
+      </c>
+      <c r="AI185">
+        <v>1</v>
+      </c>
+      <c r="AJ185">
+        <v>1</v>
+      </c>
+      <c r="AK185">
+        <v>1</v>
+      </c>
+      <c r="AL185">
+        <v>1</v>
+      </c>
+      <c r="AM185">
+        <v>1</v>
+      </c>
+      <c r="AN185">
+        <v>1</v>
+      </c>
+      <c r="AO185">
+        <v>1</v>
+      </c>
+      <c r="AP185">
+        <v>1</v>
+      </c>
+      <c r="AQ185">
+        <v>1</v>
+      </c>
+      <c r="AR185">
+        <v>1</v>
+      </c>
+      <c r="AS185">
+        <v>1</v>
+      </c>
+      <c r="AT185">
+        <v>1</v>
+      </c>
+      <c r="AU185">
+        <v>1</v>
+      </c>
+      <c r="AV185">
+        <v>1</v>
+      </c>
+      <c r="AW185">
+        <v>1</v>
+      </c>
+      <c r="AX185">
+        <v>1</v>
+      </c>
+      <c r="AY185">
+        <v>1</v>
+      </c>
+      <c r="AZ185">
+        <v>1</v>
+      </c>
+      <c r="BA185">
+        <v>1</v>
+      </c>
+      <c r="BB185">
+        <v>1</v>
+      </c>
+      <c r="BC185">
+        <v>1</v>
+      </c>
+      <c r="BD185">
+        <v>1</v>
+      </c>
+      <c r="BE185">
+        <v>1</v>
+      </c>
+      <c r="BF185">
+        <v>1</v>
+      </c>
+      <c r="BG185">
+        <v>1</v>
+      </c>
+      <c r="BH185">
+        <v>1</v>
+      </c>
+      <c r="BI185">
+        <v>1</v>
+      </c>
+      <c r="BJ185">
+        <v>1</v>
+      </c>
+      <c r="BK185">
+        <v>1</v>
+      </c>
+      <c r="BL185">
+        <v>1</v>
+      </c>
+      <c r="BM185">
+        <v>1</v>
+      </c>
+      <c r="BN185">
+        <v>1</v>
+      </c>
+      <c r="BO185">
+        <v>1</v>
+      </c>
+      <c r="BP185">
+        <v>1</v>
+      </c>
+      <c r="BQ185">
+        <v>1</v>
+      </c>
+      <c r="BR185">
+        <v>1</v>
+      </c>
+      <c r="BS185">
+        <v>1</v>
+      </c>
+      <c r="BT185">
+        <v>1</v>
+      </c>
+      <c r="BU185">
+        <v>1</v>
+      </c>
+      <c r="BV185">
+        <v>1</v>
+      </c>
+      <c r="BW185">
+        <v>1</v>
+      </c>
+      <c r="BX185">
+        <v>1</v>
+      </c>
+      <c r="BY185">
+        <v>1</v>
+      </c>
+      <c r="BZ185">
+        <v>1</v>
+      </c>
+      <c r="CA185">
+        <v>1</v>
+      </c>
+      <c r="CB185">
+        <v>1</v>
+      </c>
+      <c r="CC185">
+        <v>1</v>
+      </c>
+      <c r="CD185">
+        <v>1</v>
+      </c>
+      <c r="CE185">
+        <v>1</v>
+      </c>
+      <c r="CF185">
+        <v>1</v>
+      </c>
+      <c r="CG185">
+        <v>1</v>
+      </c>
+      <c r="CH185">
+        <v>1</v>
+      </c>
+      <c r="CI185">
+        <v>1</v>
+      </c>
+      <c r="CJ185">
+        <v>1</v>
+      </c>
+      <c r="CK185">
+        <v>1</v>
+      </c>
+      <c r="CL185">
+        <v>1</v>
+      </c>
+      <c r="CM185">
+        <v>1</v>
+      </c>
+      <c r="CN185">
+        <v>1</v>
+      </c>
+      <c r="CO185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C186" s="2">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="B186" s="18">
-        <f>AVERAGE(B172,B159,B146,B133,B120,B107,B94,B81,B68,B55,B42,B29,B16,B3)</f>
-        <v>88.214285714285708</v>
-      </c>
-      <c r="C186" s="18">
-        <f>AVERAGE(C172,C159,C146,C133,C120,C107,C94,C81,C68,C55,C42,C29,C16,C3)</f>
-        <v>1.7857142857142858</v>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+      <c r="P186">
+        <v>1</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="R186">
+        <v>1</v>
+      </c>
+      <c r="S186">
+        <v>1</v>
+      </c>
+      <c r="T186">
+        <v>1</v>
+      </c>
+      <c r="U186">
+        <v>1</v>
+      </c>
+      <c r="V186">
+        <v>1</v>
+      </c>
+      <c r="W186">
+        <v>1</v>
+      </c>
+      <c r="X186">
+        <v>1</v>
+      </c>
+      <c r="Y186">
+        <v>1</v>
+      </c>
+      <c r="Z186">
+        <v>1</v>
+      </c>
+      <c r="AA186">
+        <v>1</v>
+      </c>
+      <c r="AB186">
+        <v>1</v>
+      </c>
+      <c r="AC186">
+        <v>1</v>
+      </c>
+      <c r="AD186">
+        <v>1</v>
+      </c>
+      <c r="AE186">
+        <v>1</v>
+      </c>
+      <c r="AF186">
+        <v>1</v>
+      </c>
+      <c r="AG186">
+        <v>1</v>
+      </c>
+      <c r="AH186">
+        <v>1</v>
+      </c>
+      <c r="AI186">
+        <v>1</v>
+      </c>
+      <c r="AJ186">
+        <v>1</v>
+      </c>
+      <c r="AK186">
+        <v>1</v>
+      </c>
+      <c r="AL186">
+        <v>1</v>
+      </c>
+      <c r="AM186">
+        <v>1</v>
+      </c>
+      <c r="AN186">
+        <v>1</v>
+      </c>
+      <c r="AO186">
+        <v>1</v>
+      </c>
+      <c r="AP186">
+        <v>1</v>
+      </c>
+      <c r="AQ186">
+        <v>1</v>
+      </c>
+      <c r="AR186">
+        <v>1</v>
+      </c>
+      <c r="AS186">
+        <v>1</v>
+      </c>
+      <c r="AT186">
+        <v>1</v>
+      </c>
+      <c r="AU186">
+        <v>1</v>
+      </c>
+      <c r="AV186">
+        <v>1</v>
+      </c>
+      <c r="AW186">
+        <v>1</v>
+      </c>
+      <c r="AX186">
+        <v>1</v>
+      </c>
+      <c r="AY186">
+        <v>1</v>
+      </c>
+      <c r="AZ186">
+        <v>1</v>
+      </c>
+      <c r="BA186">
+        <v>1</v>
+      </c>
+      <c r="BB186">
+        <v>1</v>
+      </c>
+      <c r="BC186">
+        <v>1</v>
+      </c>
+      <c r="BD186">
+        <v>1</v>
+      </c>
+      <c r="BE186">
+        <v>1</v>
+      </c>
+      <c r="BF186">
+        <v>1</v>
+      </c>
+      <c r="BG186">
+        <v>1</v>
+      </c>
+      <c r="BH186">
+        <v>1</v>
+      </c>
+      <c r="BI186">
+        <v>1</v>
+      </c>
+      <c r="BJ186">
+        <v>1</v>
+      </c>
+      <c r="BK186">
+        <v>1</v>
+      </c>
+      <c r="BL186">
+        <v>1</v>
+      </c>
+      <c r="BM186">
+        <v>1</v>
+      </c>
+      <c r="BN186">
+        <v>1</v>
+      </c>
+      <c r="BO186">
+        <v>1</v>
+      </c>
+      <c r="BP186">
+        <v>1</v>
+      </c>
+      <c r="BQ186">
+        <v>1</v>
+      </c>
+      <c r="BR186">
+        <v>1</v>
+      </c>
+      <c r="BS186">
+        <v>1</v>
+      </c>
+      <c r="BT186">
+        <v>1</v>
+      </c>
+      <c r="BU186">
+        <v>1</v>
+      </c>
+      <c r="BV186">
+        <v>1</v>
+      </c>
+      <c r="BW186">
+        <v>1</v>
+      </c>
+      <c r="BX186">
+        <v>1</v>
+      </c>
+      <c r="BY186">
+        <v>1</v>
+      </c>
+      <c r="BZ186">
+        <v>1</v>
+      </c>
+      <c r="CA186">
+        <v>1</v>
+      </c>
+      <c r="CB186">
+        <v>1</v>
+      </c>
+      <c r="CC186">
+        <v>1</v>
+      </c>
+      <c r="CD186">
+        <v>1</v>
+      </c>
+      <c r="CE186">
+        <v>1</v>
+      </c>
+      <c r="CF186">
+        <v>1</v>
+      </c>
+      <c r="CG186">
+        <v>1</v>
+      </c>
+      <c r="CH186">
+        <v>1</v>
+      </c>
+      <c r="CI186">
+        <v>1</v>
+      </c>
+      <c r="CJ186">
+        <v>1</v>
+      </c>
+      <c r="CK186">
+        <v>1</v>
+      </c>
+      <c r="CL186">
+        <v>1</v>
+      </c>
+      <c r="CM186">
+        <v>1</v>
+      </c>
+      <c r="CN186">
+        <v>1</v>
+      </c>
+      <c r="CO186">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B187" s="18">
-        <f t="shared" ref="B187:B190" si="6">AVERAGE(B173,B160,B147,B134,B121,B108,B95,B82,B69,B56,B43,B30,B17,B4)</f>
-        <v>87.357142857142861</v>
-      </c>
-      <c r="C187" s="18">
-        <f t="shared" ref="C187:C190" si="7">AVERAGE(C173,C160,C147,C134,C121,C108,C95,C82,C69,C56,C43,C30,C17,C4)</f>
-        <v>2.6428571428571428</v>
+        <v>35</v>
+      </c>
+      <c r="B187" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C187" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="P187">
+        <v>1</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="R187">
+        <v>1</v>
+      </c>
+      <c r="S187">
+        <v>1</v>
+      </c>
+      <c r="T187">
+        <v>1</v>
+      </c>
+      <c r="U187">
+        <v>1</v>
+      </c>
+      <c r="V187">
+        <v>1</v>
+      </c>
+      <c r="W187">
+        <v>1</v>
+      </c>
+      <c r="X187">
+        <v>1</v>
+      </c>
+      <c r="Y187">
+        <v>1</v>
+      </c>
+      <c r="Z187">
+        <v>1</v>
+      </c>
+      <c r="AA187">
+        <v>1</v>
+      </c>
+      <c r="AB187">
+        <v>1</v>
+      </c>
+      <c r="AC187">
+        <v>1</v>
+      </c>
+      <c r="AD187">
+        <v>1</v>
+      </c>
+      <c r="AE187">
+        <v>1</v>
+      </c>
+      <c r="AF187">
+        <v>1</v>
+      </c>
+      <c r="AG187">
+        <v>1</v>
+      </c>
+      <c r="AH187">
+        <v>1</v>
+      </c>
+      <c r="AI187">
+        <v>1</v>
+      </c>
+      <c r="AJ187">
+        <v>1</v>
+      </c>
+      <c r="AK187">
+        <v>1</v>
+      </c>
+      <c r="AL187">
+        <v>1</v>
+      </c>
+      <c r="AM187">
+        <v>1</v>
+      </c>
+      <c r="AN187">
+        <v>1</v>
+      </c>
+      <c r="AO187">
+        <v>1</v>
+      </c>
+      <c r="AP187">
+        <v>1</v>
+      </c>
+      <c r="AQ187">
+        <v>1</v>
+      </c>
+      <c r="AR187">
+        <v>1</v>
+      </c>
+      <c r="AS187">
+        <v>1</v>
+      </c>
+      <c r="AT187">
+        <v>1</v>
+      </c>
+      <c r="AU187">
+        <v>1</v>
+      </c>
+      <c r="AV187">
+        <v>1</v>
+      </c>
+      <c r="AW187">
+        <v>1</v>
+      </c>
+      <c r="AX187">
+        <v>1</v>
+      </c>
+      <c r="AY187">
+        <v>1</v>
+      </c>
+      <c r="AZ187">
+        <v>1</v>
+      </c>
+      <c r="BA187">
+        <v>1</v>
+      </c>
+      <c r="BB187">
+        <v>1</v>
+      </c>
+      <c r="BC187">
+        <v>1</v>
+      </c>
+      <c r="BD187">
+        <v>1</v>
+      </c>
+      <c r="BE187">
+        <v>1</v>
+      </c>
+      <c r="BF187">
+        <v>1</v>
+      </c>
+      <c r="BG187">
+        <v>1</v>
+      </c>
+      <c r="BH187">
+        <v>1</v>
+      </c>
+      <c r="BI187">
+        <v>1</v>
+      </c>
+      <c r="BJ187">
+        <v>1</v>
+      </c>
+      <c r="BK187">
+        <v>1</v>
+      </c>
+      <c r="BL187">
+        <v>1</v>
+      </c>
+      <c r="BM187">
+        <v>1</v>
+      </c>
+      <c r="BN187">
+        <v>1</v>
+      </c>
+      <c r="BO187">
+        <v>1</v>
+      </c>
+      <c r="BP187">
+        <v>1</v>
+      </c>
+      <c r="BQ187">
+        <v>1</v>
+      </c>
+      <c r="BR187">
+        <v>1</v>
+      </c>
+      <c r="BS187">
+        <v>1</v>
+      </c>
+      <c r="BT187">
+        <v>1</v>
+      </c>
+      <c r="BU187">
+        <v>1</v>
+      </c>
+      <c r="BV187">
+        <v>1</v>
+      </c>
+      <c r="BW187">
+        <v>1</v>
+      </c>
+      <c r="BX187">
+        <v>1</v>
+      </c>
+      <c r="BY187">
+        <v>1</v>
+      </c>
+      <c r="BZ187">
+        <v>1</v>
+      </c>
+      <c r="CA187">
+        <v>1</v>
+      </c>
+      <c r="CB187">
+        <v>1</v>
+      </c>
+      <c r="CC187">
+        <v>1</v>
+      </c>
+      <c r="CD187">
+        <v>1</v>
+      </c>
+      <c r="CE187">
+        <v>1</v>
+      </c>
+      <c r="CF187">
+        <v>1</v>
+      </c>
+      <c r="CG187">
+        <v>1</v>
+      </c>
+      <c r="CH187">
+        <v>1</v>
+      </c>
+      <c r="CI187">
+        <v>1</v>
+      </c>
+      <c r="CJ187">
+        <v>1</v>
+      </c>
+      <c r="CK187">
+        <v>1</v>
+      </c>
+      <c r="CL187">
+        <v>1</v>
+      </c>
+      <c r="CM187">
+        <v>1</v>
+      </c>
+      <c r="CN187">
+        <v>1</v>
+      </c>
+      <c r="CO187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B188" s="18">
-        <f t="shared" si="6"/>
-        <v>87.214285714285708</v>
-      </c>
-      <c r="C188" s="18">
-        <f t="shared" si="7"/>
-        <v>2.7857142857142856</v>
+        <v>36</v>
+      </c>
+      <c r="B188" s="2">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C188" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="P188">
+        <v>1</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188">
+        <v>1</v>
+      </c>
+      <c r="S188">
+        <v>1</v>
+      </c>
+      <c r="T188">
+        <v>1</v>
+      </c>
+      <c r="U188">
+        <v>1</v>
+      </c>
+      <c r="V188">
+        <v>1</v>
+      </c>
+      <c r="W188">
+        <v>1</v>
+      </c>
+      <c r="X188">
+        <v>1</v>
+      </c>
+      <c r="Y188">
+        <v>1</v>
+      </c>
+      <c r="Z188">
+        <v>1</v>
+      </c>
+      <c r="AA188">
+        <v>1</v>
+      </c>
+      <c r="AB188">
+        <v>1</v>
+      </c>
+      <c r="AC188">
+        <v>1</v>
+      </c>
+      <c r="AD188">
+        <v>1</v>
+      </c>
+      <c r="AE188">
+        <v>1</v>
+      </c>
+      <c r="AF188">
+        <v>1</v>
+      </c>
+      <c r="AG188">
+        <v>1</v>
+      </c>
+      <c r="AH188">
+        <v>1</v>
+      </c>
+      <c r="AI188">
+        <v>1</v>
+      </c>
+      <c r="AJ188">
+        <v>1</v>
+      </c>
+      <c r="AK188">
+        <v>1</v>
+      </c>
+      <c r="AL188">
+        <v>1</v>
+      </c>
+      <c r="AM188">
+        <v>1</v>
+      </c>
+      <c r="AN188">
+        <v>1</v>
+      </c>
+      <c r="AO188">
+        <v>1</v>
+      </c>
+      <c r="AP188">
+        <v>1</v>
+      </c>
+      <c r="AQ188">
+        <v>1</v>
+      </c>
+      <c r="AR188">
+        <v>1</v>
+      </c>
+      <c r="AS188">
+        <v>1</v>
+      </c>
+      <c r="AT188">
+        <v>1</v>
+      </c>
+      <c r="AU188">
+        <v>1</v>
+      </c>
+      <c r="AV188">
+        <v>1</v>
+      </c>
+      <c r="AW188">
+        <v>1</v>
+      </c>
+      <c r="AX188">
+        <v>1</v>
+      </c>
+      <c r="AY188">
+        <v>1</v>
+      </c>
+      <c r="AZ188">
+        <v>1</v>
+      </c>
+      <c r="BA188">
+        <v>1</v>
+      </c>
+      <c r="BB188">
+        <v>1</v>
+      </c>
+      <c r="BC188">
+        <v>1</v>
+      </c>
+      <c r="BD188">
+        <v>1</v>
+      </c>
+      <c r="BE188">
+        <v>1</v>
+      </c>
+      <c r="BF188">
+        <v>1</v>
+      </c>
+      <c r="BG188">
+        <v>1</v>
+      </c>
+      <c r="BH188">
+        <v>1</v>
+      </c>
+      <c r="BI188">
+        <v>1</v>
+      </c>
+      <c r="BJ188">
+        <v>1</v>
+      </c>
+      <c r="BK188">
+        <v>1</v>
+      </c>
+      <c r="BL188">
+        <v>1</v>
+      </c>
+      <c r="BM188">
+        <v>1</v>
+      </c>
+      <c r="BN188">
+        <v>1</v>
+      </c>
+      <c r="BO188">
+        <v>1</v>
+      </c>
+      <c r="BP188">
+        <v>1</v>
+      </c>
+      <c r="BQ188">
+        <v>1</v>
+      </c>
+      <c r="BR188">
+        <v>1</v>
+      </c>
+      <c r="BS188">
+        <v>1</v>
+      </c>
+      <c r="BT188">
+        <v>1</v>
+      </c>
+      <c r="BU188">
+        <v>1</v>
+      </c>
+      <c r="BV188">
+        <v>1</v>
+      </c>
+      <c r="BW188">
+        <v>1</v>
+      </c>
+      <c r="BX188">
+        <v>1</v>
+      </c>
+      <c r="BY188">
+        <v>1</v>
+      </c>
+      <c r="BZ188">
+        <v>1</v>
+      </c>
+      <c r="CA188">
+        <v>1</v>
+      </c>
+      <c r="CB188">
+        <v>1</v>
+      </c>
+      <c r="CC188">
+        <v>1</v>
+      </c>
+      <c r="CD188">
+        <v>1</v>
+      </c>
+      <c r="CE188">
+        <v>1</v>
+      </c>
+      <c r="CF188">
+        <v>1</v>
+      </c>
+      <c r="CG188">
+        <v>1</v>
+      </c>
+      <c r="CH188">
+        <v>1</v>
+      </c>
+      <c r="CI188">
+        <v>1</v>
+      </c>
+      <c r="CJ188">
+        <v>1</v>
+      </c>
+      <c r="CK188">
+        <v>1</v>
+      </c>
+      <c r="CL188">
+        <v>1</v>
+      </c>
+      <c r="CM188">
+        <v>1</v>
+      </c>
+      <c r="CN188">
+        <v>1</v>
+      </c>
+      <c r="CO188">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B189" s="18">
-        <f t="shared" si="6"/>
-        <v>88.428571428571431</v>
-      </c>
-      <c r="C189" s="18">
-        <f t="shared" si="7"/>
-        <v>1.5714285714285714</v>
+        <v>4</v>
+      </c>
+      <c r="B189" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C189" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="P189">
+        <v>1</v>
+      </c>
+      <c r="Q189">
+        <v>1</v>
+      </c>
+      <c r="R189">
+        <v>1</v>
+      </c>
+      <c r="S189">
+        <v>1</v>
+      </c>
+      <c r="T189">
+        <v>1</v>
+      </c>
+      <c r="U189">
+        <v>1</v>
+      </c>
+      <c r="V189">
+        <v>1</v>
+      </c>
+      <c r="W189">
+        <v>1</v>
+      </c>
+      <c r="X189">
+        <v>1</v>
+      </c>
+      <c r="Y189">
+        <v>1</v>
+      </c>
+      <c r="Z189">
+        <v>1</v>
+      </c>
+      <c r="AA189">
+        <v>1</v>
+      </c>
+      <c r="AB189">
+        <v>1</v>
+      </c>
+      <c r="AC189">
+        <v>1</v>
+      </c>
+      <c r="AD189">
+        <v>1</v>
+      </c>
+      <c r="AE189">
+        <v>1</v>
+      </c>
+      <c r="AF189">
+        <v>1</v>
+      </c>
+      <c r="AG189">
+        <v>1</v>
+      </c>
+      <c r="AH189">
+        <v>1</v>
+      </c>
+      <c r="AI189">
+        <v>1</v>
+      </c>
+      <c r="AJ189">
+        <v>1</v>
+      </c>
+      <c r="AK189">
+        <v>1</v>
+      </c>
+      <c r="AL189">
+        <v>1</v>
+      </c>
+      <c r="AM189">
+        <v>1</v>
+      </c>
+      <c r="AN189">
+        <v>1</v>
+      </c>
+      <c r="AO189">
+        <v>1</v>
+      </c>
+      <c r="AP189">
+        <v>1</v>
+      </c>
+      <c r="AQ189">
+        <v>1</v>
+      </c>
+      <c r="AR189">
+        <v>1</v>
+      </c>
+      <c r="AS189">
+        <v>1</v>
+      </c>
+      <c r="AT189">
+        <v>1</v>
+      </c>
+      <c r="AU189">
+        <v>1</v>
+      </c>
+      <c r="AV189">
+        <v>1</v>
+      </c>
+      <c r="AW189">
+        <v>1</v>
+      </c>
+      <c r="AX189">
+        <v>1</v>
+      </c>
+      <c r="AY189">
+        <v>1</v>
+      </c>
+      <c r="AZ189">
+        <v>1</v>
+      </c>
+      <c r="BA189">
+        <v>1</v>
+      </c>
+      <c r="BB189">
+        <v>1</v>
+      </c>
+      <c r="BC189">
+        <v>1</v>
+      </c>
+      <c r="BD189">
+        <v>1</v>
+      </c>
+      <c r="BE189">
+        <v>1</v>
+      </c>
+      <c r="BF189">
+        <v>1</v>
+      </c>
+      <c r="BG189">
+        <v>1</v>
+      </c>
+      <c r="BH189">
+        <v>1</v>
+      </c>
+      <c r="BI189">
+        <v>1</v>
+      </c>
+      <c r="BJ189">
+        <v>1</v>
+      </c>
+      <c r="BK189">
+        <v>1</v>
+      </c>
+      <c r="BL189">
+        <v>1</v>
+      </c>
+      <c r="BM189">
+        <v>1</v>
+      </c>
+      <c r="BN189">
+        <v>1</v>
+      </c>
+      <c r="BO189">
+        <v>1</v>
+      </c>
+      <c r="BP189">
+        <v>1</v>
+      </c>
+      <c r="BQ189">
+        <v>1</v>
+      </c>
+      <c r="BR189">
+        <v>1</v>
+      </c>
+      <c r="BS189">
+        <v>1</v>
+      </c>
+      <c r="BT189">
+        <v>1</v>
+      </c>
+      <c r="BU189">
+        <v>1</v>
+      </c>
+      <c r="BV189">
+        <v>1</v>
+      </c>
+      <c r="BW189">
+        <v>1</v>
+      </c>
+      <c r="BX189">
+        <v>1</v>
+      </c>
+      <c r="BY189">
+        <v>1</v>
+      </c>
+      <c r="BZ189">
+        <v>1</v>
+      </c>
+      <c r="CA189">
+        <v>1</v>
+      </c>
+      <c r="CB189">
+        <v>1</v>
+      </c>
+      <c r="CC189">
+        <v>1</v>
+      </c>
+      <c r="CD189">
+        <v>1</v>
+      </c>
+      <c r="CE189">
+        <v>1</v>
+      </c>
+      <c r="CF189">
+        <v>1</v>
+      </c>
+      <c r="CG189">
+        <v>1</v>
+      </c>
+      <c r="CH189">
+        <v>1</v>
+      </c>
+      <c r="CI189">
+        <v>1</v>
+      </c>
+      <c r="CJ189">
+        <v>1</v>
+      </c>
+      <c r="CK189">
+        <v>1</v>
+      </c>
+      <c r="CL189">
+        <v>1</v>
+      </c>
+      <c r="CM189">
+        <v>1</v>
+      </c>
+      <c r="CN189">
+        <v>1</v>
+      </c>
+      <c r="CO189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B190" s="18">
-        <f t="shared" si="6"/>
-        <v>86.857142857142861</v>
-      </c>
-      <c r="C190" s="18">
-        <f t="shared" si="7"/>
-        <v>3.1428571428571428</v>
-      </c>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="B191" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="11"/>
+      <c r="A191" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="2">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="C191" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191">
+        <v>1</v>
+      </c>
+      <c r="P191">
+        <v>1</v>
+      </c>
+      <c r="Q191">
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <v>1</v>
+      </c>
+      <c r="S191">
+        <v>1</v>
+      </c>
+      <c r="T191">
+        <v>1</v>
+      </c>
+      <c r="U191">
+        <v>1</v>
+      </c>
+      <c r="V191">
+        <v>1</v>
+      </c>
+      <c r="W191">
+        <v>1</v>
+      </c>
+      <c r="X191">
+        <v>1</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>1</v>
+      </c>
+      <c r="AA191">
+        <v>1</v>
+      </c>
+      <c r="AB191">
+        <v>1</v>
+      </c>
+      <c r="AC191">
+        <v>1</v>
+      </c>
+      <c r="AD191">
+        <v>1</v>
+      </c>
+      <c r="AE191">
+        <v>1</v>
+      </c>
+      <c r="AF191">
+        <v>1</v>
+      </c>
+      <c r="AG191">
+        <v>1</v>
+      </c>
+      <c r="AH191">
+        <v>1</v>
+      </c>
+      <c r="AI191">
+        <v>1</v>
+      </c>
+      <c r="AJ191">
+        <v>1</v>
+      </c>
+      <c r="AK191">
+        <v>1</v>
+      </c>
+      <c r="AL191">
+        <v>1</v>
+      </c>
+      <c r="AM191">
+        <v>1</v>
+      </c>
+      <c r="AN191">
+        <v>1</v>
+      </c>
+      <c r="AO191">
+        <v>1</v>
+      </c>
+      <c r="AP191">
+        <v>1</v>
+      </c>
+      <c r="AQ191">
+        <v>1</v>
+      </c>
+      <c r="AR191">
+        <v>1</v>
+      </c>
+      <c r="AS191">
+        <v>1</v>
+      </c>
+      <c r="AT191">
+        <v>1</v>
+      </c>
+      <c r="AU191">
+        <v>1</v>
+      </c>
+      <c r="AV191">
+        <v>1</v>
+      </c>
+      <c r="AW191">
+        <v>1</v>
+      </c>
+      <c r="AX191">
+        <v>1</v>
+      </c>
+      <c r="AY191">
+        <v>1</v>
+      </c>
+      <c r="AZ191">
+        <v>1</v>
+      </c>
+      <c r="BA191">
+        <v>1</v>
+      </c>
+      <c r="BB191">
+        <v>1</v>
+      </c>
+      <c r="BC191">
+        <v>1</v>
+      </c>
+      <c r="BD191">
+        <v>1</v>
+      </c>
+      <c r="BE191">
+        <v>1</v>
+      </c>
+      <c r="BF191">
+        <v>1</v>
+      </c>
+      <c r="BG191">
+        <v>1</v>
+      </c>
+      <c r="BH191">
+        <v>1</v>
+      </c>
+      <c r="BI191">
+        <v>1</v>
+      </c>
+      <c r="BJ191">
+        <v>1</v>
+      </c>
+      <c r="BK191">
+        <v>1</v>
+      </c>
+      <c r="BL191">
+        <v>1</v>
+      </c>
+      <c r="BM191">
+        <v>1</v>
+      </c>
+      <c r="BN191">
+        <v>1</v>
+      </c>
+      <c r="BO191">
+        <v>1</v>
+      </c>
+      <c r="BP191">
+        <v>1</v>
+      </c>
+      <c r="BQ191">
+        <v>1</v>
+      </c>
+      <c r="BR191">
+        <v>1</v>
+      </c>
+      <c r="BS191">
+        <v>1</v>
+      </c>
+      <c r="BT191">
+        <v>1</v>
+      </c>
+      <c r="BU191">
+        <v>1</v>
+      </c>
+      <c r="BV191">
+        <v>1</v>
+      </c>
+      <c r="BW191">
+        <v>1</v>
+      </c>
+      <c r="BX191">
+        <v>1</v>
+      </c>
+      <c r="BY191">
+        <v>1</v>
+      </c>
+      <c r="BZ191">
+        <v>1</v>
+      </c>
+      <c r="CA191">
+        <v>1</v>
+      </c>
+      <c r="CB191">
+        <v>1</v>
+      </c>
+      <c r="CC191">
+        <v>1</v>
+      </c>
+      <c r="CD191">
+        <v>1</v>
+      </c>
+      <c r="CE191">
+        <v>1</v>
+      </c>
+      <c r="CF191">
+        <v>1</v>
+      </c>
+      <c r="CG191">
+        <v>1</v>
+      </c>
+      <c r="CH191">
+        <v>1</v>
+      </c>
+      <c r="CI191">
+        <v>1</v>
+      </c>
+      <c r="CJ191">
+        <v>1</v>
+      </c>
+      <c r="CK191">
+        <v>1</v>
+      </c>
+      <c r="CL191">
+        <v>1</v>
+      </c>
+      <c r="CM191">
+        <v>1</v>
+      </c>
+      <c r="CN191">
+        <v>1</v>
+      </c>
+      <c r="CO191">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
-      <c r="B192" s="13" t="s">
+      <c r="A192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C192" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
+      </c>
+      <c r="P192">
+        <v>1</v>
+      </c>
+      <c r="Q192">
+        <v>1</v>
+      </c>
+      <c r="R192">
+        <v>1</v>
+      </c>
+      <c r="S192">
+        <v>1</v>
+      </c>
+      <c r="T192">
+        <v>1</v>
+      </c>
+      <c r="U192">
+        <v>1</v>
+      </c>
+      <c r="V192">
+        <v>1</v>
+      </c>
+      <c r="W192">
+        <v>1</v>
+      </c>
+      <c r="X192">
+        <v>1</v>
+      </c>
+      <c r="Y192">
+        <v>1</v>
+      </c>
+      <c r="Z192">
+        <v>1</v>
+      </c>
+      <c r="AA192">
+        <v>1</v>
+      </c>
+      <c r="AB192">
+        <v>1</v>
+      </c>
+      <c r="AC192">
+        <v>1</v>
+      </c>
+      <c r="AD192">
+        <v>1</v>
+      </c>
+      <c r="AE192">
+        <v>1</v>
+      </c>
+      <c r="AF192">
+        <v>1</v>
+      </c>
+      <c r="AG192">
+        <v>1</v>
+      </c>
+      <c r="AH192">
+        <v>1</v>
+      </c>
+      <c r="AI192">
+        <v>1</v>
+      </c>
+      <c r="AJ192">
+        <v>1</v>
+      </c>
+      <c r="AK192">
+        <v>1</v>
+      </c>
+      <c r="AL192">
+        <v>1</v>
+      </c>
+      <c r="AM192">
+        <v>1</v>
+      </c>
+      <c r="AN192">
+        <v>1</v>
+      </c>
+      <c r="AO192">
+        <v>1</v>
+      </c>
+      <c r="AP192">
+        <v>1</v>
+      </c>
+      <c r="AQ192">
+        <v>1</v>
+      </c>
+      <c r="AR192">
+        <v>1</v>
+      </c>
+      <c r="AS192">
+        <v>1</v>
+      </c>
+      <c r="AT192">
+        <v>1</v>
+      </c>
+      <c r="AU192">
+        <v>1</v>
+      </c>
+      <c r="AV192">
+        <v>1</v>
+      </c>
+      <c r="AW192">
+        <v>1</v>
+      </c>
+      <c r="AX192">
+        <v>1</v>
+      </c>
+      <c r="AY192">
+        <v>1</v>
+      </c>
+      <c r="AZ192">
+        <v>1</v>
+      </c>
+      <c r="BA192">
+        <v>1</v>
+      </c>
+      <c r="BB192">
+        <v>1</v>
+      </c>
+      <c r="BC192">
+        <v>1</v>
+      </c>
+      <c r="BD192">
+        <v>1</v>
+      </c>
+      <c r="BE192">
+        <v>1</v>
+      </c>
+      <c r="BF192">
+        <v>1</v>
+      </c>
+      <c r="BG192">
+        <v>1</v>
+      </c>
+      <c r="BH192">
+        <v>1</v>
+      </c>
+      <c r="BI192">
+        <v>1</v>
+      </c>
+      <c r="BJ192">
+        <v>1</v>
+      </c>
+      <c r="BK192">
+        <v>1</v>
+      </c>
+      <c r="BL192">
+        <v>1</v>
+      </c>
+      <c r="BM192">
+        <v>1</v>
+      </c>
+      <c r="BN192">
+        <v>1</v>
+      </c>
+      <c r="BO192">
+        <v>1</v>
+      </c>
+      <c r="BP192">
+        <v>1</v>
+      </c>
+      <c r="BQ192">
+        <v>1</v>
+      </c>
+      <c r="BR192">
+        <v>1</v>
+      </c>
+      <c r="BS192">
+        <v>1</v>
+      </c>
+      <c r="BT192">
+        <v>1</v>
+      </c>
+      <c r="BU192">
+        <v>1</v>
+      </c>
+      <c r="BV192">
+        <v>1</v>
+      </c>
+      <c r="BW192">
+        <v>1</v>
+      </c>
+      <c r="BX192">
+        <v>1</v>
+      </c>
+      <c r="BY192">
+        <v>1</v>
+      </c>
+      <c r="BZ192">
+        <v>1</v>
+      </c>
+      <c r="CA192">
+        <v>1</v>
+      </c>
+      <c r="CB192">
+        <v>1</v>
+      </c>
+      <c r="CC192">
+        <v>1</v>
+      </c>
+      <c r="CD192">
+        <v>1</v>
+      </c>
+      <c r="CE192">
+        <v>1</v>
+      </c>
+      <c r="CF192">
+        <v>1</v>
+      </c>
+      <c r="CG192">
+        <v>1</v>
+      </c>
+      <c r="CH192">
+        <v>1</v>
+      </c>
+      <c r="CI192">
+        <v>1</v>
+      </c>
+      <c r="CJ192">
+        <v>1</v>
+      </c>
+      <c r="CK192">
+        <v>1</v>
+      </c>
+      <c r="CL192">
+        <v>1</v>
+      </c>
+      <c r="CM192">
+        <v>1</v>
+      </c>
+      <c r="CN192">
+        <v>1</v>
+      </c>
+      <c r="CO192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C193" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="P193">
+        <v>1</v>
+      </c>
+      <c r="Q193">
+        <v>1</v>
+      </c>
+      <c r="R193">
+        <v>1</v>
+      </c>
+      <c r="S193">
+        <v>1</v>
+      </c>
+      <c r="T193">
+        <v>1</v>
+      </c>
+      <c r="U193">
+        <v>1</v>
+      </c>
+      <c r="V193">
+        <v>1</v>
+      </c>
+      <c r="W193">
+        <v>1</v>
+      </c>
+      <c r="X193">
+        <v>1</v>
+      </c>
+      <c r="Y193">
+        <v>1</v>
+      </c>
+      <c r="Z193">
+        <v>1</v>
+      </c>
+      <c r="AA193">
+        <v>1</v>
+      </c>
+      <c r="AB193">
+        <v>1</v>
+      </c>
+      <c r="AC193">
+        <v>1</v>
+      </c>
+      <c r="AD193">
+        <v>1</v>
+      </c>
+      <c r="AE193">
+        <v>1</v>
+      </c>
+      <c r="AF193">
+        <v>1</v>
+      </c>
+      <c r="AG193">
+        <v>1</v>
+      </c>
+      <c r="AH193">
+        <v>1</v>
+      </c>
+      <c r="AI193">
+        <v>1</v>
+      </c>
+      <c r="AJ193">
+        <v>1</v>
+      </c>
+      <c r="AK193">
+        <v>1</v>
+      </c>
+      <c r="AL193">
+        <v>1</v>
+      </c>
+      <c r="AM193">
+        <v>1</v>
+      </c>
+      <c r="AN193">
+        <v>1</v>
+      </c>
+      <c r="AO193">
+        <v>1</v>
+      </c>
+      <c r="AP193">
+        <v>1</v>
+      </c>
+      <c r="AQ193">
+        <v>1</v>
+      </c>
+      <c r="AR193">
+        <v>1</v>
+      </c>
+      <c r="AS193">
+        <v>1</v>
+      </c>
+      <c r="AT193">
+        <v>1</v>
+      </c>
+      <c r="AU193">
+        <v>1</v>
+      </c>
+      <c r="AV193">
+        <v>1</v>
+      </c>
+      <c r="AW193">
+        <v>1</v>
+      </c>
+      <c r="AX193">
+        <v>1</v>
+      </c>
+      <c r="AY193">
+        <v>1</v>
+      </c>
+      <c r="AZ193">
+        <v>1</v>
+      </c>
+      <c r="BA193">
+        <v>1</v>
+      </c>
+      <c r="BB193">
+        <v>1</v>
+      </c>
+      <c r="BC193">
+        <v>1</v>
+      </c>
+      <c r="BD193">
+        <v>1</v>
+      </c>
+      <c r="BE193">
+        <v>1</v>
+      </c>
+      <c r="BF193">
+        <v>1</v>
+      </c>
+      <c r="BG193">
+        <v>1</v>
+      </c>
+      <c r="BH193">
+        <v>1</v>
+      </c>
+      <c r="BI193">
+        <v>1</v>
+      </c>
+      <c r="BJ193">
+        <v>1</v>
+      </c>
+      <c r="BK193">
+        <v>1</v>
+      </c>
+      <c r="BL193">
+        <v>1</v>
+      </c>
+      <c r="BM193">
+        <v>1</v>
+      </c>
+      <c r="BN193">
+        <v>1</v>
+      </c>
+      <c r="BO193">
+        <v>1</v>
+      </c>
+      <c r="BP193">
+        <v>1</v>
+      </c>
+      <c r="BQ193">
+        <v>1</v>
+      </c>
+      <c r="BR193">
+        <v>1</v>
+      </c>
+      <c r="BS193">
+        <v>1</v>
+      </c>
+      <c r="BT193">
+        <v>1</v>
+      </c>
+      <c r="BU193">
+        <v>1</v>
+      </c>
+      <c r="BV193">
+        <v>1</v>
+      </c>
+      <c r="BW193">
+        <v>1</v>
+      </c>
+      <c r="BX193">
+        <v>1</v>
+      </c>
+      <c r="BY193">
+        <v>1</v>
+      </c>
+      <c r="BZ193">
+        <v>1</v>
+      </c>
+      <c r="CA193">
+        <v>1</v>
+      </c>
+      <c r="CB193">
+        <v>1</v>
+      </c>
+      <c r="CC193">
+        <v>1</v>
+      </c>
+      <c r="CD193">
+        <v>1</v>
+      </c>
+      <c r="CE193">
+        <v>1</v>
+      </c>
+      <c r="CF193">
+        <v>1</v>
+      </c>
+      <c r="CG193">
+        <v>1</v>
+      </c>
+      <c r="CH193">
+        <v>1</v>
+      </c>
+      <c r="CI193">
+        <v>1</v>
+      </c>
+      <c r="CJ193">
+        <v>1</v>
+      </c>
+      <c r="CK193">
+        <v>1</v>
+      </c>
+      <c r="CL193">
+        <v>1</v>
+      </c>
+      <c r="CM193">
+        <v>1</v>
+      </c>
+      <c r="CN193">
+        <v>1</v>
+      </c>
+      <c r="CO193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B194" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C194" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="P194">
+        <v>1</v>
+      </c>
+      <c r="Q194">
+        <v>1</v>
+      </c>
+      <c r="R194">
+        <v>1</v>
+      </c>
+      <c r="S194">
+        <v>1</v>
+      </c>
+      <c r="T194">
+        <v>1</v>
+      </c>
+      <c r="U194">
+        <v>1</v>
+      </c>
+      <c r="V194">
+        <v>1</v>
+      </c>
+      <c r="W194">
+        <v>1</v>
+      </c>
+      <c r="X194">
+        <v>1</v>
+      </c>
+      <c r="Y194">
+        <v>1</v>
+      </c>
+      <c r="Z194">
+        <v>1</v>
+      </c>
+      <c r="AA194">
+        <v>1</v>
+      </c>
+      <c r="AB194">
+        <v>1</v>
+      </c>
+      <c r="AC194">
+        <v>1</v>
+      </c>
+      <c r="AD194">
+        <v>1</v>
+      </c>
+      <c r="AE194">
+        <v>1</v>
+      </c>
+      <c r="AF194">
+        <v>1</v>
+      </c>
+      <c r="AG194">
+        <v>1</v>
+      </c>
+      <c r="AH194">
+        <v>1</v>
+      </c>
+      <c r="AI194">
+        <v>1</v>
+      </c>
+      <c r="AJ194">
+        <v>1</v>
+      </c>
+      <c r="AK194">
+        <v>1</v>
+      </c>
+      <c r="AL194">
+        <v>1</v>
+      </c>
+      <c r="AM194">
+        <v>1</v>
+      </c>
+      <c r="AN194">
+        <v>1</v>
+      </c>
+      <c r="AO194">
+        <v>1</v>
+      </c>
+      <c r="AP194">
+        <v>1</v>
+      </c>
+      <c r="AQ194">
+        <v>1</v>
+      </c>
+      <c r="AR194">
+        <v>1</v>
+      </c>
+      <c r="AS194">
+        <v>1</v>
+      </c>
+      <c r="AT194">
+        <v>1</v>
+      </c>
+      <c r="AU194">
+        <v>1</v>
+      </c>
+      <c r="AV194">
+        <v>1</v>
+      </c>
+      <c r="AW194">
+        <v>1</v>
+      </c>
+      <c r="AX194">
+        <v>1</v>
+      </c>
+      <c r="AY194">
+        <v>1</v>
+      </c>
+      <c r="AZ194">
+        <v>1</v>
+      </c>
+      <c r="BA194">
+        <v>1</v>
+      </c>
+      <c r="BB194">
+        <v>1</v>
+      </c>
+      <c r="BC194">
+        <v>1</v>
+      </c>
+      <c r="BD194">
+        <v>1</v>
+      </c>
+      <c r="BE194">
+        <v>1</v>
+      </c>
+      <c r="BF194">
+        <v>1</v>
+      </c>
+      <c r="BG194">
+        <v>1</v>
+      </c>
+      <c r="BH194">
+        <v>1</v>
+      </c>
+      <c r="BI194">
+        <v>1</v>
+      </c>
+      <c r="BJ194">
+        <v>1</v>
+      </c>
+      <c r="BK194">
+        <v>1</v>
+      </c>
+      <c r="BL194">
+        <v>1</v>
+      </c>
+      <c r="BM194">
+        <v>1</v>
+      </c>
+      <c r="BN194">
+        <v>1</v>
+      </c>
+      <c r="BO194">
+        <v>1</v>
+      </c>
+      <c r="BP194">
+        <v>1</v>
+      </c>
+      <c r="BQ194">
+        <v>1</v>
+      </c>
+      <c r="BR194">
+        <v>1</v>
+      </c>
+      <c r="BS194">
+        <v>1</v>
+      </c>
+      <c r="BT194">
+        <v>1</v>
+      </c>
+      <c r="BU194">
+        <v>1</v>
+      </c>
+      <c r="BV194">
+        <v>1</v>
+      </c>
+      <c r="BW194">
+        <v>1</v>
+      </c>
+      <c r="BX194">
+        <v>1</v>
+      </c>
+      <c r="BY194">
+        <v>1</v>
+      </c>
+      <c r="BZ194">
+        <v>1</v>
+      </c>
+      <c r="CA194">
+        <v>1</v>
+      </c>
+      <c r="CB194">
+        <v>1</v>
+      </c>
+      <c r="CC194">
+        <v>1</v>
+      </c>
+      <c r="CD194">
+        <v>1</v>
+      </c>
+      <c r="CE194">
+        <v>1</v>
+      </c>
+      <c r="CF194">
+        <v>1</v>
+      </c>
+      <c r="CG194">
+        <v>1</v>
+      </c>
+      <c r="CH194">
+        <v>1</v>
+      </c>
+      <c r="CI194">
+        <v>1</v>
+      </c>
+      <c r="CJ194">
+        <v>1</v>
+      </c>
+      <c r="CK194">
+        <v>1</v>
+      </c>
+      <c r="CL194">
+        <v>1</v>
+      </c>
+      <c r="CM194">
+        <v>1</v>
+      </c>
+      <c r="CN194">
+        <v>1</v>
+      </c>
+      <c r="CO194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C195" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="P195">
+        <v>1</v>
+      </c>
+      <c r="Q195">
+        <v>1</v>
+      </c>
+      <c r="R195">
+        <v>1</v>
+      </c>
+      <c r="S195">
+        <v>1</v>
+      </c>
+      <c r="T195">
+        <v>1</v>
+      </c>
+      <c r="U195">
+        <v>1</v>
+      </c>
+      <c r="V195">
+        <v>1</v>
+      </c>
+      <c r="W195">
+        <v>1</v>
+      </c>
+      <c r="X195">
+        <v>1</v>
+      </c>
+      <c r="Y195">
+        <v>1</v>
+      </c>
+      <c r="Z195">
+        <v>1</v>
+      </c>
+      <c r="AA195">
+        <v>1</v>
+      </c>
+      <c r="AB195">
+        <v>1</v>
+      </c>
+      <c r="AC195">
+        <v>1</v>
+      </c>
+      <c r="AD195">
+        <v>1</v>
+      </c>
+      <c r="AE195">
+        <v>1</v>
+      </c>
+      <c r="AF195">
+        <v>1</v>
+      </c>
+      <c r="AG195">
+        <v>1</v>
+      </c>
+      <c r="AH195">
+        <v>1</v>
+      </c>
+      <c r="AI195">
+        <v>1</v>
+      </c>
+      <c r="AJ195">
+        <v>1</v>
+      </c>
+      <c r="AK195">
+        <v>1</v>
+      </c>
+      <c r="AL195">
+        <v>1</v>
+      </c>
+      <c r="AM195">
+        <v>1</v>
+      </c>
+      <c r="AN195">
+        <v>1</v>
+      </c>
+      <c r="AO195">
+        <v>1</v>
+      </c>
+      <c r="AP195">
+        <v>1</v>
+      </c>
+      <c r="AQ195">
+        <v>1</v>
+      </c>
+      <c r="AR195">
+        <v>1</v>
+      </c>
+      <c r="AS195">
+        <v>1</v>
+      </c>
+      <c r="AT195">
+        <v>1</v>
+      </c>
+      <c r="AU195">
+        <v>1</v>
+      </c>
+      <c r="AV195">
+        <v>1</v>
+      </c>
+      <c r="AW195">
+        <v>1</v>
+      </c>
+      <c r="AX195">
+        <v>1</v>
+      </c>
+      <c r="AY195">
+        <v>1</v>
+      </c>
+      <c r="AZ195">
+        <v>1</v>
+      </c>
+      <c r="BA195">
+        <v>1</v>
+      </c>
+      <c r="BB195">
+        <v>1</v>
+      </c>
+      <c r="BC195">
+        <v>1</v>
+      </c>
+      <c r="BD195">
+        <v>1</v>
+      </c>
+      <c r="BE195">
+        <v>1</v>
+      </c>
+      <c r="BF195">
+        <v>1</v>
+      </c>
+      <c r="BG195">
+        <v>1</v>
+      </c>
+      <c r="BH195">
+        <v>1</v>
+      </c>
+      <c r="BI195">
+        <v>1</v>
+      </c>
+      <c r="BJ195">
+        <v>1</v>
+      </c>
+      <c r="BK195">
+        <v>1</v>
+      </c>
+      <c r="BL195">
+        <v>1</v>
+      </c>
+      <c r="BM195">
+        <v>1</v>
+      </c>
+      <c r="BN195">
+        <v>1</v>
+      </c>
+      <c r="BO195">
+        <v>1</v>
+      </c>
+      <c r="BP195">
+        <v>1</v>
+      </c>
+      <c r="BQ195">
+        <v>1</v>
+      </c>
+      <c r="BR195">
+        <v>1</v>
+      </c>
+      <c r="BS195">
+        <v>1</v>
+      </c>
+      <c r="BT195">
+        <v>1</v>
+      </c>
+      <c r="BU195">
+        <v>1</v>
+      </c>
+      <c r="BV195">
+        <v>1</v>
+      </c>
+      <c r="BW195">
+        <v>1</v>
+      </c>
+      <c r="BX195">
+        <v>1</v>
+      </c>
+      <c r="BY195">
+        <v>1</v>
+      </c>
+      <c r="BZ195">
+        <v>1</v>
+      </c>
+      <c r="CA195">
+        <v>1</v>
+      </c>
+      <c r="CB195">
+        <v>1</v>
+      </c>
+      <c r="CC195">
+        <v>1</v>
+      </c>
+      <c r="CD195">
+        <v>1</v>
+      </c>
+      <c r="CE195">
+        <v>1</v>
+      </c>
+      <c r="CF195">
+        <v>1</v>
+      </c>
+      <c r="CG195">
+        <v>1</v>
+      </c>
+      <c r="CH195">
+        <v>1</v>
+      </c>
+      <c r="CI195">
+        <v>1</v>
+      </c>
+      <c r="CJ195">
+        <v>1</v>
+      </c>
+      <c r="CK195">
+        <v>1</v>
+      </c>
+      <c r="CL195">
+        <v>1</v>
+      </c>
+      <c r="CM195">
+        <v>1</v>
+      </c>
+      <c r="CN195">
+        <v>1</v>
+      </c>
+      <c r="CO195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="B197" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C197" s="17"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="13"/>
+    </row>
+    <row r="198" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A198" s="13"/>
+      <c r="B198" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C198" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+    <row r="199" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B193" s="18">
-        <f>AVERAGE(B178,B165,B152,B139,B126,B113,B100,B87,B74,B61,B48,B35,B22,B9)</f>
-        <v>87.785714285714292</v>
-      </c>
-      <c r="C193" s="18">
-        <f>AVERAGE(C178,C165,C152,C139,C126,C113,C100,C87,C74,C61,C48,C35,C22,C9)</f>
-        <v>2.2142857142857144</v>
+      <c r="B199" s="16">
+        <f>AVERAGE(B185,B172,B159,B146,B133,B120,B107,B94,B81,B68,B55,B42,B29,B16,B3)</f>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="C199" s="16">
+        <f>AVERAGE(C185,C172,C159,C146,C133,C120,C107,C94,C81,C68,C55,C42,C29,C16,C3)</f>
+        <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B194" s="18">
-        <f t="shared" ref="B194:B197" si="8">AVERAGE(B179,B166,B153,B140,B127,B114,B101,B88,B75,B62,B49,B36,B23,B10)</f>
-        <v>88.714285714285708</v>
-      </c>
-      <c r="C194" s="18">
-        <f t="shared" ref="C194:C196" si="9">AVERAGE(C179,C166,C153,C140,C127,C114,C101,C88,C75,C62,C49,C36,C23,C10)</f>
-        <v>1.2857142857142858</v>
+    <row r="200" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="16">
+        <f t="shared" ref="B200:C203" si="6">AVERAGE(B186,B173,B160,B147,B134,B121,B108,B95,B82,B69,B56,B43,B30,B17,B4)</f>
+        <v>87.533333333333331</v>
+      </c>
+      <c r="C200" s="16">
+        <f t="shared" si="6"/>
+        <v>2.4666666666666668</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+    <row r="201" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B195" s="18">
+      <c r="B201" s="16">
+        <f t="shared" si="6"/>
+        <v>87.4</v>
+      </c>
+      <c r="C201" s="16">
+        <f t="shared" si="6"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B202" s="16">
+        <f t="shared" si="6"/>
+        <v>88.466666666666669</v>
+      </c>
+      <c r="C202" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5333333333333334</v>
+      </c>
+    </row>
+    <row r="203" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="16">
+        <f t="shared" si="6"/>
+        <v>87.066666666666663</v>
+      </c>
+      <c r="C203" s="16">
+        <f t="shared" si="6"/>
+        <v>2.9333333333333331</v>
+      </c>
+    </row>
+    <row r="204" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="B204" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C204" s="17"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="11"/>
+    </row>
+    <row r="205" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A205" s="13"/>
+      <c r="B205" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+    </row>
+    <row r="206" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="16">
+        <f>AVERAGE(B191,B178,B165,B152,B139,B126,B113,B100,B87,B74,B61,B48,B35,B22,B9)</f>
+        <v>87.8</v>
+      </c>
+      <c r="C206" s="16">
+        <f>AVERAGE(C185,C178,C165,C152,C139,C126,C113,C100,C87,C74,C61,C48,C35,C22,C9)</f>
+        <v>2.0666666666666669</v>
+      </c>
+    </row>
+    <row r="207" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" s="16">
+        <f t="shared" ref="B207:B210" si="7">AVERAGE(B192,B179,B166,B153,B140,B127,B114,B101,B88,B75,B62,B49,B36,B23,B10)</f>
+        <v>88.8</v>
+      </c>
+      <c r="C207" s="16">
+        <f t="shared" ref="C207:C210" si="8">AVERAGE(C186,C179,C166,C153,C140,C127,C114,C101,C88,C75,C62,C49,C36,C23,C10)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" s="16">
+        <f t="shared" si="7"/>
+        <v>88.8</v>
+      </c>
+      <c r="C208" s="16">
         <f t="shared" si="8"/>
-        <v>88.714285714285708</v>
-      </c>
-      <c r="C195" s="18">
-        <f t="shared" si="9"/>
-        <v>1.2857142857142858</v>
+        <v>1.2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B196" s="18">
+      <c r="B209" s="16">
+        <f t="shared" si="7"/>
+        <v>88.933333333333337</v>
+      </c>
+      <c r="C209" s="16">
         <f t="shared" si="8"/>
-        <v>88.857142857142861</v>
-      </c>
-      <c r="C196" s="18">
-        <f t="shared" si="9"/>
-        <v>1.1428571428571428</v>
+        <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B197" s="18">
+      <c r="B210" s="16">
+        <f t="shared" si="7"/>
+        <v>88.13333333333334</v>
+      </c>
+      <c r="C210" s="16">
         <f t="shared" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="C197" s="18">
-        <f>AVERAGE(C182,C169,C156,C143,C130,C117,C104,C91,C78,C65,C52,C39,C26,C13)</f>
-        <v>2</v>
+        <v>1.8666666666666667</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="D177:H177"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B191:D191"/>
+  <mergeCells count="31">
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B204:D204"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D15:H15"/>
@@ -59614,6 +63537,20 @@
     <mergeCell ref="D73:H73"/>
     <mergeCell ref="D80:H80"/>
     <mergeCell ref="D86:H86"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D177:H177"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D151:H151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/ResultsAnalyse.xlsx
+++ b/Documents/ResultsAnalyse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Asteroids Dodged" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,18 @@
     <sheet name="Asteroids Hit" sheetId="2" r:id="rId4"/>
     <sheet name="Asteroids Hit Chart" sheetId="5" r:id="rId5"/>
     <sheet name="Waypoint Times Chart" sheetId="9" r:id="rId6"/>
-    <sheet name="Waypoint Times" sheetId="3" r:id="rId7"/>
-    <sheet name="Total Locations Chart" sheetId="8" r:id="rId8"/>
-    <sheet name="Player Movement" sheetId="4" r:id="rId9"/>
+    <sheet name="Waypoint Times Chart2" sheetId="11" r:id="rId7"/>
+    <sheet name="Waypoint Times" sheetId="3" r:id="rId8"/>
+    <sheet name="Total Locations Chart" sheetId="8" r:id="rId9"/>
+    <sheet name="Player Movement" sheetId="4" r:id="rId10"/>
+    <sheet name="Player Movement Chart" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="46">
   <si>
     <t>Non Diegetic</t>
   </si>
@@ -258,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -278,162 +280,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -502,7 +365,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -650,16 +512,46 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-97644912"/>
-        <c:axId val="-97642192"/>
+        <c:axId val="-488080976"/>
+        <c:axId val="-488090768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-97644912"/>
+        <c:axId val="-488080976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -697,7 +589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-97642192"/>
+        <c:crossAx val="-488090768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -705,7 +597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-97642192"/>
+        <c:axId val="-488090768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,6 +617,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> number of dodged asteroids</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -756,7 +708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-97644912"/>
+        <c:crossAx val="-488080976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -839,13 +791,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> vs Non Vr targetted asteroids dodged</a:t>
+              <a:t> vs Non Vr targeted asteroids dodged</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -993,11 +944,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-97799616"/>
-        <c:axId val="-1942462512"/>
+        <c:axId val="-488089136"/>
+        <c:axId val="-605444464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-97799616"/>
+        <c:axId val="-488089136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942462512"/>
+        <c:crossAx val="-605444464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1048,9 +999,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942462512"/>
+        <c:axId val="-605444464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1068,6 +1021,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> number of dodged asteroids</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1099,7 +1112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-97799616"/>
+        <c:crossAx val="-488089136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1336,11 +1349,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1942473936"/>
-        <c:axId val="-1942470672"/>
+        <c:axId val="-319072160"/>
+        <c:axId val="-319073248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1942473936"/>
+        <c:axId val="-319072160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942470672"/>
+        <c:crossAx val="-319073248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1391,7 +1404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942470672"/>
+        <c:axId val="-319073248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1445,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Average Number</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
@@ -1446,8 +1459,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0170980005304021E-2"/>
-              <c:y val="0.40524827777786915"/>
+              <c:x val="1.0170993259901543E-2"/>
+              <c:y val="0.33844693451857505"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1510,7 +1523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942473936"/>
+        <c:crossAx val="-319072160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2694,11 +2707,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1942466864"/>
-        <c:axId val="-1942472848"/>
+        <c:axId val="-319068896"/>
+        <c:axId val="-319067264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1942466864"/>
+        <c:axId val="-319068896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942472848"/>
+        <c:crossAx val="-319067264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2749,7 +2762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942472848"/>
+        <c:axId val="-319067264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,6 +2782,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2800,7 +2873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942466864"/>
+        <c:crossAx val="-319068896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2915,13 +2988,1486 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs NonVr waypoint times </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$N$1:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Virtual Reality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non Diegetic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Location 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Location 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Location 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Location 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Location 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Location 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Location 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Location 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Location 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0476190476190474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9047619047619051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5238095238095237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1904761904761907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5909090909090908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$O$1:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Virtual Reality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diegetic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Location 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Location 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Location 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Location 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Location 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Location 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Location 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Location 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Location 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$O$3:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.3636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.041666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3043478260869561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6111111111111107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1578947368421053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5263157894736841</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$P$1:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Virtual Reality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Meta </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Location 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Location 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Location 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Location 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Location 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Location 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Location 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Location 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Location 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$P$3:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.9545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5416666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3478260869565215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8695652173913047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7391304347826084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7826086956521738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$Q$1:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Virtual Reality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spatial </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Location 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Location 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Location 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Location 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Location 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Location 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Location 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Location 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Location 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$Q$3:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.045454545454545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5217391304347823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3478260869565215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5238095238095237</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5714285714285712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$R$1:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Virtual Reality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No Interface</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Location 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Location 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Location 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Location 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Location 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Location 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Location 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Location 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Location 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$R$3:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7391304347826089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7826086956521738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5217391304347823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0869565217391308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5652173913043477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0434782608695654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$S$1:$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Virtual Reality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No Interface</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Location 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Location 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Location 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Location 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Location 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Location 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Location 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Location 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Location 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$S$3:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$T$1:$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Non Virtual Reality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Non Diegetic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Location 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Location 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Location 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Location 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Location 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Location 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Location 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Location 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Location 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$T$3:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.9444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2272727272727275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4782608695652177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0434782608695645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6086956521739131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4347826086956523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7826086956521738</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3478260869565215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$U$1:$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Non Virtual Reality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diegetic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Location 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Location 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Location 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Location 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Location 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Location 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Location 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Location 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Location 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$U$3:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.9473684210526314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7368421052631575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8095238095238093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1904761904761907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$V$1:$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Non Virtual Reality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Meta </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Location 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Location 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Location 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Location 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Location 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Location 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Location 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Location 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Location 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$V$3:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.8421052631578947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8421052631578947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$W$1:$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Non Virtual Reality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spatial </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Location 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Location 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Location 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Location 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Location 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Location 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Location 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Location 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Location 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$W$3:$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3684210526315788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6470588235294121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7058823529411766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5882352941176467</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6470588235294121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$X$1:$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Non Virtual Reality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No Interface</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Location 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Location 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Location 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Location 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Location 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Location 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Location 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Location 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Location 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$X$3:$X$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.1739130434782608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7391304347826084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2608695652173916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0952380952380949</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7272727272727275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>6.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-315393776"/>
+        <c:axId val="-315397584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-315393776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-315397584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-315397584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-315393776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Vr</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
               <a:t> vs Non Vr total waypoints</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3069,11 +4615,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1942471760"/>
-        <c:axId val="-1942476656"/>
+        <c:axId val="-319066720"/>
+        <c:axId val="-319070528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1942471760"/>
+        <c:axId val="-319066720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3116,7 +4662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942476656"/>
+        <c:crossAx val="-319070528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3124,9 +4670,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942476656"/>
+        <c:axId val="-319070528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3144,6 +4691,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> total waypoints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3175,7 +4781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942471760"/>
+        <c:crossAx val="-319066720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3187,6 +4793,610 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Player</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> movement</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Player Movement'!$E$198</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moveing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Player Movement'!$F$196:$P$197</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Player Movement'!$F$198:$P$198</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>98.148148148148138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.259259259259252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.296296296296305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.740740740740733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.814814814814824</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.925925925925938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Player Movement'!$E$199</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standing Still</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Player Movement'!$F$196:$P$197</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Player Movement'!$F$199:$P$199</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.8518518518518521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7407407407407409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2592592592592591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2962962962962967</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2592592592592593</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.074074074074074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-319076512"/>
+        <c:axId val="-319069984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-319076512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-319069984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-319069984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentag</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>e of </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>interface display time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-319076512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3380,6 +5590,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5934,6 +8224,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -5949,7 +9245,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5979,6 +9275,28 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -6020,7 +9338,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302238" cy="6083710"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6047,7 +9365,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6075947"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6101,7 +9419,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6075947"/>
+    <xdr:ext cx="9309919" cy="6083710"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6440,35 +9812,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="N1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="T1" s="17" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="T1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6657,7 +10029,7 @@
         <v>47.2</v>
       </c>
       <c r="O4" s="12">
-        <f t="shared" ref="O4:S4" si="6">AVERAGE(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45,C49,C53,C57,C61)</f>
+        <f t="shared" ref="O4:R4" si="6">AVERAGE(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45,C49,C53,C57,C61)</f>
         <v>48.4</v>
       </c>
       <c r="P4" s="12">
@@ -8777,35 +12149,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="N1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="T1" s="17" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="T1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9977,8 +13349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V58" sqref="V58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10002,36 +13374,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="N1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -10138,44 +13510,44 @@
       <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="17">
         <f>AVERAGE(B3,B4,B25,B26,B47,B48,B69,B70,B91,B92,B113,B114,B135,B136,B157,B158,B179,B180,B201,B202,B223,B224,B245,B246,B267,B268,B289,B290,B311,B312)</f>
         <v>4.25</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="17">
         <f>AVERAGE(C3,C4,C25,C26,C47,C48,C69,C70,C91,C92,C113,C114,C135,C136,C157,C158,C179,C180,C201,C202,C223,C224,C245,C246,C267,C268,C289,C290,C311,C312)</f>
         <v>4.3636363636363633</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="17">
         <f t="shared" ref="P3:R12" si="0">AVERAGE(D3,D4,D25,D26,D47,D48,D69,D70,D91,D92,D113,D114,D135,D136,D157,D158,D179,D180,D201,D202,D223,D224,D245,D246,D267,D268,D289,D290,D311,D312)</f>
         <v>3.9545454545454546</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="17">
         <f t="shared" si="0"/>
         <v>5.0625</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19">
+      <c r="S3" s="17"/>
+      <c r="T3" s="17">
         <f t="shared" ref="T3:T12" si="1">AVERAGE(H3,H4,H25,H26,H47,H48,H69,H70,H91,H92,H113,H114,H135,H136,H157,H158,H179,H180,H201,H202,H223,H224,H245,H246,H267,H268,H289,H290,H311,H312)</f>
         <v>5.9444444444444446</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="17">
         <f t="shared" ref="U3:U12" si="2">AVERAGE(I3,I4,I25,I26,I47,I48,I69,I70,I91,I92,I113,I114,I135,I136,I157,I158,I179,I180,I201,I202,I223,I224,I245,I246,I267,I268,I289,I290,I311,I312)</f>
         <v>3.9473684210526314</v>
       </c>
-      <c r="V3" s="19">
+      <c r="V3" s="17">
         <f t="shared" ref="V3:V12" si="3">AVERAGE(J3,J4,J25,J26,J47,J48,J69,J70,J91,J92,J113,J114,J135,J136,J157,J158,J179,J180,J201,J202,J223,J224,J245,J246,J267,J268,J289,J290,J311,J312)</f>
         <v>3.8421052631578947</v>
       </c>
-      <c r="W3" s="22">
+      <c r="W3" s="20">
         <f t="shared" ref="W3:W12" si="4">AVERAGE(K3,K4,K25,K26,K47,K48,K69,K70,K91,K92,K113,K114,K135,K136,K157,K158,K179,K180,K201,K202,K223,K224,K245,K246,K267,K268,K289,K290,K311,K312)</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="X3" s="19">
+      <c r="X3" s="17">
         <f t="shared" ref="X3:X12" si="5">AVERAGE(L3,L4,L25,L26,L47,L48,L69,L70,L91,L92,L113,L114,L135,L136,L157,L158,L179,L180,L201,L202,L223,L224,L245,L246,L267,L268,L289,L290,L311,L312)</f>
         <v>4.1739130434782608</v>
       </c>
@@ -10200,44 +13572,44 @@
       <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="19">
-        <f t="shared" ref="N4:N13" si="6">AVERAGE(B4,B5,B26,B27,B48,B49,B70,B71,B92,B93,B114,B115,B136,B137,B158,B159,B180,B181,B202,B203,B224,B225,B246,B247,B268,B269,B290,B291,B312,B313)</f>
+      <c r="N4" s="17">
+        <f t="shared" ref="N4:N12" si="6">AVERAGE(B4,B5,B26,B27,B48,B49,B70,B71,B92,B93,B114,B115,B136,B137,B158,B159,B180,B181,B202,B203,B224,B225,B246,B247,B268,B269,B290,B291,B312,B313)</f>
         <v>3.55</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="17">
         <f t="shared" ref="O4:O12" si="7">AVERAGE(C4,C5,C26,C27,C48,C49,C70,C71,C92,C93,C114,C115,C136,C137,C158,C159,C180,C181,C202,C203,C224,C225,C246,C247,C268,C269,C290,C291,C312,C313)</f>
         <v>4.0454545454545459</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="17">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="17">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="19">
+      <c r="S4" s="18"/>
+      <c r="T4" s="17">
         <f t="shared" si="1"/>
         <v>4.3888888888888893</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="17">
         <f t="shared" si="2"/>
         <v>4.7368421052631575</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="17">
         <f t="shared" si="3"/>
         <v>3.8421052631578947</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="17">
         <f t="shared" si="4"/>
         <v>6.3684210526315788</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="17">
         <f t="shared" si="5"/>
         <v>4.7391304347826084</v>
       </c>
@@ -10280,44 +13652,44 @@
       <c r="M5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="17">
         <f t="shared" si="6"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="17">
         <f t="shared" si="7"/>
         <v>3.875</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="17">
         <f t="shared" si="0"/>
         <v>3.5416666666666665</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="17">
         <f t="shared" si="0"/>
         <v>3.85</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="17">
         <f t="shared" si="0"/>
         <v>3.7391304347826089</v>
       </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="19">
+      <c r="S5" s="18"/>
+      <c r="T5" s="17">
         <f t="shared" si="1"/>
         <v>4.1363636363636367</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="17">
         <f t="shared" si="2"/>
         <v>4.8095238095238093</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="17">
         <f t="shared" si="3"/>
         <v>3.9230769230769229</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="17">
         <f t="shared" si="4"/>
         <v>6.7</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="17">
         <f t="shared" si="5"/>
         <v>5.2608695652173916</v>
       </c>
@@ -10346,44 +13718,44 @@
       <c r="M6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="17">
         <f t="shared" si="6"/>
         <v>7.0476190476190474</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="17">
         <f t="shared" si="7"/>
         <v>6.041666666666667</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="17">
         <f t="shared" si="0"/>
         <v>6.125</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="17">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="17">
         <f t="shared" si="0"/>
         <v>5.7826086956521738</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="19">
+      <c r="S6" s="18"/>
+      <c r="T6" s="17">
         <f t="shared" si="1"/>
         <v>6.2272727272727275</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="17">
         <f t="shared" si="2"/>
         <v>6.3636363636363633</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="17">
         <f t="shared" si="3"/>
         <v>6.1538461538461542</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="17">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="17">
         <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
@@ -10426,44 +13798,44 @@
       <c r="M7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="17">
         <f t="shared" si="6"/>
         <v>7.9047619047619051</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="17">
         <f t="shared" si="7"/>
         <v>7.3043478260869561</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="17">
         <f t="shared" si="0"/>
         <v>7.3478260869565215</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="17">
         <f t="shared" si="0"/>
         <v>8.045454545454545</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="17">
         <f t="shared" si="0"/>
         <v>7.1363636363636367</v>
       </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="19">
+      <c r="S7" s="18"/>
+      <c r="T7" s="17">
         <f t="shared" si="1"/>
         <v>7.4782608695652177</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="17">
         <f t="shared" si="2"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="17">
         <f t="shared" si="3"/>
         <v>7.72</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="17">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="17">
         <f t="shared" si="5"/>
         <v>7.0952380952380949</v>
       </c>
@@ -10490,44 +13862,44 @@
       <c r="M8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="17">
         <f t="shared" si="6"/>
         <v>7.5238095238095237</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="17">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="17">
         <f t="shared" si="0"/>
         <v>6.8695652173913047</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="17">
         <f t="shared" si="0"/>
         <v>7.2727272727272725</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="17">
         <f t="shared" si="0"/>
         <v>6.7727272727272725</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19">
+      <c r="S8" s="18"/>
+      <c r="T8" s="17">
         <f t="shared" si="1"/>
         <v>8.0434782608695645</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U8" s="17">
         <f t="shared" si="2"/>
         <v>7.1904761904761907</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="17">
         <f t="shared" si="3"/>
         <v>6.88</v>
       </c>
-      <c r="W8" s="19">
+      <c r="W8" s="17">
         <f t="shared" si="4"/>
         <v>7.6</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X8" s="17">
         <f t="shared" si="5"/>
         <v>6.7272727272727275</v>
       </c>
@@ -10570,44 +13942,44 @@
       <c r="M9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="17">
         <f t="shared" si="6"/>
         <v>7.1904761904761907</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="17">
         <f t="shared" si="7"/>
         <v>7.0555555555555554</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="17">
         <f t="shared" si="0"/>
         <v>6.7391304347826084</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="17">
         <f t="shared" si="0"/>
         <v>6.5217391304347823</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="17">
         <f t="shared" si="0"/>
         <v>6.5217391304347823</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="19">
+      <c r="S9" s="18"/>
+      <c r="T9" s="17">
         <f t="shared" si="1"/>
         <v>7.6086956521739131</v>
       </c>
-      <c r="U9" s="19">
+      <c r="U9" s="17">
         <f t="shared" si="2"/>
         <v>6.958333333333333</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="17">
         <f t="shared" si="3"/>
         <v>6.5909090909090908</v>
       </c>
-      <c r="W9" s="19">
+      <c r="W9" s="17">
         <f t="shared" si="4"/>
         <v>7.6470588235294121</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X9" s="17">
         <f t="shared" si="5"/>
         <v>6.6363636363636367</v>
       </c>
@@ -10634,44 +14006,44 @@
       <c r="M10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="17">
         <f t="shared" si="6"/>
         <v>6.1428571428571432</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="17">
         <f t="shared" si="7"/>
         <v>7.6111111111111107</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="17">
         <f t="shared" si="0"/>
         <v>5.7826086956521738</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="17">
         <f t="shared" si="0"/>
         <v>6.3478260869565215</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="17">
         <f t="shared" si="0"/>
         <v>6.0869565217391308</v>
       </c>
-      <c r="S10" s="20"/>
-      <c r="T10" s="19">
+      <c r="S10" s="18"/>
+      <c r="T10" s="17">
         <f t="shared" si="1"/>
         <v>5.4347826086956523</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="17">
         <f t="shared" si="2"/>
         <v>5.916666666666667</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="17">
         <f t="shared" si="3"/>
         <v>6.1818181818181817</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="17">
         <f t="shared" si="4"/>
         <v>5.7058823529411766</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="17">
         <f t="shared" si="5"/>
         <v>6.3181818181818183</v>
       </c>
@@ -10714,44 +14086,44 @@
       <c r="M11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="17">
         <f t="shared" si="6"/>
         <v>6.0454545454545459</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="17">
         <f t="shared" si="7"/>
         <v>7.1578947368421053</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="17">
         <f t="shared" si="0"/>
         <v>5.1818181818181817</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="17">
         <f t="shared" si="0"/>
         <v>6.5238095238095237</v>
       </c>
-      <c r="R11" s="19">
+      <c r="R11" s="17">
         <f t="shared" si="0"/>
         <v>5.5652173913043477</v>
       </c>
-      <c r="S11" s="20"/>
-      <c r="T11" s="19">
+      <c r="S11" s="18"/>
+      <c r="T11" s="17">
         <f t="shared" si="1"/>
         <v>4.7826086956521738</v>
       </c>
-      <c r="U11" s="19">
+      <c r="U11" s="17">
         <f t="shared" si="2"/>
         <v>5.12</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="17">
         <f t="shared" si="3"/>
         <v>5.8</v>
       </c>
-      <c r="W11" s="19">
+      <c r="W11" s="17">
         <f t="shared" si="4"/>
         <v>5.5882352941176467</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="17">
         <f t="shared" si="5"/>
         <v>6.35</v>
       </c>
@@ -10778,44 +14150,44 @@
       <c r="M12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="17">
         <f t="shared" si="6"/>
         <v>6.5909090909090908</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="17">
         <f t="shared" si="7"/>
         <v>6.5263157894736841</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="17">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="17">
         <f t="shared" si="0"/>
         <v>6.5714285714285712</v>
       </c>
-      <c r="R12" s="19">
+      <c r="R12" s="17">
         <f t="shared" si="0"/>
         <v>6.0434782608695654</v>
       </c>
-      <c r="S12" s="20"/>
-      <c r="T12" s="19">
+      <c r="S12" s="18"/>
+      <c r="T12" s="17">
         <f t="shared" si="1"/>
         <v>6.3478260869565215</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12" s="17">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="17">
         <f t="shared" si="3"/>
         <v>6.35</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W12" s="17">
         <f t="shared" si="4"/>
         <v>7.6470588235294121</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="19">
         <f t="shared" si="5"/>
         <v>6.8</v>
       </c>
@@ -20419,7 +23791,7 @@
     <mergeCell ref="T1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="N3:R12 S3:X3 T4:X12">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>$T$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20432,8 +23804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP210"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView topLeftCell="F207" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R209" sqref="R209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20460,13 +23832,13 @@
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
@@ -21887,13 +25259,13 @@
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -23320,13 +26692,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -24747,13 +28119,13 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -26180,13 +29552,13 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -27607,13 +30979,13 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -29040,13 +32412,13 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -30467,13 +33839,13 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -31903,13 +35275,13 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -33330,13 +36702,13 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -34763,13 +38135,13 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
     </row>
     <row r="68" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -36190,13 +39562,13 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
     </row>
     <row r="74" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -37623,13 +40995,13 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
     </row>
     <row r="81" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -39050,13 +42422,13 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
     </row>
     <row r="87" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -40483,13 +43855,13 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="17" t="s">
+      <c r="D93" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
     </row>
     <row r="94" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -41910,13 +45282,13 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
     </row>
     <row r="100" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -43343,13 +46715,13 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="17" t="s">
+      <c r="D106" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
     </row>
     <row r="107" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -44770,13 +48142,13 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="17" t="s">
+      <c r="D112" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
     </row>
     <row r="113" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
@@ -46203,13 +49575,13 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="17" t="s">
+      <c r="D119" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
     </row>
     <row r="120" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
@@ -47630,13 +51002,13 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="17"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
     </row>
     <row r="126" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -49063,13 +52435,13 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="17" t="s">
+      <c r="D132" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
     </row>
     <row r="133" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
@@ -50490,13 +53862,13 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="17" t="s">
+      <c r="D138" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
     </row>
     <row r="139" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
@@ -51923,13 +55295,13 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="17" t="s">
+      <c r="D145" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E145" s="17"/>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
     </row>
     <row r="146" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -53350,13 +56722,13 @@
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="17" t="s">
+      <c r="D151" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
     </row>
     <row r="152" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
@@ -54783,13 +58155,13 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="17" t="s">
+      <c r="D158" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E158" s="17"/>
-      <c r="F158" s="17"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
     </row>
     <row r="159" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -56210,13 +59582,13 @@
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="17" t="s">
+      <c r="D164" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
     </row>
     <row r="165" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
@@ -57643,13 +61015,13 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="17" t="s">
+      <c r="D171" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
     </row>
     <row r="172" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
@@ -59070,13 +62442,13 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="17" t="s">
+      <c r="D177" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E177" s="17"/>
-      <c r="F177" s="17"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="17"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
     </row>
     <row r="178" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
@@ -60504,13 +63876,13 @@
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="17" t="s">
+      <c r="D184" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E184" s="17"/>
-      <c r="F184" s="17"/>
-      <c r="G184" s="17"/>
-      <c r="H184" s="17"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
     </row>
     <row r="185" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
@@ -63349,14 +66721,54 @@
     </row>
     <row r="196" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
+      <c r="F196" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
+      <c r="L196" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M196" s="22"/>
+      <c r="N196" s="22"/>
     </row>
     <row r="197" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="B197" s="17" t="s">
+      <c r="B197" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C197" s="17"/>
-      <c r="D197" s="17"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
       <c r="E197" s="13"/>
+      <c r="F197" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M197" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N197" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O197" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P197" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="198" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A198" s="13"/>
@@ -63367,19 +66779,84 @@
         <v>42</v>
       </c>
       <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
+      <c r="E198" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F198" s="21">
+        <v>98.148148148148138</v>
+      </c>
+      <c r="G198" s="21">
+        <v>97.259259259259252</v>
+      </c>
+      <c r="H198" s="21">
+        <v>97.111111111111114</v>
+      </c>
+      <c r="I198" s="21">
+        <v>98.296296296296305</v>
+      </c>
+      <c r="J198" s="21">
+        <v>96.740740740740733</v>
+      </c>
+      <c r="L198" s="12">
+        <v>97.555555555555557</v>
+      </c>
+      <c r="M198" s="12">
+        <v>98.666666666666657</v>
+      </c>
+      <c r="N198" s="12">
+        <v>98.666666666666657</v>
+      </c>
+      <c r="O198" s="12">
+        <v>98.814814814814824</v>
+      </c>
+      <c r="P198" s="12">
+        <v>97.925925925925938</v>
+      </c>
     </row>
     <row r="199" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B199" s="16">
-        <f>AVERAGE(B185,B172,B159,B146,B133,B120,B107,B94,B81,B68,B55,B42,B29,B16,B3)</f>
-        <v>88.333333333333329</v>
+        <f>AVERAGE(B185,B172,B159,B146,B133,B120,B107,B94,B81,B68,B55,B42,B29,B16,B3)/90*100</f>
+        <v>98.148148148148138</v>
       </c>
       <c r="C199" s="16">
-        <f>AVERAGE(C185,C172,C159,C146,C133,C120,C107,C94,C81,C68,C55,C42,C29,C16,C3)</f>
-        <v>1.6666666666666667</v>
+        <f>AVERAGE(C185,C172,C159,C146,C133,C120,C107,C94,C81,C68,C55,C42,C29,C16,C3)/90*100</f>
+        <v>1.8518518518518521</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F199" s="21">
+        <v>1.8518518518518521</v>
+      </c>
+      <c r="G199" s="21">
+        <v>2.7407407407407409</v>
+      </c>
+      <c r="H199" s="21">
+        <v>2.8888888888888893</v>
+      </c>
+      <c r="I199" s="21">
+        <v>1.7037037037037037</v>
+      </c>
+      <c r="J199" s="21">
+        <v>3.2592592592592591</v>
+      </c>
+      <c r="L199" s="12">
+        <v>2.2962962962962967</v>
+      </c>
+      <c r="M199" s="12">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N199" s="12">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O199" s="12">
+        <v>1.2592592592592593</v>
+      </c>
+      <c r="P199" s="12">
+        <v>2.074074074074074</v>
       </c>
     </row>
     <row r="200" spans="1:93" x14ac:dyDescent="0.25">
@@ -63387,12 +66864,12 @@
         <v>1</v>
       </c>
       <c r="B200" s="16">
-        <f t="shared" ref="B200:C203" si="6">AVERAGE(B186,B173,B160,B147,B134,B121,B108,B95,B82,B69,B56,B43,B30,B17,B4)</f>
-        <v>87.533333333333331</v>
+        <f t="shared" ref="B200:C203" si="6">AVERAGE(B186,B173,B160,B147,B134,B121,B108,B95,B82,B69,B56,B43,B30,B17,B4)/90*100</f>
+        <v>97.259259259259252</v>
       </c>
       <c r="C200" s="16">
         <f t="shared" si="6"/>
-        <v>2.4666666666666668</v>
+        <v>2.7407407407407409</v>
       </c>
     </row>
     <row r="201" spans="1:93" x14ac:dyDescent="0.25">
@@ -63401,11 +66878,11 @@
       </c>
       <c r="B201" s="16">
         <f t="shared" si="6"/>
-        <v>87.4</v>
+        <v>97.111111111111114</v>
       </c>
       <c r="C201" s="16">
         <f t="shared" si="6"/>
-        <v>2.6</v>
+        <v>2.8888888888888893</v>
       </c>
     </row>
     <row r="202" spans="1:93" x14ac:dyDescent="0.25">
@@ -63414,11 +66891,11 @@
       </c>
       <c r="B202" s="16">
         <f t="shared" si="6"/>
-        <v>88.466666666666669</v>
+        <v>98.296296296296305</v>
       </c>
       <c r="C202" s="16">
         <f t="shared" si="6"/>
-        <v>1.5333333333333334</v>
+        <v>1.7037037037037037</v>
       </c>
     </row>
     <row r="203" spans="1:93" x14ac:dyDescent="0.25">
@@ -63427,19 +66904,19 @@
       </c>
       <c r="B203" s="16">
         <f t="shared" si="6"/>
-        <v>87.066666666666663</v>
+        <v>96.740740740740733</v>
       </c>
       <c r="C203" s="16">
         <f t="shared" si="6"/>
-        <v>2.9333333333333331</v>
+        <v>3.2592592592592591</v>
       </c>
     </row>
     <row r="204" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="B204" s="17" t="s">
+      <c r="B204" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
       <c r="E204" s="11"/>
     </row>
     <row r="205" spans="1:93" x14ac:dyDescent="0.25">
@@ -63458,12 +66935,12 @@
         <v>0</v>
       </c>
       <c r="B206" s="16">
-        <f>AVERAGE(B191,B178,B165,B152,B139,B126,B113,B100,B87,B74,B61,B48,B35,B22,B9)</f>
-        <v>87.8</v>
+        <f>AVERAGE(B191,B178,B165,B152,B139,B126,B113,B100,B87,B74,B61,B48,B35,B22,B9)/90*100</f>
+        <v>97.555555555555557</v>
       </c>
       <c r="C206" s="16">
-        <f>AVERAGE(C185,C178,C165,C152,C139,C126,C113,C100,C87,C74,C61,C48,C35,C22,C9)</f>
-        <v>2.0666666666666669</v>
+        <f>AVERAGE(C185,C178,C165,C152,C139,C126,C113,C100,C87,C74,C61,C48,C35,C22,C9)/90*100</f>
+        <v>2.2962962962962967</v>
       </c>
     </row>
     <row r="207" spans="1:93" x14ac:dyDescent="0.25">
@@ -63471,12 +66948,12 @@
         <v>1</v>
       </c>
       <c r="B207" s="16">
-        <f t="shared" ref="B207:B210" si="7">AVERAGE(B192,B179,B166,B153,B140,B127,B114,B101,B88,B75,B62,B49,B36,B23,B10)</f>
-        <v>88.8</v>
+        <f t="shared" ref="B207:B210" si="7">AVERAGE(B192,B179,B166,B153,B140,B127,B114,B101,B88,B75,B62,B49,B36,B23,B10)/90*100</f>
+        <v>98.666666666666657</v>
       </c>
       <c r="C207" s="16">
-        <f t="shared" ref="C207:C210" si="8">AVERAGE(C186,C179,C166,C153,C140,C127,C114,C101,C88,C75,C62,C49,C36,C23,C10)</f>
-        <v>1.2</v>
+        <f t="shared" ref="C207:C210" si="8">AVERAGE(C186,C179,C166,C153,C140,C127,C114,C101,C88,C75,C62,C49,C36,C23,C10)/90*100</f>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:93" x14ac:dyDescent="0.25">
@@ -63485,11 +66962,11 @@
       </c>
       <c r="B208" s="16">
         <f t="shared" si="7"/>
-        <v>88.8</v>
+        <v>98.666666666666657</v>
       </c>
       <c r="C208" s="16">
         <f t="shared" si="8"/>
-        <v>1.2</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -63498,11 +66975,11 @@
       </c>
       <c r="B209" s="16">
         <f t="shared" si="7"/>
-        <v>88.933333333333337</v>
+        <v>98.814814814814824</v>
       </c>
       <c r="C209" s="16">
         <f t="shared" si="8"/>
-        <v>1.1333333333333333</v>
+        <v>1.2592592592592593</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -63511,16 +66988,15 @@
       </c>
       <c r="B210" s="16">
         <f t="shared" si="7"/>
-        <v>88.13333333333334</v>
+        <v>97.925925925925938</v>
       </c>
       <c r="C210" s="16">
         <f t="shared" si="8"/>
-        <v>1.8666666666666667</v>
+        <v>2.074074074074074</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D184:H184"/>
+  <mergeCells count="33">
     <mergeCell ref="B197:D197"/>
     <mergeCell ref="B204:D204"/>
     <mergeCell ref="D2:H2"/>
@@ -63541,6 +67017,8 @@
     <mergeCell ref="D99:H99"/>
     <mergeCell ref="D106:H106"/>
     <mergeCell ref="D112:H112"/>
+    <mergeCell ref="F196:H196"/>
+    <mergeCell ref="L196:N196"/>
     <mergeCell ref="D119:H119"/>
     <mergeCell ref="D158:H158"/>
     <mergeCell ref="D164:H164"/>
@@ -63551,6 +67029,7 @@
     <mergeCell ref="D138:H138"/>
     <mergeCell ref="D145:H145"/>
     <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D184:H184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/ResultsAnalyse.xlsx
+++ b/Documents/ResultsAnalyse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Asteroids Dodged" sheetId="1" r:id="rId1"/>
@@ -12,19 +12,18 @@
     <sheet name="Asteroids Dodged Targeted" sheetId="6" r:id="rId3"/>
     <sheet name="Asteroids Hit" sheetId="2" r:id="rId4"/>
     <sheet name="Asteroids Hit Chart" sheetId="5" r:id="rId5"/>
-    <sheet name="Waypoint Times Chart" sheetId="9" r:id="rId6"/>
-    <sheet name="Waypoint Times Chart2" sheetId="11" r:id="rId7"/>
-    <sheet name="Waypoint Times" sheetId="3" r:id="rId8"/>
-    <sheet name="Total Locations Chart" sheetId="8" r:id="rId9"/>
-    <sheet name="Player Movement" sheetId="4" r:id="rId10"/>
-    <sheet name="Player Movement Chart" sheetId="10" r:id="rId11"/>
+    <sheet name="Waypoint times chart" sheetId="11" r:id="rId6"/>
+    <sheet name="Waypoint Times" sheetId="3" r:id="rId7"/>
+    <sheet name="Total Locations Chart" sheetId="8" r:id="rId8"/>
+    <sheet name="Player Movement" sheetId="4" r:id="rId9"/>
+    <sheet name="Player Movement Chart" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="54">
   <si>
     <t>Non Diegetic</t>
   </si>
@@ -163,12 +162,36 @@
   <si>
     <t>Subject 15</t>
   </si>
+  <si>
+    <t>Direct - Dodged Noob</t>
+  </si>
+  <si>
+    <t>Around - Dodged Noob</t>
+  </si>
+  <si>
+    <t>Direct - Dodged Exp</t>
+  </si>
+  <si>
+    <t>Around - Dodged Exp</t>
+  </si>
+  <si>
+    <t>Hit By Asteroids Noob</t>
+  </si>
+  <si>
+    <t>Hit By Asteroids Exp</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Noob</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +210,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -281,9 +297,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,6 +304,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -365,6 +380,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -512,17 +528,18 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-488080976"/>
-        <c:axId val="-488090768"/>
+        <c:axId val="2128662400"/>
+        <c:axId val="2128652608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-488080976"/>
+        <c:axId val="2128662400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -589,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-488090768"/>
+        <c:crossAx val="2128652608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -597,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-488090768"/>
+        <c:axId val="2128652608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,6 +665,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -708,7 +726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-488080976"/>
+        <c:crossAx val="2128662400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -797,6 +815,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -944,11 +963,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-488089136"/>
-        <c:axId val="-605444464"/>
+        <c:axId val="2128656416"/>
+        <c:axId val="2128660224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-488089136"/>
+        <c:axId val="2128656416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +1010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-605444464"/>
+        <c:crossAx val="2128660224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -999,7 +1018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-605444464"/>
+        <c:axId val="2128660224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1052,6 +1071,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1112,7 +1132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-488089136"/>
+        <c:crossAx val="2128656416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1201,7 +1221,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1349,11 +1368,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-319072160"/>
-        <c:axId val="-319073248"/>
+        <c:axId val="2128662944"/>
+        <c:axId val="2128663488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-319072160"/>
+        <c:axId val="2128662944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-319073248"/>
+        <c:crossAx val="2128663488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1404,7 +1423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-319073248"/>
+        <c:axId val="2128663488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-319072160"/>
+        <c:crossAx val="2128662944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1606,1388 +1625,6 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> vs NonVr waypoint times</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Location1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Waypoint Times'!$N$1:$X$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Waypoint Times'!$N$2:$X$2</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Waypoint Times'!$N$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$N$3:$X$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3636363636363633</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9545454545454546</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9444444444444446</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9473684210526314</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8421052631578947</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.1739130434782608</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Location2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Waypoint Times'!$N$1:$X$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Waypoint Times'!$N$2:$X$2</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Waypoint Times'!$N$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$N$4:$X$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0454545454545459</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.3888888888888893</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.7368421052631575</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8421052631578947</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.3684210526315788</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7391304347826084</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Location3</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Waypoint Times'!$N$1:$X$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Waypoint Times'!$N$2:$X$2</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Waypoint Times'!$N$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$N$5:$X$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5416666666666665</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7391304347826089</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1363636363636367</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8095238095238093</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.9230769230769229</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.2608695652173916</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Location4</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Waypoint Times'!$N$1:$X$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Waypoint Times'!$N$2:$X$2</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Waypoint Times'!$N$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$N$6:$X$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7.0476190476190474</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.041666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7826086956521738</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2272727272727275</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3636363636363633</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.1538461538461542</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Location5</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Waypoint Times'!$N$1:$X$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Waypoint Times'!$N$2:$X$2</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Waypoint Times'!$N$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$N$7:$X$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7.9047619047619051</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3043478260869561</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3478260869565215</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.045454545454545</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1363636363636367</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4782608695652177</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0952380952380949</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Location6</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Waypoint Times'!$N$1:$X$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Waypoint Times'!$N$2:$X$2</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Waypoint Times'!$N$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$N$8:$X$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7.5238095238095237</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8695652173913047</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2727272727272725</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7727272727272725</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0434782608695645</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.1904761904761907</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.88</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.7272727272727275</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>Location7</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Waypoint Times'!$N$1:$X$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Waypoint Times'!$N$2:$X$2</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Waypoint Times'!$N$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$N$9:$X$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7.1904761904761907</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0555555555555554</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.7391304347826084</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.5217391304347823</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5217391304347823</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.6086956521739131</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.958333333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5909090909090908</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.6470588235294121</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6363636363636367</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Location8</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Waypoint Times'!$N$1:$X$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Waypoint Times'!$N$2:$X$2</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Waypoint Times'!$N$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$N$10:$X$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.1428571428571432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.6111111111111107</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7826086956521738</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3478260869565215</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0869565217391308</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4347826086956523</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.1818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7058823529411766</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.3181818181818183</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>Location9</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Waypoint Times'!$N$1:$X$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Waypoint Times'!$N$2:$X$2</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Waypoint Times'!$N$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$N$11:$X$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.0454545454545459</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.1578947368421053</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.5238095238095237</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5652173913043477</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.7826086956521738</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5882352941176467</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>Location10</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Waypoint Times'!$N$1:$X$2</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Waypoint Times'!$N$2:$X$2</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Waypoint Times'!$N$2:$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Diegetic</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Meta </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Spatial </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>No Interface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$N$12:$X$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.5909090909090908</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5263157894736841</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.5714285714285712</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0434782608695654</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.3478260869565215</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.6470588235294121</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>6.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-319068896"/>
-        <c:axId val="-319067264"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-319068896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-319067264"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-319067264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-319068896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Vr</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
               <a:t> vs NonVr waypoint times </a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
@@ -3032,123 +1669,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Waypoint Times'!$N$1:$N$2</c:f>
+              <c:f>'Waypoint Times'!$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Virtual Reality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Non Diegetic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Location 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Location 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Location 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Location 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Location 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Location 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Location 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Location 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Location 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$N$3:$N$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0476190476190474</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9047619047619051</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.5238095238095237</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.1904761904761907</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1428571428571432</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0454545454545459</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5909090909090908</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$O$1:$O$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Virtual Reality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3164,78 +1693,88 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Location 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Location 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Location 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Location 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Location 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Location 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Location 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Location 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Location 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Waypoint Times'!$N$1:$X$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Waypoint Times'!$O$3:$O$12</c:f>
+              <c:f>'Waypoint Times'!$N$3:$X$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.3636363636363633</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0454545454545459</c:v>
+                  <c:v>3.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.875</c:v>
+                  <c:v>3.5416666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.041666666666667</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3043478260869561</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>3.7391304347826089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0555555555555554</c:v>
+                  <c:v>4.1363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6111111111111107</c:v>
+                  <c:v>4.8095238095238093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1578947368421053</c:v>
+                  <c:v>3.9230769230769229</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5263157894736841</c:v>
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2608695652173916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3243,17 +1782,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Waypoint Times'!$P$1:$P$2</c:f>
+              <c:f>'Waypoint Times'!$M$4</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Virtual Reality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Meta </c:v>
+                  <c:v>Location 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3269,78 +1805,88 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Location 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Location 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Location 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Location 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Location 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Location 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Location 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Location 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Location 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Waypoint Times'!$N$1:$X$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Waypoint Times'!$P$3:$P$12</c:f>
+              <c:f>'Waypoint Times'!$N$4:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.9545454545454546</c:v>
+                  <c:v>7.9047619047619051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>7.3043478260869561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5416666666666665</c:v>
+                  <c:v>7.3478260869565215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.125</c:v>
+                  <c:v>8.045454545454545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3478260869565215</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.8695652173913047</c:v>
+                  <c:v>7.1363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7391304347826084</c:v>
+                  <c:v>7.4782608695652177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7826086956521738</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1818181818181817</c:v>
+                  <c:v>7.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5</c:v>
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0952380952380949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3348,17 +1894,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Waypoint Times'!$Q$1:$Q$2</c:f>
+              <c:f>'Waypoint Times'!$M$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Virtual Reality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spatial </c:v>
+                  <c:v>Location 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3374,78 +1917,88 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Location 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Location 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Location 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Location 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Location 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Location 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Location 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Location 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Location 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Waypoint Times'!$N$1:$X$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Waypoint Times'!$Q$3:$Q$12</c:f>
+              <c:f>'Waypoint Times'!$N$5:$X$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.0625</c:v>
+                  <c:v>7.1904761904761907</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.75</c:v>
+                  <c:v>7.0555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.85</c:v>
+                  <c:v>6.7391304347826084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2</c:v>
+                  <c:v>6.5217391304347823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.045454545454545</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2727272727272725</c:v>
+                  <c:v>6.5217391304347823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5217391304347823</c:v>
+                  <c:v>7.6086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3478260869565215</c:v>
+                  <c:v>6.958333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5238095238095237</c:v>
+                  <c:v>6.5909090909090908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5714285714285712</c:v>
+                  <c:v>7.6470588235294121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6363636363636367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3453,17 +2006,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Waypoint Times'!$R$1:$R$2</c:f>
+              <c:f>'Waypoint Times'!$M$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Virtual Reality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>No Interface</c:v>
+                  <c:v>Location 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3479,78 +2029,88 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Location 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Location 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Location 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Location 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Location 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Location 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Location 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Location 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Location 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Waypoint Times'!$N$1:$X$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Waypoint Times'!$R$3:$R$12</c:f>
+              <c:f>'Waypoint Times'!$N$6:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6.0454545454545459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>7.1578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7391304347826089</c:v>
+                  <c:v>5.1818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7826086956521738</c:v>
+                  <c:v>6.5238095238095237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1363636363636367</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.7727272727272725</c:v>
+                  <c:v>5.5652173913043477</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5217391304347823</c:v>
+                  <c:v>4.7826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0869565217391308</c:v>
+                  <c:v>5.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5652173913043477</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0434782608695654</c:v>
+                  <c:v>5.5882352941176467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3558,17 +2118,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Waypoint Times'!$S$1:$S$2</c:f>
+              <c:f>'Waypoint Times'!$M$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Virtual Reality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>No Interface</c:v>
+                  <c:v>Location 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3584,66 +2141,103 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Location 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Location 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Location 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Location 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Location 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Location 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Location 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Location 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Location 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Waypoint Times'!$N$1:$X$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Waypoint Times'!$S$3:$S$12</c:f>
+              <c:f>'Waypoint Times'!$N$7:$X$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.6956521739130439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7894736842105265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0952380952380949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8095238095238093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4347826086956523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7826086956521738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5652173913043477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7777777777777777</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Waypoint Times'!$T$1:$T$2</c:f>
+              <c:f>'Waypoint Times'!$M$8</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Non Virtual Reality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Non Diegetic</c:v>
+                  <c:v>Location 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3661,78 +2255,88 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Location 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Location 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Location 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Location 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Location 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Location 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Location 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Location 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Location 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Waypoint Times'!$N$1:$X$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Waypoint Times'!$T$3:$T$12</c:f>
+              <c:f>'Waypoint Times'!$N$8:$X$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.9444444444444446</c:v>
+                  <c:v>7.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3888888888888893</c:v>
+                  <c:v>8.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1363636363636367</c:v>
+                  <c:v>7.3181818181818183</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2272727272727275</c:v>
+                  <c:v>7.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4782608695652177</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0434782608695645</c:v>
+                  <c:v>7.9130434782608692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6086956521739131</c:v>
+                  <c:v>7.3636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4347826086956523</c:v>
+                  <c:v>7.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7826086956521738</c:v>
+                  <c:v>7.0952380952380949</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3478260869565215</c:v>
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6315789473684212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,17 +2344,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Waypoint Times'!$U$1:$U$2</c:f>
+              <c:f>'Waypoint Times'!$M$9</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Non Virtual Reality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Diegetic</c:v>
+                  <c:v>Location 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3768,78 +2369,88 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Location 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Location 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Location 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Location 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Location 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Location 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Location 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Location 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Location 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Waypoint Times'!$N$1:$X$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Waypoint Times'!$U$3:$U$12</c:f>
+              <c:f>'Waypoint Times'!$N$9:$X$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.9473684210526314</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7368421052631575</c:v>
+                  <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8095238095238093</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3636363636363633</c:v>
+                  <c:v>7.6842105263157894</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1904761904761907</c:v>
+                  <c:v>7.2380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.958333333333333</c:v>
+                  <c:v>7.6111111111111107</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.916666666666667</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.12</c:v>
+                  <c:v>7.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>7.2608695652173916</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3847,17 +2458,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Waypoint Times'!$V$1:$V$2</c:f>
+              <c:f>'Waypoint Times'!$M$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Non Virtual Reality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Meta </c:v>
+                  <c:v>Location 8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3875,78 +2483,88 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Location 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Location 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Location 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Location 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Location 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Location 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Location 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Location 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Location 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Waypoint Times'!$N$1:$X$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Waypoint Times'!$V$3:$V$12</c:f>
+              <c:f>'Waypoint Times'!$N$10:$X$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.8421052631578947</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8421052631578947</c:v>
+                  <c:v>6.7727272727272725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9230769230769229</c:v>
+                  <c:v>6.1818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1538461538461542</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.88</c:v>
+                  <c:v>5.882352941176471</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5909090909090908</c:v>
+                  <c:v>5.8235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1818181818181817</c:v>
+                  <c:v>6.6842105263157894</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8</c:v>
+                  <c:v>6.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.35</c:v>
+                  <c:v>6.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3954,17 +2572,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Waypoint Times'!$W$1:$W$2</c:f>
+              <c:f>'Waypoint Times'!$M$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Non Virtual Reality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Spatial </c:v>
+                  <c:v>Location 9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3982,105 +2597,110 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Location 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Location 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Location 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Location 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Location 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Location 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Location 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Location 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Location 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'Waypoint Times'!$N$1:$X$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Waypoint Times'!$W$3:$W$12</c:f>
+              <c:f>'Waypoint Times'!$N$11:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.333333333333333</c:v>
+                  <c:v>7.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3684210526315788</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8.0588235294117645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6</c:v>
+                  <c:v>7.3888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6470588235294121</c:v>
+                  <c:v>6.9444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7058823529411766</c:v>
+                  <c:v>7.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5882352941176467</c:v>
+                  <c:v>6.9473684210526319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6470588235294121</c:v>
+                  <c:v>7.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:idx val="0"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Waypoint Times'!$X$1:$X$2</c:f>
+              <c:f>'Waypoint Times'!$M$12</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Non Virtual Reality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>No Interface</c:v>
+                  <c:v>Location 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4088,79 +2708,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Waypoint Times'!$M$3:$M$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$N$12:$X$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Location 1</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Location 2</c:v>
+                  <c:v>4.3636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Location 3</c:v>
+                  <c:v>3.9545454545454546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Location 4</c:v>
+                  <c:v>5.0625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Location 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Location 6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Location 7</c:v>
+                  <c:v>5.9444444444444446</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Location 8</c:v>
+                  <c:v>3.9473684210526314</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Location 9</c:v>
+                  <c:v>3.8421052631578947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Location 10</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Waypoint Times'!$X$3:$X$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
+                <c:pt idx="10">
                   <c:v>4.1739130434782608</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7391304347826084</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2608695652173916</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0952380952380949</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.7272727272727275</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6363636363636367</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3181818181818183</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.35</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,11 +2758,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-315393776"/>
-        <c:axId val="-315397584"/>
+        <c:axId val="136853072"/>
+        <c:axId val="136861232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-315393776"/>
+        <c:axId val="136853072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4223,7 +2805,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-315397584"/>
+        <c:crossAx val="136861232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4231,7 +2813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-315397584"/>
+        <c:axId val="136861232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4343,7 +2925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-315393776"/>
+        <c:crossAx val="136853072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4358,7 +2940,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="5"/>
+        <c:idx val="4"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout/>
@@ -4423,7 +3005,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4468,6 +3050,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4615,11 +3198,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-319066720"/>
-        <c:axId val="-319070528"/>
+        <c:axId val="136856336"/>
+        <c:axId val="136861776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-319066720"/>
+        <c:axId val="136856336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4662,7 +3245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-319070528"/>
+        <c:crossAx val="136861776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4670,7 +3253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-319070528"/>
+        <c:axId val="136861776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4721,6 +3304,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4781,7 +3365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-319066720"/>
+        <c:crossAx val="136856336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4825,7 +3409,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5140,11 +3724,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-319076512"/>
-        <c:axId val="-319069984"/>
+        <c:axId val="136855248"/>
+        <c:axId val="136849264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-319076512"/>
+        <c:axId val="136855248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,7 +3771,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-319069984"/>
+        <c:crossAx val="136849264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5195,7 +3779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-319069984"/>
+        <c:axId val="136849264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5315,7 +3899,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-319076512"/>
+        <c:crossAx val="136855248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5630,46 +4214,6 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8727,509 +7271,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -9267,7 +7308,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9278,7 +7319,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9286,17 +7327,6 @@
 </file>
 
 <file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -9392,7 +7422,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302238" cy="6083710"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9419,7 +7449,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309919" cy="6083710"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -9443,33 +7473,6 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301370" cy="6071152"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -9786,7 +7789,7 @@
   <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9812,35 +7815,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="N1" s="22" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="N1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="T1" s="22" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="T1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -10137,6 +8140,7 @@
       <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -10172,6 +8176,21 @@
       <c r="L7" s="5">
         <v>483</v>
       </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="T7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -10207,6 +8226,36 @@
       <c r="L8" s="5">
         <v>118</v>
       </c>
+      <c r="N8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -10243,6 +8292,49 @@
       <c r="L9" s="1">
         <v>80</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9">
+        <f>AVERAGE(B12,B20,B28,B52)</f>
+        <v>111</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:S9" si="7">AVERAGE(C12,C20,C28,C52)</f>
+        <v>114</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="7"/>
+        <v>113.25</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>114.5</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T10" si="8">AVERAGE(H12,H20,H28,H52)</f>
+        <v>111.75</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9:U10" si="9">AVERAGE(I12,I20,I28,I52)</f>
+        <v>109.5</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ref="V9:V10" si="10">AVERAGE(J12,J20,J28,J52)</f>
+        <v>114</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ref="W9:X9" si="11">AVERAGE(K12,K20,K28,K52)</f>
+        <v>117.25</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="11"/>
+        <v>113.5</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -10279,6 +8371,49 @@
       <c r="L10" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10">
+        <f>AVERAGE(B13,B21,B29,B53)</f>
+        <v>50</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10:S10" si="12">AVERAGE(C13,C21,C29,C53)</f>
+        <v>54.5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="12"/>
+        <v>55.5</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="12"/>
+        <v>59</v>
+      </c>
+      <c r="R10">
+        <f>AVERAGE(F13,F21,F29,F53)</f>
+        <v>53.25</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>51.5</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>51.5</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ref="W10:X10" si="13">AVERAGE(K13,K21,K29,K53)</f>
+        <v>52.75</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="13"/>
+        <v>48.75</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -10349,6 +8484,50 @@
       <c r="L12" s="5">
         <v>108</v>
       </c>
+      <c r="M12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="12">
+        <f>AVERAGE(B4,B8,B16,B24,B32,B36,B40,B44,B48,B56,B60)</f>
+        <v>113.18181818181819</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" ref="O12:X12" si="14">AVERAGE(C4,C8,C16,C24,C32,C36,C40,C44,C48,C56,C60)</f>
+        <v>112.63636363636364</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" si="14"/>
+        <v>114</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="14"/>
+        <v>114.54545454545455</v>
+      </c>
+      <c r="R12" s="12">
+        <f t="shared" si="14"/>
+        <v>112</v>
+      </c>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12">
+        <f t="shared" si="14"/>
+        <v>112.27272727272727</v>
+      </c>
+      <c r="U12" s="12">
+        <f t="shared" si="14"/>
+        <v>114.90909090909091</v>
+      </c>
+      <c r="V12" s="12">
+        <f t="shared" si="14"/>
+        <v>111.54545454545455</v>
+      </c>
+      <c r="W12" s="12">
+        <f t="shared" si="14"/>
+        <v>115.63636363636364</v>
+      </c>
+      <c r="X12" s="12">
+        <f t="shared" si="14"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -10384,6 +8563,50 @@
       </c>
       <c r="L13" s="1">
         <v>40</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="12">
+        <f>AVERAGE(B5,B9,B17,B25,B33,B37,B41,B45,B49,B57,B61)</f>
+        <v>46.18181818181818</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" ref="O13:X13" si="15">AVERAGE(C5,C9,C17,C25,C33,C37,C41,C45,C49,C57,C61)</f>
+        <v>46.18181818181818</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" si="15"/>
+        <v>46.636363636363633</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="15"/>
+        <v>44.81818181818182</v>
+      </c>
+      <c r="R13" s="12">
+        <f t="shared" si="15"/>
+        <v>46.545454545454547</v>
+      </c>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12">
+        <f t="shared" si="15"/>
+        <v>46.909090909090907</v>
+      </c>
+      <c r="U13" s="12">
+        <f t="shared" si="15"/>
+        <v>46.272727272727273</v>
+      </c>
+      <c r="V13" s="12">
+        <f t="shared" si="15"/>
+        <v>56.272727272727273</v>
+      </c>
+      <c r="W13" s="12">
+        <f t="shared" si="15"/>
+        <v>44.545454545454547</v>
+      </c>
+      <c r="X13" s="12">
+        <f t="shared" si="15"/>
+        <v>48.727272727272727</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -12114,11 +10337,13 @@
       <c r="T65" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="T1:X1"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="T7:X7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12129,8 +10354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:X3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X10" sqref="N8:X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12141,7 +10366,7 @@
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" customWidth="1"/>
@@ -12149,35 +10374,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="N1" s="22" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="N1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="T1" s="22" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="T1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -12288,40 +10513,40 @@
         <v>7.4</v>
       </c>
       <c r="O3" s="12">
-        <f t="shared" ref="O3:X3" si="0">AVERAGE(C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31)</f>
+        <f>AVERAGE(C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31)</f>
         <v>6.5333333333333332</v>
       </c>
       <c r="P3" s="12">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D3,D5,D7,D9,D11,D13,D15,D17,D19,D21,D23,D25,D27,D29,D31)</f>
         <v>6.333333333333333</v>
       </c>
       <c r="Q3" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O3:X3" si="0">AVERAGE(E3,E5,E7,E9,E11,E13,E15,E17,E19,E21,E23,E25,E27,E29,E31)</f>
         <v>4.2666666666666666</v>
       </c>
       <c r="R3" s="12">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F3,F5,F7,F9,F11,F13,F15,F17,F19,F21,F23,F25,F27,F29,F31)</f>
         <v>5.9333333333333336</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H3,H5,H7,H9,H11,H13,H15,H17,H19,H21,H23,H25,H27,H29,H31)</f>
         <v>5.7333333333333334</v>
       </c>
       <c r="U3" s="12">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I3,I5,I7,I9,I11,I13,I15,I17,I19,I21,I23,I25,I27,I29,I31)</f>
         <v>5.2666666666666666</v>
       </c>
       <c r="V3" s="12">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J3,J5,J7,J9,J11,J13,J15,J17,J19,J21,J23,J25,J27,J29,J31)</f>
         <v>6.2</v>
       </c>
       <c r="W3" s="12">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K3,K5,K7,K9,K11,K13,K15,K17,K19,K21,K23,K25,K27,K29,K31)</f>
         <v>3.8</v>
       </c>
       <c r="X3" s="12">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L3,L5,L7,L9,L11,L13,L15,L17,L19,L21,L23,L25,L27,L29,L31)</f>
         <v>5.2666666666666666</v>
       </c>
     </row>
@@ -12432,6 +10657,20 @@
       <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="N6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="T6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -12468,6 +10707,36 @@
       <c r="L7" s="1">
         <v>7</v>
       </c>
+      <c r="N7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -12504,6 +10773,50 @@
       <c r="L8" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="M8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="12">
+        <f>AVERAGE(B7,B11,B15,B27)</f>
+        <v>8</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" ref="O8:X8" si="1">AVERAGE(C7,C11,C15,C27)</f>
+        <v>6.75</v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="R8" s="12">
+        <f t="shared" si="1"/>
+        <v>7.25</v>
+      </c>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12">
+        <f t="shared" si="1"/>
+        <v>8.25</v>
+      </c>
+      <c r="U8" s="12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V8" s="12">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="W8" s="12">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="X8" s="12">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -12540,6 +10853,17 @@
       <c r="L9" s="1">
         <v>7</v>
       </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -12576,6 +10900,50 @@
       <c r="L10" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="12">
+        <f>AVERAGE(B3,B5,B9,B13,B17,B19,B21,B23,B25,B29,B31)</f>
+        <v>7.1818181818181817</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" ref="O10:X10" si="2">AVERAGE(C3,C5,C9,C13,C17,C19,C21,C23,C25,C29,C31)</f>
+        <v>6.4545454545454541</v>
+      </c>
+      <c r="P10" s="12">
+        <f t="shared" si="2"/>
+        <v>6.0909090909090908</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="2"/>
+        <v>4.1818181818181817</v>
+      </c>
+      <c r="R10" s="12">
+        <f t="shared" si="2"/>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12">
+        <f t="shared" si="2"/>
+        <v>4.8181818181818183</v>
+      </c>
+      <c r="U10" s="12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V10" s="12">
+        <f t="shared" si="2"/>
+        <v>6.1818181818181817</v>
+      </c>
+      <c r="W10" s="12">
+        <f t="shared" si="2"/>
+        <v>3.0909090909090908</v>
+      </c>
+      <c r="X10" s="12">
+        <f t="shared" si="2"/>
+        <v>5.0909090909090908</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -13334,11 +11702,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="T1:X1"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="T6:X6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13349,8 +11719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X331"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V58" sqref="V58"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34:S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13374,36 +11744,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="N1" s="22" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="N1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -13474,7 +11844,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8">
         <v>10</v>
@@ -13510,46 +11880,46 @@
       <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="17">
-        <f>AVERAGE(B3,B4,B25,B26,B47,B48,B69,B70,B91,B92,B113,B114,B135,B136,B157,B158,B179,B180,B201,B202,B223,B224,B245,B246,B267,B268,B289,B290,B311,B312)</f>
-        <v>4.25</v>
-      </c>
-      <c r="O3" s="17">
-        <f>AVERAGE(C3,C4,C25,C26,C47,C48,C69,C70,C91,C92,C113,C114,C135,C136,C157,C158,C179,C180,C201,C202,C223,C224,C245,C246,C267,C268,C289,C290,C311,C312)</f>
-        <v>4.3636363636363633</v>
-      </c>
-      <c r="P3" s="17">
-        <f t="shared" ref="P3:R12" si="0">AVERAGE(D3,D4,D25,D26,D47,D48,D69,D70,D91,D92,D113,D114,D135,D136,D157,D158,D179,D180,D201,D202,D223,D224,D245,D246,D267,D268,D289,D290,D311,D312)</f>
-        <v>3.9545454545454546</v>
-      </c>
-      <c r="Q3" s="17">
+      <c r="N3" s="21">
+        <f>AVERAGE(B5,B6,B27,B28,B49,B50,B71,B72,B93,B94,B115,B116,B137,B138,B159,B160,B181,B182,B203,B204,B225,B226,B247,B248,B269,B270,B291,B292,B313,B314)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="O3" s="21">
+        <f t="shared" ref="O3:X3" si="0">AVERAGE(C5,C6,C27,C28,C49,C50,C71,C72,C93,C94,C115,C116,C137,C138,C159,C160,C181,C182,C203,C204,C225,C226,C247,C248,C269,C270,C291,C292,C313,C314)</f>
+        <v>3.875</v>
+      </c>
+      <c r="P3" s="21">
         <f t="shared" si="0"/>
-        <v>5.0625</v>
-      </c>
-      <c r="R3" s="17">
+        <v>3.5416666666666665</v>
+      </c>
+      <c r="Q3" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17">
-        <f t="shared" ref="T3:T12" si="1">AVERAGE(H3,H4,H25,H26,H47,H48,H69,H70,H91,H92,H113,H114,H135,H136,H157,H158,H179,H180,H201,H202,H223,H224,H245,H246,H267,H268,H289,H290,H311,H312)</f>
-        <v>5.9444444444444446</v>
-      </c>
-      <c r="U3" s="17">
-        <f t="shared" ref="U3:U12" si="2">AVERAGE(I3,I4,I25,I26,I47,I48,I69,I70,I91,I92,I113,I114,I135,I136,I157,I158,I179,I180,I201,I202,I223,I224,I245,I246,I267,I268,I289,I290,I311,I312)</f>
-        <v>3.9473684210526314</v>
-      </c>
-      <c r="V3" s="17">
-        <f t="shared" ref="V3:V12" si="3">AVERAGE(J3,J4,J25,J26,J47,J48,J69,J70,J91,J92,J113,J114,J135,J136,J157,J158,J179,J180,J201,J202,J223,J224,J245,J246,J267,J268,J289,J290,J311,J312)</f>
-        <v>3.8421052631578947</v>
-      </c>
-      <c r="W3" s="20">
-        <f t="shared" ref="W3:W12" si="4">AVERAGE(K3,K4,K25,K26,K47,K48,K69,K70,K91,K92,K113,K114,K135,K136,K157,K158,K179,K180,K201,K202,K223,K224,K245,K246,K267,K268,K289,K290,K311,K312)</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="X3" s="17">
-        <f t="shared" ref="X3:X12" si="5">AVERAGE(L3,L4,L25,L26,L47,L48,L69,L70,L91,L92,L113,L114,L135,L136,L157,L158,L179,L180,L201,L202,L223,L224,L245,L246,L267,L268,L289,L290,L311,L312)</f>
-        <v>4.1739130434782608</v>
+        <v>3.85</v>
+      </c>
+      <c r="R3" s="21">
+        <f t="shared" si="0"/>
+        <v>3.7391304347826089</v>
+      </c>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21">
+        <f>AVERAGE(H5,H6,H27,H28,H49,H50,H71,H72,H93,H94,H115,H116,H137,H138,H159,H160,H181,H182,H203,H204,H225,H226,H247,H248,H269,H270,H291,H292,H313,H314)</f>
+        <v>4.1363636363636367</v>
+      </c>
+      <c r="U3" s="21">
+        <f t="shared" si="0"/>
+        <v>4.8095238095238093</v>
+      </c>
+      <c r="V3" s="21">
+        <f t="shared" si="0"/>
+        <v>3.9230769230769229</v>
+      </c>
+      <c r="W3" s="21">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="X3" s="21">
+        <f t="shared" si="0"/>
+        <v>5.2608695652173916</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -13573,50 +11943,50 @@
         <v>26</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N12" si="6">AVERAGE(B4,B5,B26,B27,B48,B49,B70,B71,B92,B93,B114,B115,B136,B137,B158,B159,B180,B181,B202,B203,B224,B225,B246,B247,B268,B269,B290,B291,B312,B313)</f>
-        <v>3.55</v>
+        <f>AVERAGE(B29,B30,B7,B8,B51,B52,B73,B74,B95,B96,B117,B118,B140,B139,B162,B161,B183,B184,B205,B206,B227,B228,B249,B250,B271,B272,B293,B294,B315,B316)</f>
+        <v>7.9047619047619051</v>
       </c>
       <c r="O4" s="17">
-        <f t="shared" ref="O4:O12" si="7">AVERAGE(C4,C5,C26,C27,C48,C49,C70,C71,C92,C93,C114,C115,C136,C137,C158,C159,C180,C181,C202,C203,C224,C225,C246,C247,C268,C269,C290,C291,C312,C313)</f>
-        <v>4.0454545454545459</v>
+        <f t="shared" ref="O4:X4" si="1">AVERAGE(C29,C30,C7,C8,C51,C52,C73,C74,C95,C96,C117,C118,C140,C139,C162,C161,C183,C184,C205,C206,C227,C228,C249,C250,C271,C272,C293,C294,C315,C316)</f>
+        <v>7.3043478260869561</v>
       </c>
       <c r="P4" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
+        <f t="shared" si="1"/>
+        <v>7.3478260869565215</v>
       </c>
       <c r="Q4" s="17">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
+        <f t="shared" si="1"/>
+        <v>8.045454545454545</v>
       </c>
       <c r="R4" s="17">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="S4" s="18"/>
+        <f t="shared" si="1"/>
+        <v>7.1363636363636367</v>
+      </c>
+      <c r="S4" s="17"/>
       <c r="T4" s="17">
         <f t="shared" si="1"/>
-        <v>4.3888888888888893</v>
+        <v>7.4782608695652177</v>
       </c>
       <c r="U4" s="17">
-        <f t="shared" si="2"/>
-        <v>4.7368421052631575</v>
+        <f t="shared" si="1"/>
+        <v>7.333333333333333</v>
       </c>
       <c r="V4" s="17">
-        <f t="shared" si="3"/>
-        <v>3.8421052631578947</v>
+        <f t="shared" si="1"/>
+        <v>7.72</v>
       </c>
       <c r="W4" s="17">
-        <f t="shared" si="4"/>
-        <v>6.3684210526315788</v>
+        <f t="shared" si="1"/>
+        <v>7.2</v>
       </c>
       <c r="X4" s="17">
-        <f t="shared" si="5"/>
-        <v>4.7391304347826084</v>
+        <f t="shared" si="1"/>
+        <v>7.0952380952380949</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="10">
         <v>3</v>
@@ -13653,45 +12023,45 @@
         <v>27</v>
       </c>
       <c r="N5" s="17">
-        <f t="shared" si="6"/>
-        <v>3.6666666666666665</v>
+        <f>AVERAGE(B9,B10,B31,B32,B53,B54,B75,B76,B97,B98,B119,B120,B141,B142,B163,B164,B185,B186,B207,B208,B229,B230,B251,B252,B273,B274,B295,B296,B317,B318)</f>
+        <v>7.1904761904761907</v>
       </c>
       <c r="O5" s="17">
-        <f t="shared" si="7"/>
-        <v>3.875</v>
+        <f t="shared" ref="O5:X5" si="2">AVERAGE(C9,C10,C31,C32,C53,C54,C75,C76,C97,C98,C119,C120,C141,C142,C163,C164,C185,C186,C207,C208,C229,C230,C251,C252,C273,C274,C295,C296,C317,C318)</f>
+        <v>7.0555555555555554</v>
       </c>
       <c r="P5" s="17">
-        <f t="shared" si="0"/>
-        <v>3.5416666666666665</v>
+        <f t="shared" si="2"/>
+        <v>6.7391304347826084</v>
       </c>
       <c r="Q5" s="17">
-        <f t="shared" si="0"/>
-        <v>3.85</v>
+        <f t="shared" si="2"/>
+        <v>6.5217391304347823</v>
       </c>
       <c r="R5" s="17">
-        <f t="shared" si="0"/>
-        <v>3.7391304347826089</v>
-      </c>
-      <c r="S5" s="18"/>
+        <f t="shared" si="2"/>
+        <v>6.5217391304347823</v>
+      </c>
+      <c r="S5" s="17"/>
       <c r="T5" s="17">
-        <f t="shared" si="1"/>
-        <v>4.1363636363636367</v>
+        <f t="shared" si="2"/>
+        <v>7.6086956521739131</v>
       </c>
       <c r="U5" s="17">
         <f t="shared" si="2"/>
-        <v>4.8095238095238093</v>
+        <v>6.958333333333333</v>
       </c>
       <c r="V5" s="17">
-        <f t="shared" si="3"/>
-        <v>3.9230769230769229</v>
+        <f t="shared" si="2"/>
+        <v>6.5909090909090908</v>
       </c>
       <c r="W5" s="17">
-        <f t="shared" si="4"/>
-        <v>6.7</v>
+        <f t="shared" si="2"/>
+        <v>7.6470588235294121</v>
       </c>
       <c r="X5" s="17">
-        <f t="shared" si="5"/>
-        <v>5.2608695652173916</v>
+        <f t="shared" si="2"/>
+        <v>6.6363636363636367</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -13719,50 +12089,50 @@
         <v>28</v>
       </c>
       <c r="N6" s="17">
-        <f t="shared" si="6"/>
-        <v>7.0476190476190474</v>
+        <f>AVERAGE(B11,B12,B33,B34,B55,B56,B77,B78,B99,B100,B121,B122,B143,B144,B165,B166,B187,B188,B209,B210,B231,B232,B253,B254,B275,B276,B297,B298,B319,B320)</f>
+        <v>6.0454545454545459</v>
       </c>
       <c r="O6" s="17">
-        <f t="shared" si="7"/>
-        <v>6.041666666666667</v>
+        <f t="shared" ref="O6:X6" si="3">AVERAGE(C11,C12,C33,C34,C55,C56,C77,C78,C99,C100,C121,C122,C143,C144,C165,C166,C187,C188,C209,C210,C231,C232,C253,C254,C275,C276,C297,C298,C319,C320)</f>
+        <v>7.1578947368421053</v>
       </c>
       <c r="P6" s="17">
-        <f t="shared" si="0"/>
-        <v>6.125</v>
+        <f t="shared" si="3"/>
+        <v>5.1818181818181817</v>
       </c>
       <c r="Q6" s="17">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
+        <f t="shared" si="3"/>
+        <v>6.5238095238095237</v>
       </c>
       <c r="R6" s="17">
-        <f t="shared" si="0"/>
-        <v>5.7826086956521738</v>
-      </c>
-      <c r="S6" s="18"/>
+        <f t="shared" si="3"/>
+        <v>5.5652173913043477</v>
+      </c>
+      <c r="S6" s="17"/>
       <c r="T6" s="17">
-        <f t="shared" si="1"/>
-        <v>6.2272727272727275</v>
+        <f t="shared" si="3"/>
+        <v>4.7826086956521738</v>
       </c>
       <c r="U6" s="17">
-        <f t="shared" si="2"/>
-        <v>6.3636363636363633</v>
+        <f t="shared" si="3"/>
+        <v>5.12</v>
       </c>
       <c r="V6" s="17">
         <f t="shared" si="3"/>
-        <v>6.1538461538461542</v>
+        <v>5.8</v>
       </c>
       <c r="W6" s="17">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>5.5882352941176467</v>
       </c>
       <c r="X6" s="17">
-        <f t="shared" si="5"/>
-        <v>6.5</v>
+        <f t="shared" si="3"/>
+        <v>6.35</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10">
         <v>9</v>
@@ -13799,45 +12169,45 @@
         <v>29</v>
       </c>
       <c r="N7" s="17">
-        <f t="shared" si="6"/>
-        <v>7.9047619047619051</v>
+        <f>AVERAGE(B13,B14,B35,B36,B57,B58,B79,B80,B101,B102,B123,B124,B145,B146,B167,B168,B189,B190,B211,B212,B233,B234,B255,B256,B277,B278,B299,B300,B321,B322)</f>
+        <v>6.6956521739130439</v>
       </c>
       <c r="O7" s="17">
-        <f t="shared" si="7"/>
-        <v>7.3043478260869561</v>
+        <f t="shared" ref="O7:X7" si="4">AVERAGE(C13,C14,C35,C36,C57,C58,C79,C80,C101,C102,C123,C124,C145,C146,C167,C168,C189,C190,C211,C212,C233,C234,C255,C256,C277,C278,C299,C300,C321,C322)</f>
+        <v>6.7894736842105265</v>
       </c>
       <c r="P7" s="17">
-        <f t="shared" si="0"/>
-        <v>7.3478260869565215</v>
+        <f t="shared" si="4"/>
+        <v>7.0952380952380949</v>
       </c>
       <c r="Q7" s="17">
-        <f t="shared" si="0"/>
-        <v>8.045454545454545</v>
+        <f t="shared" si="4"/>
+        <v>6.8095238095238093</v>
       </c>
       <c r="R7" s="17">
-        <f t="shared" si="0"/>
-        <v>7.1363636363636367</v>
-      </c>
-      <c r="S7" s="18"/>
+        <f t="shared" si="4"/>
+        <v>6.4347826086956523</v>
+      </c>
+      <c r="S7" s="17"/>
       <c r="T7" s="17">
-        <f t="shared" si="1"/>
-        <v>7.4782608695652177</v>
+        <f t="shared" si="4"/>
+        <v>6.8571428571428568</v>
       </c>
       <c r="U7" s="17">
-        <f t="shared" si="2"/>
-        <v>7.333333333333333</v>
+        <f t="shared" si="4"/>
+        <v>6.7826086956521738</v>
       </c>
       <c r="V7" s="17">
-        <f t="shared" si="3"/>
-        <v>7.72</v>
+        <f t="shared" si="4"/>
+        <v>6.5652173913043477</v>
       </c>
       <c r="W7" s="17">
         <f t="shared" si="4"/>
-        <v>7.2</v>
+        <v>7.45</v>
       </c>
       <c r="X7" s="17">
-        <f t="shared" si="5"/>
-        <v>7.0952380952380949</v>
+        <f t="shared" si="4"/>
+        <v>6.7777777777777777</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -13863,50 +12233,50 @@
         <v>30</v>
       </c>
       <c r="N8" s="17">
-        <f t="shared" si="6"/>
-        <v>7.5238095238095237</v>
+        <f>AVERAGE(B15,B16,B37,B38,B59,B60,B81,B82,B103,B104,B125,B126,B147,B148,B169,B170,B191,B192,B213,B214,B235,B236,B257,B258,B279,B280,B301,B302,B323,B324)</f>
+        <v>7.2857142857142856</v>
       </c>
       <c r="O8" s="17">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" ref="O8:X8" si="5">AVERAGE(C15,C16,C37,C38,C59,C60,C81,C82,C103,C104,C125,C126,C147,C148,C169,C170,C191,C192,C213,C214,C235,C236,C257,C258,C279,C280,C301,C302,C323,C324)</f>
+        <v>8.125</v>
       </c>
       <c r="P8" s="17">
-        <f t="shared" si="0"/>
-        <v>6.8695652173913047</v>
+        <f t="shared" si="5"/>
+        <v>7.3181818181818183</v>
       </c>
       <c r="Q8" s="17">
-        <f t="shared" si="0"/>
-        <v>7.2727272727272725</v>
+        <f t="shared" si="5"/>
+        <v>7.35</v>
       </c>
       <c r="R8" s="17">
-        <f t="shared" si="0"/>
-        <v>6.7727272727272725</v>
-      </c>
-      <c r="S8" s="18"/>
+        <f t="shared" si="5"/>
+        <v>7.9130434782608692</v>
+      </c>
+      <c r="S8" s="17"/>
       <c r="T8" s="17">
-        <f t="shared" si="1"/>
-        <v>8.0434782608695645</v>
+        <f t="shared" si="5"/>
+        <v>7.3636363636363633</v>
       </c>
       <c r="U8" s="17">
-        <f t="shared" si="2"/>
-        <v>7.1904761904761907</v>
+        <f t="shared" si="5"/>
+        <v>7.2380952380952381</v>
       </c>
       <c r="V8" s="17">
-        <f t="shared" si="3"/>
-        <v>6.88</v>
+        <f t="shared" si="5"/>
+        <v>7.0952380952380949</v>
       </c>
       <c r="W8" s="17">
-        <f t="shared" si="4"/>
-        <v>7.6</v>
+        <f t="shared" si="5"/>
+        <v>7.8</v>
       </c>
       <c r="X8" s="17">
         <f t="shared" si="5"/>
-        <v>6.7272727272727275</v>
+        <v>7.6315789473684212</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="10">
         <v>5</v>
@@ -13943,45 +12313,45 @@
         <v>31</v>
       </c>
       <c r="N9" s="17">
+        <f>AVERAGE(B17,B18,B39,B40,B61,B62,B83,B84,B105,B106,B127,B128,B149,B150,B171,B172,B193,B194,B215,B216,B237,B238,B259,B260,B281,B282,B303,B304,B325,B326)</f>
+        <v>7.4</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="shared" ref="O9:X9" si="6">AVERAGE(C17,C18,C39,C40,C61,C62,C83,C84,C105,C106,C127,C128,C149,C150,C171,C172,C193,C194,C215,C216,C237,C238,C259,C260,C281,C282,C303,C304,C325,C326)</f>
+        <v>7.7</v>
+      </c>
+      <c r="P9" s="17">
         <f t="shared" si="6"/>
-        <v>7.1904761904761907</v>
-      </c>
-      <c r="O9" s="17">
-        <f t="shared" si="7"/>
-        <v>7.0555555555555554</v>
-      </c>
-      <c r="P9" s="17">
-        <f t="shared" si="0"/>
-        <v>6.7391304347826084</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="17">
-        <f t="shared" si="0"/>
-        <v>6.5217391304347823</v>
+        <f t="shared" si="6"/>
+        <v>7.6842105263157894</v>
       </c>
       <c r="R9" s="17">
-        <f t="shared" si="0"/>
-        <v>6.5217391304347823</v>
-      </c>
-      <c r="S9" s="18"/>
+        <f t="shared" si="6"/>
+        <v>7.2380952380952381</v>
+      </c>
+      <c r="S9" s="17"/>
       <c r="T9" s="17">
-        <f t="shared" si="1"/>
-        <v>7.6086956521739131</v>
+        <f t="shared" si="6"/>
+        <v>7.6111111111111107</v>
       </c>
       <c r="U9" s="17">
-        <f t="shared" si="2"/>
-        <v>6.958333333333333</v>
+        <f t="shared" si="6"/>
+        <v>7.5</v>
       </c>
       <c r="V9" s="17">
-        <f t="shared" si="3"/>
-        <v>6.5909090909090908</v>
+        <f t="shared" si="6"/>
+        <v>7.1428571428571432</v>
       </c>
       <c r="W9" s="17">
-        <f t="shared" si="4"/>
-        <v>7.6470588235294121</v>
+        <f t="shared" si="6"/>
+        <v>7.2608695652173916</v>
       </c>
       <c r="X9" s="17">
-        <f t="shared" si="5"/>
-        <v>6.6363636363636367</v>
+        <f t="shared" si="6"/>
+        <v>7.25</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -14007,50 +12377,50 @@
         <v>32</v>
       </c>
       <c r="N10" s="17">
-        <f t="shared" si="6"/>
-        <v>6.1428571428571432</v>
+        <f>AVERAGE(B19,B20,B41,B42,B63,B64,B85,B86,B107,B108,B129,B130,B151,B152,B173,B174,B195,B196,B217,B218,B239,B240,B261,B262,B283,B284,B305,B306,B327,B328)</f>
+        <v>6.1</v>
       </c>
       <c r="O10" s="17">
+        <f t="shared" ref="O10:X10" si="7">AVERAGE(C19,C20,C41,C42,C63,C64,C85,C86,C107,C108,C129,C130,C151,C152,C173,C174,C195,C196,C217,C218,C239,C240,C261,C262,C283,C284,C305,C306,C327,C328)</f>
+        <v>6.7727272727272725</v>
+      </c>
+      <c r="P10" s="17">
         <f t="shared" si="7"/>
-        <v>7.6111111111111107</v>
-      </c>
-      <c r="P10" s="17">
-        <f t="shared" si="0"/>
-        <v>5.7826086956521738</v>
+        <v>6.1818181818181817</v>
       </c>
       <c r="Q10" s="17">
-        <f t="shared" si="0"/>
-        <v>6.3478260869565215</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="R10" s="17">
-        <f t="shared" si="0"/>
-        <v>6.0869565217391308</v>
-      </c>
-      <c r="S10" s="18"/>
+        <f t="shared" si="7"/>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="S10" s="17"/>
       <c r="T10" s="17">
-        <f t="shared" si="1"/>
-        <v>5.4347826086956523</v>
+        <f t="shared" si="7"/>
+        <v>5.8235294117647056</v>
       </c>
       <c r="U10" s="17">
-        <f t="shared" si="2"/>
-        <v>5.916666666666667</v>
+        <f t="shared" si="7"/>
+        <v>6.6842105263157894</v>
       </c>
       <c r="V10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="W10" s="17">
+        <f t="shared" si="7"/>
+        <v>6.45</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" si="7"/>
         <v>6.1818181818181817</v>
-      </c>
-      <c r="W10" s="17">
-        <f t="shared" si="4"/>
-        <v>5.7058823529411766</v>
-      </c>
-      <c r="X10" s="17">
-        <f t="shared" si="5"/>
-        <v>6.3181818181818183</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="10">
         <v>15</v>
@@ -14087,45 +12457,45 @@
         <v>33</v>
       </c>
       <c r="N11" s="17">
-        <f t="shared" si="6"/>
-        <v>6.0454545454545459</v>
+        <f>AVERAGE(B21,B22,B43,B44,B65,B66,B87,B88,B109,B110,B131,B132,B153,B154,B175,B176,B197,B198,B219,B220,B241,B242,B263,B264,B285,B286,B307,B308,B329,B330)</f>
+        <v>7.85</v>
       </c>
       <c r="O11" s="17">
-        <f t="shared" si="7"/>
-        <v>7.1578947368421053</v>
+        <f t="shared" ref="O11:X11" si="8">AVERAGE(C21,C22,C43,C44,C65,C66,C87,C88,C109,C110,C131,C132,C153,C154,C175,C176,C197,C198,C219,C220,C241,C242,C263,C264,C285,C286,C307,C308,C329,C330)</f>
+        <v>8</v>
       </c>
       <c r="P11" s="17">
-        <f t="shared" si="0"/>
-        <v>5.1818181818181817</v>
+        <f t="shared" si="8"/>
+        <v>7.2</v>
       </c>
       <c r="Q11" s="17">
-        <f t="shared" si="0"/>
-        <v>6.5238095238095237</v>
+        <f t="shared" si="8"/>
+        <v>8.0588235294117645</v>
       </c>
       <c r="R11" s="17">
-        <f t="shared" si="0"/>
-        <v>5.5652173913043477</v>
-      </c>
-      <c r="S11" s="18"/>
+        <f t="shared" si="8"/>
+        <v>7.3888888888888893</v>
+      </c>
+      <c r="S11" s="17"/>
       <c r="T11" s="17">
-        <f t="shared" si="1"/>
-        <v>4.7826086956521738</v>
+        <f t="shared" si="8"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="U11" s="17">
-        <f t="shared" si="2"/>
-        <v>5.12</v>
+        <f t="shared" si="8"/>
+        <v>7.65</v>
       </c>
       <c r="V11" s="17">
-        <f t="shared" si="3"/>
-        <v>5.8</v>
+        <f t="shared" si="8"/>
+        <v>6.9473684210526319</v>
       </c>
       <c r="W11" s="17">
-        <f t="shared" si="4"/>
-        <v>5.5882352941176467</v>
+        <f t="shared" si="8"/>
+        <v>7.4444444444444446</v>
       </c>
       <c r="X11" s="17">
-        <f t="shared" si="5"/>
-        <v>6.35</v>
+        <f t="shared" si="8"/>
+        <v>7.1818181818181817</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -14151,50 +12521,50 @@
         <v>34</v>
       </c>
       <c r="N12" s="17">
-        <f t="shared" si="6"/>
-        <v>6.5909090909090908</v>
+        <f>AVERAGE(B3,B4,B25,B26,B47,B48,B69,B70,B91,B92,B113,B114,B135,B136,B157,B158,B179,B180,B201,B202,B223,B224,B245,B246,B267,B268,B289,B290,B311,B312)</f>
+        <v>4.25</v>
       </c>
       <c r="O12" s="17">
-        <f t="shared" si="7"/>
-        <v>6.5263157894736841</v>
+        <f t="shared" ref="O12:X12" si="9">AVERAGE(C3,C4,C25,C26,C47,C48,C69,C70,C91,C92,C113,C114,C135,C136,C157,C158,C179,C180,C201,C202,C223,C224,C245,C246,C267,C268,C289,C290,C311,C312)</f>
+        <v>4.3636363636363633</v>
       </c>
       <c r="P12" s="17">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
+        <f t="shared" si="9"/>
+        <v>3.9545454545454546</v>
       </c>
       <c r="Q12" s="17">
-        <f t="shared" si="0"/>
-        <v>6.5714285714285712</v>
+        <f t="shared" si="9"/>
+        <v>5.0625</v>
       </c>
       <c r="R12" s="17">
-        <f t="shared" si="0"/>
-        <v>6.0434782608695654</v>
-      </c>
-      <c r="S12" s="18"/>
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S12" s="17"/>
       <c r="T12" s="17">
-        <f t="shared" si="1"/>
-        <v>6.3478260869565215</v>
+        <f t="shared" si="9"/>
+        <v>5.9444444444444446</v>
       </c>
       <c r="U12" s="17">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>3.9473684210526314</v>
       </c>
       <c r="V12" s="17">
-        <f t="shared" si="3"/>
-        <v>6.35</v>
+        <f t="shared" si="9"/>
+        <v>3.8421052631578947</v>
       </c>
       <c r="W12" s="17">
-        <f t="shared" si="4"/>
-        <v>7.6470588235294121</v>
-      </c>
-      <c r="X12" s="19">
-        <f t="shared" si="5"/>
-        <v>6.8</v>
+        <f t="shared" si="9"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="9"/>
+        <v>4.1739130434782608</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="10">
         <v>10</v>
@@ -14235,40 +12605,40 @@
         <v>13.933333333333334</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" ref="O13:R13" si="8">AVERAGE(C23,C45,C67,C89,C111,C133,C155,C177,C199,C221,C243,C265,C287,C309,C331)</f>
+        <f t="shared" ref="O13:R13" si="10">AVERAGE(C23,C45,C67,C89,C111,C133,C155,C177,C199,C221,C243,C265,C287,C309,C331)</f>
         <v>13.6</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.666666666666666</v>
       </c>
       <c r="Q13" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.133333333333333</v>
       </c>
       <c r="R13" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="S13" s="12"/>
       <c r="T13" s="12">
-        <f t="shared" ref="T13" si="9">AVERAGE(H23,H45,H67,H89,H111,H133,H155,H177,H199,H221,H243,H265,H287,H309,H331)</f>
+        <f t="shared" ref="T13" si="11">AVERAGE(H23,H45,H67,H89,H111,H133,H155,H177,H199,H221,H243,H265,H287,H309,H331)</f>
         <v>13.666666666666666</v>
       </c>
       <c r="U13" s="12">
-        <f t="shared" ref="U13" si="10">AVERAGE(I23,I45,I67,I89,I111,I133,I155,I177,I199,I221,I243,I265,I287,I309,I331)</f>
+        <f t="shared" ref="U13" si="12">AVERAGE(I23,I45,I67,I89,I111,I133,I155,I177,I199,I221,I243,I265,I287,I309,I331)</f>
         <v>14.066666666666666</v>
       </c>
       <c r="V13" s="12">
-        <f t="shared" ref="V13" si="11">AVERAGE(J23,J45,J67,J89,J111,J133,J155,J177,J199,J221,J243,J265,J287,J309,J331)</f>
+        <f t="shared" ref="V13" si="13">AVERAGE(J23,J45,J67,J89,J111,J133,J155,J177,J199,J221,J243,J265,J287,J309,J331)</f>
         <v>14.466666666666667</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" ref="W13" si="12">AVERAGE(K23,K45,K67,K89,K111,K133,K155,K177,K199,K221,K243,K265,K287,K309,K331)</f>
+        <f t="shared" ref="W13" si="14">AVERAGE(K23,K45,K67,K89,K111,K133,K155,K177,K199,K221,K243,K265,K287,K309,K331)</f>
         <v>12.866666666666667</v>
       </c>
       <c r="X13" s="12">
-        <f t="shared" ref="X13" si="13">AVERAGE(L23,L45,L67,L89,L111,L133,L155,L177,L199,L221,L243,L265,L287,L309,L331)</f>
+        <f t="shared" ref="X13" si="15">AVERAGE(L23,L45,L67,L89,L111,L133,L155,L177,L199,L221,L243,L265,L287,L309,L331)</f>
         <v>14</v>
       </c>
     </row>
@@ -14294,7 +12664,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="10">
         <v>9</v>
@@ -14347,10 +12717,25 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
+      <c r="N16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="10">
         <v>8</v>
@@ -14383,8 +12768,42 @@
       <c r="L17" s="10">
         <v>7</v>
       </c>
+      <c r="M17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -14403,10 +12822,54 @@
       <c r="L18" s="1">
         <v>7</v>
       </c>
+      <c r="M18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="12">
+        <f>AVERAGE(B49,B50,B93,B94,B137,B138,B269,B270)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" ref="O18:X18" si="16">AVERAGE(C49,C50,C93,C94,C137,C138,C269,C270)</f>
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="P18" s="12">
+        <f t="shared" si="16"/>
+        <v>3.8571428571428572</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="16"/>
+        <v>3.8</v>
+      </c>
+      <c r="R18" s="12">
+        <f t="shared" si="16"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="U18" s="12">
+        <f t="shared" si="16"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="V18" s="12">
+        <f t="shared" si="16"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="W18" s="12">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="X18" s="12">
+        <f t="shared" si="16"/>
+        <v>5.333333333333333</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="10">
         <v>6</v>
@@ -14439,8 +12902,52 @@
       <c r="L19" s="10">
         <v>6</v>
       </c>
+      <c r="M19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="12">
+        <f>AVERAGE(B51,B52,B95,B96,B139,B140,B271,B272)</f>
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" ref="O19:X19" si="17">AVERAGE(C51,C52,C95,C96,C139,C140,C271,C272)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" si="17"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="17"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="R19" s="12">
+        <f t="shared" si="17"/>
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12">
+        <f t="shared" si="17"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="U19" s="12">
+        <f t="shared" si="17"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="V19" s="12">
+        <f t="shared" si="17"/>
+        <v>7.2</v>
+      </c>
+      <c r="W19" s="12">
+        <f t="shared" si="17"/>
+        <v>7.4</v>
+      </c>
+      <c r="X19" s="12">
+        <f t="shared" si="17"/>
+        <v>7.1428571428571432</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -14459,10 +12966,54 @@
       <c r="L20" s="1">
         <v>6</v>
       </c>
+      <c r="M20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="12">
+        <f>AVERAGE(B53,B54,B97,B98,B141,B142,B273,B274)</f>
+        <v>6.1428571428571432</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" ref="O20:X20" si="18">AVERAGE(C53,C54,C97,C98,C141,C142,C273,C274)</f>
+        <v>7</v>
+      </c>
+      <c r="P20" s="12">
+        <f t="shared" si="18"/>
+        <v>6.4</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="R20" s="12">
+        <f t="shared" si="18"/>
+        <v>6.125</v>
+      </c>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12">
+        <f t="shared" si="18"/>
+        <v>8.2857142857142865</v>
+      </c>
+      <c r="U20" s="12">
+        <f t="shared" si="18"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="V20" s="12">
+        <f t="shared" si="18"/>
+        <v>6.2</v>
+      </c>
+      <c r="W20" s="12">
+        <f t="shared" si="18"/>
+        <v>7.5</v>
+      </c>
+      <c r="X20" s="12">
+        <f t="shared" si="18"/>
+        <v>6.5714285714285712</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -14494,8 +13045,52 @@
       <c r="L21" s="5">
         <v>7</v>
       </c>
+      <c r="M21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="12">
+        <f>AVERAGE(B55,B56,B99,B100,B143,B144,B275,B276)</f>
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" ref="O21:X21" si="19">AVERAGE(C55,C56,C99,C100,C143,C144,C275,C276)</f>
+        <v>5.4</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="R21" s="12">
+        <f t="shared" si="19"/>
+        <v>5.5</v>
+      </c>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12">
+        <f t="shared" si="19"/>
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="U21" s="12">
+        <f t="shared" si="19"/>
+        <v>6.8</v>
+      </c>
+      <c r="V21" s="12">
+        <f t="shared" si="19"/>
+        <v>7.5</v>
+      </c>
+      <c r="W21" s="12">
+        <f t="shared" si="19"/>
+        <v>4.75</v>
+      </c>
+      <c r="X21" s="12">
+        <f t="shared" si="19"/>
+        <v>4.833333333333333</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -14512,8 +13107,52 @@
       <c r="L22" s="1">
         <v>7</v>
       </c>
+      <c r="M22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="12">
+        <f>AVERAGE(B57,B58,B101,B102,B145,B146,B277,B278)</f>
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" ref="O22:X22" si="20">AVERAGE(C57,C58,C101,C102,C145,C146,C277,C278)</f>
+        <v>6.4</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="20"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="20"/>
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="R22" s="12">
+        <f t="shared" si="20"/>
+        <v>6.7142857142857144</v>
+      </c>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12">
+        <f t="shared" si="20"/>
+        <v>7.8</v>
+      </c>
+      <c r="U22" s="12">
+        <f t="shared" si="20"/>
+        <v>7.8</v>
+      </c>
+      <c r="V22" s="12">
+        <f t="shared" si="20"/>
+        <v>6.7142857142857144</v>
+      </c>
+      <c r="W22" s="12">
+        <f t="shared" si="20"/>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="X22" s="12">
+        <f t="shared" si="20"/>
+        <v>7.2</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
@@ -14522,44 +13161,88 @@
         <v>12</v>
       </c>
       <c r="C23" s="14">
-        <f t="shared" ref="C23:L23" si="14">COUNT(C3:C22)</f>
+        <f t="shared" ref="C23:L23" si="21">COUNT(C3:C22)</f>
         <v>10</v>
       </c>
       <c r="D23" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="E23" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="F23" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="I23" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="J23" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="K23" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="L23" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
+      <c r="M23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="22">
+        <f>AVERAGE(B59,B60,B103,B104,B147,B148,B279,B280)</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="O23" s="22">
+        <f t="shared" ref="O23:X23" si="22">AVERAGE(C59,C60,C103,C104,C147,C148,C279,C280)</f>
+        <v>7.4</v>
+      </c>
+      <c r="P23" s="22">
+        <f t="shared" si="22"/>
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="Q23" s="22">
+        <f t="shared" si="22"/>
+        <v>6.5</v>
+      </c>
+      <c r="R23" s="22">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22">
+        <f t="shared" si="22"/>
+        <v>6.25</v>
+      </c>
+      <c r="U23" s="22">
+        <f t="shared" si="22"/>
+        <v>6.2</v>
+      </c>
+      <c r="V23" s="22">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="W23" s="22">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="X23" s="22">
+        <f t="shared" si="22"/>
+        <v>7.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -14594,10 +13277,54 @@
       <c r="L24" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="M24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="12">
+        <f>AVERAGE(B61,B62,B105,B106,B149,B150,B281,B282)</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" ref="O24:X24" si="23">AVERAGE(C61,C62,C105,C106,C149,C150,C281,C282)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="P24" s="12">
+        <f t="shared" si="23"/>
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12">
+        <f t="shared" si="23"/>
+        <v>6.5</v>
+      </c>
+      <c r="U24" s="12">
+        <f t="shared" si="23"/>
+        <v>7.6</v>
+      </c>
+      <c r="V24" s="12">
+        <f t="shared" si="23"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="X24" s="12">
+        <f t="shared" si="23"/>
+        <v>7.75</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8">
         <v>4</v>
@@ -14628,8 +13355,52 @@
       <c r="L25" s="8">
         <v>4</v>
       </c>
+      <c r="M25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" s="12">
+        <f>AVERAGE(B63,B64,B107,B108,B151,B152,B283,B284)</f>
+        <v>5.4</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" ref="O25:X25" si="24">AVERAGE(C63,C64,C107,C108,C151,C152,C283,C284)</f>
+        <v>6</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="24"/>
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="24"/>
+        <v>6.4</v>
+      </c>
+      <c r="R25" s="12">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="U25" s="12">
+        <f t="shared" si="24"/>
+        <v>5.8</v>
+      </c>
+      <c r="V25" s="12">
+        <f t="shared" si="24"/>
+        <v>6.5</v>
+      </c>
+      <c r="W25" s="12">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="X25" s="12">
+        <f t="shared" si="24"/>
+        <v>6.8</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -14644,10 +13415,54 @@
       <c r="L26" s="1">
         <v>3</v>
       </c>
+      <c r="M26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="12">
+        <f>AVERAGE(B65,B66,B109,B110,B153,B154,B285,B286)</f>
+        <v>7.2</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" ref="O26:X26" si="25">AVERAGE(C65,C66,C109,C110,C153,C154,C285,C286)</f>
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="P26" s="12">
+        <f t="shared" si="25"/>
+        <v>6.1428571428571432</v>
+      </c>
+      <c r="Q26" s="12">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R26" s="12">
+        <f t="shared" si="25"/>
+        <v>6.2</v>
+      </c>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12">
+        <f t="shared" si="25"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="U26" s="12">
+        <f t="shared" si="25"/>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="V26" s="12">
+        <f t="shared" si="25"/>
+        <v>6.8</v>
+      </c>
+      <c r="W26" s="12">
+        <f t="shared" si="25"/>
+        <v>6.4</v>
+      </c>
+      <c r="X26" s="12">
+        <f t="shared" si="25"/>
+        <v>6.666666666666667</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="10">
         <v>4</v>
@@ -14680,8 +13495,52 @@
       <c r="L27" s="10">
         <v>8</v>
       </c>
+      <c r="M27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="12">
+        <f>AVERAGE(B47,B48,B91,B92,B135,B136,B267,B268)</f>
+        <v>3.4</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" ref="O27:X27" si="26">AVERAGE(C47,C48,C91,C92,C135,C136,C267,C268)</f>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="P27" s="12">
+        <f t="shared" si="26"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="26"/>
+        <v>5.75</v>
+      </c>
+      <c r="R27" s="12">
+        <f t="shared" si="26"/>
+        <v>4.2</v>
+      </c>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12">
+        <f t="shared" si="26"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U27" s="12">
+        <f t="shared" si="26"/>
+        <v>3.6</v>
+      </c>
+      <c r="V27" s="12">
+        <f t="shared" si="26"/>
+        <v>4.2</v>
+      </c>
+      <c r="W27" s="12">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="X27" s="12">
+        <f t="shared" si="26"/>
+        <v>5.2</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1">
@@ -14698,10 +13557,54 @@
       <c r="L28" s="1">
         <v>3</v>
       </c>
+      <c r="M28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="12">
+        <f>AVERAGE(B67,B111,B155,B287)</f>
+        <v>15.25</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" ref="O28:X28" si="27">AVERAGE(C67,C111,C155,C287)</f>
+        <v>15</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="27"/>
+        <v>14.25</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12">
+        <f t="shared" si="27"/>
+        <v>12.75</v>
+      </c>
+      <c r="U28" s="12">
+        <f t="shared" si="27"/>
+        <v>13.5</v>
+      </c>
+      <c r="V28" s="12">
+        <f t="shared" si="27"/>
+        <v>14.5</v>
+      </c>
+      <c r="W28" s="12">
+        <f t="shared" si="27"/>
+        <v>13.25</v>
+      </c>
+      <c r="X28" s="12">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="10">
         <v>8</v>
@@ -14734,8 +13637,11 @@
       <c r="L29" s="10">
         <v>7</v>
       </c>
+      <c r="M29" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
@@ -14752,10 +13658,53 @@
       <c r="L30" s="1">
         <v>8</v>
       </c>
+      <c r="M30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <f>AVERAGE(B5,B6,B27,B28,B71,B72,B115,B116,B159,B160,B181,B182,B203,B204,B225,B226,B247,B248,B291,B292,B313,B314)</f>
+        <v>3.4</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:X30" si="28">AVERAGE(C5,C6,C27,C28,C71,C72,C115,C116,C159,C160,C181,C182,C203,C204,C225,C226,C247,C248,C291,C292,C313,C314)</f>
+        <v>3.6470588235294117</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="28"/>
+        <v>3.4117647058823528</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="28"/>
+        <v>3.8666666666666667</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="28"/>
+        <v>3.75</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="28"/>
+        <v>4.1875</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="28"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="28"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="28"/>
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="28"/>
+        <v>5.2352941176470589</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="10">
         <v>14</v>
@@ -14788,8 +13737,51 @@
       <c r="L31" s="10">
         <v>6</v>
       </c>
+      <c r="M31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <f>AVERAGE(B7,B8,B29,B30,B73,B74,B117,B118,B161,B162,B183,B184,B205,B206,B227,B228,B249,B250,B293,B294,B315,B316)</f>
+        <v>8.4285714285714288</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:X31" si="29">AVERAGE(C7,C8,C29,C30,C73,C74,C117,C118,C161,C162,C183,C184,C205,C206,C227,C228,C249,C250,C293,C294,C315,C316)</f>
+        <v>7.5294117647058822</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="29"/>
+        <v>7.2352941176470589</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="29"/>
+        <v>8.3125</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="29"/>
+        <v>7.4</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="29"/>
+        <v>7.3529411764705879</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="29"/>
+        <v>7.1333333333333337</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="29"/>
+        <v>7.85</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="29"/>
+        <v>7.1333333333333337</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="29"/>
+        <v>7.0714285714285712</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -14806,10 +13798,53 @@
       <c r="L32" s="1">
         <v>8</v>
       </c>
+      <c r="M32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <f>AVERAGE(B9,B10,B31,B32,B75,B76,B119,B120,B163,B164,B185,B186,B207,B208,B229,B230,B251,B252,B295,B296,B317,B318)</f>
+        <v>7.7142857142857144</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32:X32" si="30">AVERAGE(C9,C10,C31,C32,C75,C76,C119,C120,C163,C164,C185,C186,C207,C208,C229,C230,C251,C252,C295,C296,C317,C318)</f>
+        <v>7.0769230769230766</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="30"/>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="30"/>
+        <v>6.75</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="30"/>
+        <v>6.7333333333333334</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="30"/>
+        <v>7.3125</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="30"/>
+        <v>7.0555555555555554</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="30"/>
+        <v>6.7058823529411766</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="30"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="30"/>
+        <v>6.666666666666667</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="10">
         <v>6</v>
@@ -14842,8 +13877,51 @@
       <c r="L33" s="10">
         <v>6</v>
       </c>
+      <c r="M33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <f>AVERAGE(B11,B12,B33,B34,B77,B78,B121,B122,B165,B166,B187,B188,B209,B210,B231,B232,B253,B254,B297,B298,B319,B320)</f>
+        <v>6.6</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33:X33" si="31">AVERAGE(C11,C12,C33,C34,C77,C78,C121,C122,C165,C166,C187,C188,C209,C210,C231,C232,C253,C254,C297,C298,C319,C320)</f>
+        <v>7.7857142857142856</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="31"/>
+        <v>5.5294117647058822</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="31"/>
+        <v>6.7857142857142856</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="31"/>
+        <v>5.6</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="31"/>
+        <v>4.9375</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="31"/>
+        <v>4.7</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="31"/>
+        <v>5.0714285714285712</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="31"/>
+        <v>5.8461538461538458</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -14860,10 +13938,53 @@
       <c r="L34" s="1">
         <v>7</v>
       </c>
+      <c r="M34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34">
+        <f>AVERAGE(B13,B14,B35,B36,B79,B80,B123,B124,B167,B168,B189,B190,B211,B212,B233,B234,B255,B256,B299,B300,B321,B322)</f>
+        <v>6.8125</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:X34" si="32">AVERAGE(C13,C14,C35,C36,C79,C80,C123,C124,C167,C168,C189,C190,C211,C212,C233,C234,C255,C256,C299,C300,C321,C322)</f>
+        <v>6.9285714285714288</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="32"/>
+        <v>7.4</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="32"/>
+        <v>6.3125</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="32"/>
+        <v>6.5625</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="32"/>
+        <v>6.5</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="32"/>
+        <v>6.5</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="32"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="32"/>
+        <v>6.615384615384615</v>
+      </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="10">
         <v>9</v>
@@ -14896,8 +14017,51 @@
       <c r="L35" s="10">
         <v>5</v>
       </c>
+      <c r="M35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35">
+        <f>AVERAGE(B15,B16,B37,B38,B81,B82,B125,B126,B169,B170,B191,B192,B213,B214,B235,B236,B257,B258,B301,B302,B323,B324)</f>
+        <v>7.4666666666666668</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:X35" si="33">AVERAGE(C15,C16,C37,C38,C81,C82,C125,C126,C169,C170,C191,C192,C213,C214,C235,C236,C257,C258,C301,C302,C323,C324)</f>
+        <v>8.454545454545455</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="33"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="33"/>
+        <v>7.7142857142857144</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="33"/>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="33"/>
+        <v>7.6111111111111107</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="33"/>
+        <v>7.5625</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="33"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="33"/>
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="33"/>
+        <v>7.7857142857142856</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -14914,10 +14078,53 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
+      <c r="M36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36">
+        <f>AVERAGE(B39,B40,B17,B18,B83,B84,B127,B128,B171,B172,B193,B194,B215,B216,B237,B238,B259,B260,B303,B304,B325,B326)</f>
+        <v>7.6428571428571432</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36:X36" si="34">AVERAGE(C39,C40,C17,C18,C83,C84,C127,C128,C171,C172,C193,C194,C215,C216,C237,C238,C259,C260,C303,C304,C325,C326)</f>
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="34"/>
+        <v>7.2142857142857144</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="34"/>
+        <v>7.2941176470588234</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="34"/>
+        <v>7.9285714285714288</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="34"/>
+        <v>7.4615384615384617</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="34"/>
+        <v>6.8666666666666663</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="34"/>
+        <v>7.375</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="34"/>
+        <v>7.125</v>
+      </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="10">
         <v>8</v>
@@ -14950,8 +14157,51 @@
       <c r="L37" s="10">
         <v>7</v>
       </c>
+      <c r="M37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37">
+        <f>AVERAGE(B19,B20,B41,B42,B85,B86,B129,B130,B173,B174,B195,B196,B217,B218,B239,B240,B261,B262,B305,B306,B327,B328)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ref="O37:X37" si="35">AVERAGE(C19,C20,C41,C42,C85,C86,C129,C130,C173,C174,C195,C196,C217,C218,C239,C240,C261,C262,C305,C306,C327,C328)</f>
+        <v>7.1333333333333337</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="35"/>
+        <v>6.5333333333333332</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="35"/>
+        <v>7.2307692307692308</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="35"/>
+        <v>6.1538461538461542</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="35"/>
+        <v>5.7692307692307692</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="35"/>
+        <v>7</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="35"/>
+        <v>6.2</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="35"/>
+        <v>6.6428571428571432</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -14964,10 +14214,53 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
+      <c r="M38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38">
+        <f>AVERAGE(B21,B22,B43,B44,B87,B88,B131,B132,B175,B176,B197,B198,B219,B220,B241,B242,B263,B264,B307,B308,B329,B330)</f>
+        <v>8.0666666666666664</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38:X38" si="36">AVERAGE(C21,C22,C43,C44,C87,C88,C131,C132,C175,C176,C197,C198,C219,C220,C241,C242,C263,C264,C307,C308,C329,C330)</f>
+        <v>8.2857142857142865</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="36"/>
+        <v>7.7692307692307692</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="36"/>
+        <v>8.384615384615385</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="36"/>
+        <v>7.8461538461538458</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="36"/>
+        <v>7.0666666666666664</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="36"/>
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="36"/>
+        <v>7</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="36"/>
+        <v>7.8461538461538458</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="36"/>
+        <v>7.375</v>
+      </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="10">
         <v>11</v>
@@ -15000,8 +14293,51 @@
       <c r="L39" s="10">
         <v>8</v>
       </c>
+      <c r="M39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39">
+        <f>AVERAGE(B3,B4,B25,B26,B69,B70,B113,B114,B157,B158,B179,B180,B201,B202,B223,B224,B245,B246,B289,B290,B311,B312)</f>
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39:X39" si="37">AVERAGE(C3,C4,C25,C26,C69,C70,C113,C114,C157,C158,C179,C180,C201,C202,C223,C224,C245,C246,C289,C290,C311,C312)</f>
+        <v>4.8666666666666663</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="37"/>
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="37"/>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="37"/>
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="37"/>
+        <v>4.6923076923076925</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="37"/>
+        <v>4.0714285714285712</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="37"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="37"/>
+        <v>5.6923076923076925</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="37"/>
+        <v>3.8888888888888888</v>
+      </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -15014,10 +14350,53 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
+      <c r="M40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40">
+        <f>AVERAGE(B23,B45,B89,B133,B177,B221,B199,B243,B265,B309,B331)</f>
+        <v>13.454545454545455</v>
+      </c>
+      <c r="O40">
+        <f t="shared" ref="O40:X40" si="38">AVERAGE(C23,C45,C89,C133,C177,C221,C199,C243,C265,C309,C331)</f>
+        <v>13.090909090909092</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="38"/>
+        <v>14.181818181818182</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="38"/>
+        <v>12.727272727272727</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="38"/>
+        <v>13.636363636363637</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="38"/>
+        <v>14.272727272727273</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="38"/>
+        <v>14.454545454545455</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="38"/>
+        <v>12.727272727272727</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="10">
         <v>11</v>
@@ -15049,7 +14428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -15065,9 +14444,9 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43">
         <v>12</v>
@@ -15097,7 +14476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -15113,7 +14492,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>39</v>
       </c>
@@ -15122,44 +14501,44 @@
         <v>10</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:L45" si="15">COUNT(C25:C44)</f>
+        <f t="shared" ref="C45:L45" si="39">COUNT(C25:C44)</f>
         <v>12</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>12</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>12</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="39"/>
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -15195,9 +14574,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B47" s="8">
         <v>4</v>
@@ -15229,7 +14608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -15249,7 +14628,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="10">
         <v>4</v>
@@ -15305,7 +14684,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" s="10">
         <v>9</v>
@@ -15361,7 +14740,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B53" s="10">
         <v>7</v>
@@ -15417,7 +14796,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="10">
         <v>5</v>
@@ -15473,7 +14852,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" s="10">
         <v>7</v>
@@ -15529,7 +14908,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" s="10">
         <v>7</v>
@@ -15581,7 +14960,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" s="10">
         <v>7</v>
@@ -15633,7 +15012,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" s="10">
         <v>5</v>
@@ -15685,7 +15064,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -15741,40 +15120,40 @@
         <v>14</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:L67" si="16">COUNT(C47:C66)</f>
+        <f t="shared" ref="C67:L67" si="40">COUNT(C47:C66)</f>
         <v>14</v>
       </c>
       <c r="D67" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="F67" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="I67" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>9</v>
       </c>
       <c r="J67" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="K67" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="L67" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
@@ -15816,7 +15195,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B69" s="8">
         <v>3</v>
@@ -15872,7 +15251,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" s="10">
         <v>3</v>
@@ -15932,7 +15311,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73" s="10">
         <v>10</v>
@@ -15992,7 +15371,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" s="10">
         <v>8</v>
@@ -16048,7 +15427,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" s="10">
         <v>7</v>
@@ -16104,7 +15483,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" s="10">
         <v>7</v>
@@ -16160,7 +15539,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B81" s="10">
         <v>6</v>
@@ -16216,7 +15595,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B83" s="10">
         <v>7</v>
@@ -16272,7 +15651,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B85" s="10">
         <v>6</v>
@@ -16328,7 +15707,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B87" s="5">
         <v>7</v>
@@ -16390,40 +15769,40 @@
         <v>14</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" ref="C89:L89" si="17">COUNT(C69:C88)</f>
+        <f t="shared" ref="C89:L89" si="41">COUNT(C69:C88)</f>
         <v>11</v>
       </c>
       <c r="D89" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>12</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>12</v>
       </c>
       <c r="F89" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>16</v>
       </c>
       <c r="I89" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="J89" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="K89" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="L89" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
     </row>
@@ -16465,7 +15844,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B91" s="8">
         <v>3</v>
@@ -16523,7 +15902,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93" s="10">
         <v>4</v>
@@ -16585,7 +15964,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B95" s="10">
         <v>7</v>
@@ -16647,7 +16026,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B97" s="10">
         <v>5</v>
@@ -16709,7 +16088,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B99" s="10">
         <v>6</v>
@@ -16771,7 +16150,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B101" s="10">
         <v>6</v>
@@ -16833,7 +16212,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B103" s="10">
         <v>6</v>
@@ -16893,7 +16272,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B105" s="10">
         <v>7</v>
@@ -16953,7 +16332,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B107" s="10">
         <v>5</v>
@@ -17013,7 +16392,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B109">
         <v>8</v>
@@ -17077,40 +16456,40 @@
         <v>15</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" ref="C111:L111" si="18">COUNT(C91:C110)</f>
+        <f t="shared" ref="C111:L111" si="42">COUNT(C91:C110)</f>
         <v>15</v>
       </c>
       <c r="D111" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>17</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="F111" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>16</v>
       </c>
       <c r="I111" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>16</v>
       </c>
       <c r="J111" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>16</v>
       </c>
       <c r="K111" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>16</v>
       </c>
       <c r="L111" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
     </row>
@@ -17152,7 +16531,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B113" s="8">
         <v>4</v>
@@ -17210,7 +16589,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B115" s="10">
         <v>3</v>
@@ -17272,7 +16651,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B117" s="10">
         <v>8</v>
@@ -17334,7 +16713,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B119" s="10">
         <v>7</v>
@@ -17394,7 +16773,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B121" s="10">
         <v>7</v>
@@ -17454,7 +16833,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B123" s="10">
         <v>6</v>
@@ -17514,7 +16893,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B125" s="10">
         <v>7</v>
@@ -17574,7 +16953,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B127" s="10">
         <v>8</v>
@@ -17632,7 +17011,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B129" s="10">
         <v>6</v>
@@ -17690,7 +17069,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B131" s="5">
         <v>6</v>
@@ -17754,40 +17133,40 @@
         <v>15</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" ref="C133:L133" si="19">COUNT(C113:C132)</f>
+        <f t="shared" ref="C133:L133" si="43">COUNT(C113:C132)</f>
         <v>16</v>
       </c>
       <c r="D133" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>14</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>13</v>
       </c>
       <c r="F133" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>14</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>13</v>
       </c>
       <c r="I133" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="J133" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="K133" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>14</v>
       </c>
       <c r="L133" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="43"/>
         <v>14</v>
       </c>
     </row>
@@ -17829,7 +17208,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B135" s="8">
         <v>4</v>
@@ -17887,7 +17266,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B137" s="10">
         <v>3</v>
@@ -17949,7 +17328,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B139" s="10">
         <v>7</v>
@@ -18011,7 +17390,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B141" s="10">
         <v>7</v>
@@ -18073,7 +17452,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B143" s="10">
         <v>4</v>
@@ -18133,7 +17512,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B145" s="10">
         <v>8</v>
@@ -18193,7 +17572,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B147" s="10">
         <v>7</v>
@@ -18251,7 +17630,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B149" s="10">
         <v>7</v>
@@ -18309,7 +17688,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B151" s="10">
         <v>6</v>
@@ -18367,7 +17746,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B153" s="5">
         <v>6</v>
@@ -18431,40 +17810,40 @@
         <v>16</v>
       </c>
       <c r="C155" s="14">
-        <f t="shared" ref="C155:L155" si="20">COUNT(C135:C154)</f>
+        <f t="shared" ref="C155:L155" si="44">COUNT(C135:C154)</f>
         <v>16</v>
       </c>
       <c r="D155" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>15</v>
       </c>
       <c r="E155" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>13</v>
       </c>
       <c r="F155" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>15</v>
       </c>
       <c r="G155" s="14"/>
       <c r="H155" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>14</v>
       </c>
       <c r="I155" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>15</v>
       </c>
       <c r="J155" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>15</v>
       </c>
       <c r="K155" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>14</v>
       </c>
       <c r="L155" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>15</v>
       </c>
     </row>
@@ -18506,7 +17885,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B157" s="8">
         <v>4</v>
@@ -18560,7 +17939,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B159" s="10">
         <v>4</v>
@@ -18618,7 +17997,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B161" s="10">
         <v>11</v>
@@ -18676,7 +18055,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B163" s="10">
         <v>7</v>
@@ -18734,7 +18113,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B165" s="10">
         <v>4</v>
@@ -18792,7 +18171,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B167" s="10">
         <v>7</v>
@@ -18850,7 +18229,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B169" s="10">
         <v>8</v>
@@ -18908,7 +18287,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B171" s="10">
         <v>7</v>
@@ -18966,7 +18345,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B173" s="10">
         <v>5</v>
@@ -19024,7 +18403,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B175" s="5">
         <v>9</v>
@@ -19086,40 +18465,40 @@
         <v>14</v>
       </c>
       <c r="C177" s="14">
-        <f t="shared" ref="C177:L177" si="21">COUNT(C157:C176)</f>
+        <f t="shared" ref="C177:L177" si="45">COUNT(C157:C176)</f>
         <v>13</v>
       </c>
       <c r="D177" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>15</v>
       </c>
       <c r="E177" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>13</v>
       </c>
       <c r="F177" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>14</v>
       </c>
       <c r="G177" s="14"/>
       <c r="H177" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>15</v>
       </c>
       <c r="I177" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>15</v>
       </c>
       <c r="J177" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>14</v>
       </c>
       <c r="K177" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>13</v>
       </c>
       <c r="L177" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
     </row>
@@ -19161,7 +18540,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B179" s="8">
         <v>7</v>
@@ -19219,7 +18598,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B181" s="10">
         <v>4</v>
@@ -19281,7 +18660,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B183" s="10">
         <v>9</v>
@@ -19343,7 +18722,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B185" s="10">
         <v>7</v>
@@ -19405,7 +18784,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B187" s="10">
         <v>10</v>
@@ -19465,7 +18844,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B189" s="10">
         <v>8</v>
@@ -19525,7 +18904,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B191" s="10">
         <v>8</v>
@@ -19585,7 +18964,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B193" s="10">
         <v>7</v>
@@ -19645,7 +19024,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B195" s="10">
         <v>9</v>
@@ -19703,7 +19082,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B197">
         <v>10</v>
@@ -19767,40 +19146,40 @@
         <v>11</v>
       </c>
       <c r="C199" s="14">
-        <f t="shared" ref="C199:L199" si="22">COUNT(C179:C198)</f>
+        <f t="shared" ref="C199:L199" si="46">COUNT(C179:C198)</f>
         <v>14</v>
       </c>
       <c r="D199" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="E199" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>15</v>
       </c>
       <c r="F199" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>17</v>
       </c>
       <c r="G199" s="14"/>
       <c r="H199" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="I199" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>15</v>
       </c>
       <c r="J199" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="K199" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="L199" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
     </row>
@@ -19842,7 +19221,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B201" s="8">
         <v>4</v>
@@ -19898,7 +19277,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B203" s="10">
         <v>4</v>
@@ -19958,7 +19337,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B205" s="10">
         <v>7</v>
@@ -20018,7 +19397,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B207" s="10">
         <v>5</v>
@@ -20076,7 +19455,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B209" s="10">
         <v>4</v>
@@ -20134,7 +19513,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B211" s="10">
         <v>6</v>
@@ -20192,7 +19571,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B213" s="10">
         <v>7</v>
@@ -20250,7 +19629,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B215" s="10">
         <v>7</v>
@@ -20306,7 +19685,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B217" s="10">
         <v>7</v>
@@ -20362,7 +19741,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B219">
         <v>6</v>
@@ -20424,40 +19803,40 @@
         <v>15</v>
       </c>
       <c r="C221" s="14">
-        <f t="shared" ref="C221:L221" si="23">COUNT(C201:C220)</f>
+        <f t="shared" ref="C221:L221" si="47">COUNT(C201:C220)</f>
         <v>15</v>
       </c>
       <c r="D221" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>15</v>
       </c>
       <c r="E221" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>14</v>
       </c>
       <c r="F221" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>13</v>
       </c>
       <c r="G221" s="14"/>
       <c r="H221" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>13</v>
       </c>
       <c r="I221" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>13</v>
       </c>
       <c r="J221" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>13</v>
       </c>
       <c r="K221" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>13</v>
       </c>
       <c r="L221" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>14</v>
       </c>
     </row>
@@ -20499,7 +19878,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B223" s="8">
         <v>4</v>
@@ -20549,7 +19928,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B225" s="10">
         <v>3</v>
@@ -20603,7 +19982,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B227" s="10">
         <v>11</v>
@@ -20657,7 +20036,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B229" s="10">
         <v>18</v>
@@ -20709,7 +20088,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B231" s="10">
         <v>6</v>
@@ -20761,7 +20140,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B233" s="10">
         <v>7</v>
@@ -20813,7 +20192,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B235" s="10">
         <v>7</v>
@@ -20865,7 +20244,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B237" s="10">
         <v>9</v>
@@ -20917,7 +20296,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B239" s="10">
         <v>6</v>
@@ -20967,7 +20346,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B241">
         <v>10</v>
@@ -21023,40 +20402,40 @@
         <v>10</v>
       </c>
       <c r="C243" s="14">
-        <f t="shared" ref="C243:L243" si="24">COUNT(C223:C242)</f>
+        <f t="shared" ref="C243:L243" si="48">COUNT(C223:C242)</f>
         <v>12</v>
       </c>
       <c r="D243" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>13</v>
       </c>
       <c r="E243" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="F243" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>12</v>
       </c>
       <c r="G243" s="14"/>
       <c r="H243" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>11</v>
       </c>
       <c r="I243" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="J243" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>12</v>
       </c>
       <c r="K243" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="L243" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>9</v>
       </c>
     </row>
@@ -21098,7 +20477,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B245" s="8">
         <v>4</v>
@@ -21156,7 +20535,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B247" s="10">
         <v>3</v>
@@ -21218,7 +20597,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B249" s="10">
         <v>7</v>
@@ -21278,7 +20657,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B251" s="10">
         <v>7</v>
@@ -21338,7 +20717,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B253" s="10">
         <v>7</v>
@@ -21396,7 +20775,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B255" s="10">
         <v>6</v>
@@ -21454,7 +20833,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B257" s="10">
         <v>7</v>
@@ -21512,7 +20891,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B259" s="10">
         <v>7</v>
@@ -21570,7 +20949,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B261" s="10">
         <v>5</v>
@@ -21628,7 +21007,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B263">
         <v>9</v>
@@ -21687,40 +21066,40 @@
         <v>16</v>
       </c>
       <c r="C265" s="14">
-        <f t="shared" ref="C265:L265" si="25">COUNT(C245:C264)</f>
+        <f t="shared" ref="C265:L265" si="49">COUNT(C245:C264)</f>
         <v>11</v>
       </c>
       <c r="D265" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>14</v>
       </c>
       <c r="E265" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>14</v>
       </c>
       <c r="F265" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>14</v>
       </c>
       <c r="G265" s="14"/>
       <c r="H265" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>18</v>
       </c>
       <c r="I265" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>15</v>
       </c>
       <c r="J265" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>16</v>
       </c>
       <c r="K265" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="L265" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>13</v>
       </c>
     </row>
@@ -21762,7 +21141,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B267" s="8">
         <v>3</v>
@@ -21820,7 +21199,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B269" s="10">
         <v>3</v>
@@ -21882,7 +21261,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B271" s="10">
         <v>5</v>
@@ -21944,7 +21323,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B273" s="10">
         <v>6</v>
@@ -22006,7 +21385,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B275" s="10">
         <v>4</v>
@@ -22068,7 +21447,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B277" s="10">
         <v>7</v>
@@ -22130,7 +21509,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B279" s="10">
         <v>7</v>
@@ -22192,7 +21571,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B281" s="10">
         <v>6</v>
@@ -22252,7 +21631,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B283" s="10">
         <v>5</v>
@@ -22310,7 +21689,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B285" s="5">
         <v>7</v>
@@ -22374,40 +21753,40 @@
         <v>16</v>
       </c>
       <c r="C287" s="14">
-        <f t="shared" ref="C287:L287" si="26">COUNT(C267:C286)</f>
+        <f t="shared" ref="C287:L287" si="50">COUNT(C267:C286)</f>
         <v>15</v>
       </c>
       <c r="D287" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>16</v>
       </c>
       <c r="E287" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="F287" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="G287" s="14"/>
       <c r="H287" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="I287" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>14</v>
       </c>
       <c r="J287" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>17</v>
       </c>
       <c r="K287" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="L287" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
     </row>
@@ -22449,7 +21828,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B289" s="8">
         <v>4</v>
@@ -22507,7 +21886,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B291" s="10">
         <v>4</v>
@@ -22569,7 +21948,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B293" s="10">
         <v>7</v>
@@ -22629,7 +22008,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B295" s="10">
         <v>6</v>
@@ -22689,7 +22068,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B297" s="10">
         <v>4</v>
@@ -22749,7 +22128,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B299" s="10">
         <v>6</v>
@@ -22809,7 +22188,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B301" s="10">
         <v>7</v>
@@ -22869,7 +22248,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B303" s="10">
         <v>8</v>
@@ -22927,7 +22306,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B305" s="10">
         <v>6</v>
@@ -22985,7 +22364,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B307" s="5">
         <v>8</v>
@@ -23049,40 +22428,40 @@
         <v>15</v>
       </c>
       <c r="C309" s="14">
-        <f t="shared" ref="C309:L309" si="27">COUNT(C289:C308)</f>
+        <f t="shared" ref="C309:L309" si="51">COUNT(C289:C308)</f>
         <v>15</v>
       </c>
       <c r="D309" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>16</v>
       </c>
       <c r="E309" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>14</v>
       </c>
       <c r="F309" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>16</v>
       </c>
       <c r="G309" s="14"/>
       <c r="H309" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>14</v>
       </c>
       <c r="I309" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>14</v>
       </c>
       <c r="J309" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>15</v>
       </c>
       <c r="K309" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>13</v>
       </c>
       <c r="L309" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>15</v>
       </c>
     </row>
@@ -23124,7 +22503,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B311" s="5">
         <v>4</v>
@@ -23184,7 +22563,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B313" s="10">
         <v>3</v>
@@ -23248,7 +22627,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B315" s="10">
         <v>8</v>
@@ -23312,7 +22691,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B317" s="10">
         <v>6</v>
@@ -23376,7 +22755,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B319" s="10">
         <v>4</v>
@@ -23438,7 +22817,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B321" s="10">
         <v>5</v>
@@ -23500,7 +22879,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B323" s="10">
         <v>8</v>
@@ -23560,7 +22939,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B325" s="10">
         <v>7</v>
@@ -23620,7 +22999,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B327" s="10">
         <v>6</v>
@@ -23680,7 +23059,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B329" s="5">
         <v>7</v>
@@ -23746,51 +23125,53 @@
         <v>16</v>
       </c>
       <c r="C331" s="14">
-        <f t="shared" ref="C331:L331" si="28">COUNT(C311:C330)</f>
+        <f t="shared" ref="C331:L331" si="52">COUNT(C311:C330)</f>
         <v>15</v>
       </c>
       <c r="D331" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>16</v>
       </c>
       <c r="E331" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>14</v>
       </c>
       <c r="F331" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>14</v>
       </c>
       <c r="G331" s="14"/>
       <c r="H331" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>16</v>
       </c>
       <c r="I331" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>17</v>
       </c>
       <c r="J331" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>18</v>
       </c>
       <c r="K331" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>15</v>
       </c>
       <c r="L331" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="T1:X1"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="T16:X16"/>
   </mergeCells>
-  <conditionalFormatting sqref="N3:R12 S3:X3 T4:X12">
+  <conditionalFormatting sqref="N3:X12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>$T$3</formula>
     </cfRule>
@@ -23832,13 +23213,13 @@
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
@@ -25259,13 +24640,13 @@
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -26692,13 +26073,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -28119,13 +27500,13 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -29552,13 +28933,13 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -30979,13 +30360,13 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -32412,13 +31793,13 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -33839,13 +33220,13 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -35275,13 +34656,13 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -36702,13 +36083,13 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -38135,13 +37516,13 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -39562,13 +38943,13 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
     </row>
     <row r="74" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -40995,13 +40376,13 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -42422,13 +41803,13 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
     </row>
     <row r="87" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -43855,13 +43236,13 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="22" t="s">
+      <c r="D93" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
     </row>
     <row r="94" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -45282,13 +44663,13 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
     </row>
     <row r="100" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -46715,13 +46096,13 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="22" t="s">
+      <c r="D106" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
     </row>
     <row r="107" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -48142,13 +47523,13 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
     </row>
     <row r="113" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
@@ -49575,13 +48956,13 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="22" t="s">
+      <c r="D119" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
     </row>
     <row r="120" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
@@ -51002,13 +50383,13 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
     </row>
     <row r="126" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -52435,13 +51816,13 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="22" t="s">
+      <c r="D132" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="22"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
     </row>
     <row r="133" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
@@ -53862,13 +53243,13 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="22" t="s">
+      <c r="D138" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="22"/>
-      <c r="F138" s="22"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="22"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
     </row>
     <row r="139" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
@@ -55295,13 +54676,13 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="22" t="s">
+      <c r="D145" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="22"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
     </row>
     <row r="146" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -56722,13 +56103,13 @@
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="22" t="s">
+      <c r="D151" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
     </row>
     <row r="152" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
@@ -58155,13 +57536,13 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="22" t="s">
+      <c r="D158" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E158" s="22"/>
-      <c r="F158" s="22"/>
-      <c r="G158" s="22"/>
-      <c r="H158" s="22"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
     </row>
     <row r="159" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -59582,13 +58963,13 @@
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="22" t="s">
+      <c r="D164" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E164" s="22"/>
-      <c r="F164" s="22"/>
-      <c r="G164" s="22"/>
-      <c r="H164" s="22"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
     </row>
     <row r="165" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
@@ -61015,13 +60396,13 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="22" t="s">
+      <c r="D171" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="22"/>
-      <c r="F171" s="22"/>
-      <c r="G171" s="22"/>
-      <c r="H171" s="22"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
     </row>
     <row r="172" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
@@ -62442,13 +61823,13 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="22" t="s">
+      <c r="D177" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E177" s="22"/>
-      <c r="F177" s="22"/>
-      <c r="G177" s="22"/>
-      <c r="H177" s="22"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
     </row>
     <row r="178" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
@@ -63876,13 +63257,13 @@
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="22" t="s">
+      <c r="D184" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E184" s="22"/>
-      <c r="F184" s="22"/>
-      <c r="G184" s="22"/>
-      <c r="H184" s="22"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
     </row>
     <row r="185" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
@@ -66721,23 +66102,23 @@
     </row>
     <row r="196" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
-      <c r="F196" s="22" t="s">
+      <c r="F196" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G196" s="22"/>
-      <c r="H196" s="22"/>
-      <c r="L196" s="22" t="s">
+      <c r="G196" s="19"/>
+      <c r="H196" s="19"/>
+      <c r="L196" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M196" s="22"/>
-      <c r="N196" s="22"/>
+      <c r="M196" s="19"/>
+      <c r="N196" s="19"/>
     </row>
     <row r="197" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="B197" s="22" t="s">
+      <c r="B197" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
       <c r="E197" s="13"/>
       <c r="F197" s="2" t="s">
         <v>0</v>
@@ -66782,19 +66163,19 @@
       <c r="E198" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F198" s="21">
+      <c r="F198" s="18">
         <v>98.148148148148138</v>
       </c>
-      <c r="G198" s="21">
+      <c r="G198" s="18">
         <v>97.259259259259252</v>
       </c>
-      <c r="H198" s="21">
+      <c r="H198" s="18">
         <v>97.111111111111114</v>
       </c>
-      <c r="I198" s="21">
+      <c r="I198" s="18">
         <v>98.296296296296305</v>
       </c>
-      <c r="J198" s="21">
+      <c r="J198" s="18">
         <v>96.740740740740733</v>
       </c>
       <c r="L198" s="12">
@@ -66828,19 +66209,19 @@
       <c r="E199" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F199" s="21">
+      <c r="F199" s="18">
         <v>1.8518518518518521</v>
       </c>
-      <c r="G199" s="21">
+      <c r="G199" s="18">
         <v>2.7407407407407409</v>
       </c>
-      <c r="H199" s="21">
+      <c r="H199" s="18">
         <v>2.8888888888888893</v>
       </c>
-      <c r="I199" s="21">
+      <c r="I199" s="18">
         <v>1.7037037037037037</v>
       </c>
-      <c r="J199" s="21">
+      <c r="J199" s="18">
         <v>3.2592592592592591</v>
       </c>
       <c r="L199" s="12">
@@ -66912,11 +66293,11 @@
       </c>
     </row>
     <row r="204" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="B204" s="22" t="s">
+      <c r="B204" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C204" s="22"/>
-      <c r="D204" s="22"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
       <c r="E204" s="11"/>
     </row>
     <row r="205" spans="1:93" x14ac:dyDescent="0.25">
@@ -66997,6 +66378,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="L196:N196"/>
+    <mergeCell ref="D119:H119"/>
+    <mergeCell ref="D158:H158"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="D177:H177"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D132:H132"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D151:H151"/>
+    <mergeCell ref="D184:H184"/>
+    <mergeCell ref="D93:H93"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="D106:H106"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="F196:H196"/>
     <mergeCell ref="B197:D197"/>
     <mergeCell ref="B204:D204"/>
     <mergeCell ref="D2:H2"/>
@@ -67013,23 +66411,6 @@
     <mergeCell ref="D73:H73"/>
     <mergeCell ref="D80:H80"/>
     <mergeCell ref="D86:H86"/>
-    <mergeCell ref="D93:H93"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="F196:H196"/>
-    <mergeCell ref="L196:N196"/>
-    <mergeCell ref="D119:H119"/>
-    <mergeCell ref="D158:H158"/>
-    <mergeCell ref="D164:H164"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="D177:H177"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D132:H132"/>
-    <mergeCell ref="D138:H138"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="D151:H151"/>
-    <mergeCell ref="D184:H184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/ResultsAnalyse.xlsx
+++ b/Documents/ResultsAnalyse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Asteroids Dodged" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,18 @@
     <sheet name="Asteroids Hit" sheetId="2" r:id="rId4"/>
     <sheet name="Asteroids Hit Chart" sheetId="5" r:id="rId5"/>
     <sheet name="Waypoint times chart" sheetId="11" r:id="rId6"/>
-    <sheet name="Waypoint Times" sheetId="3" r:id="rId7"/>
-    <sheet name="Total Locations Chart" sheetId="8" r:id="rId8"/>
-    <sheet name="Player Movement" sheetId="4" r:id="rId9"/>
-    <sheet name="Player Movement Chart" sheetId="10" r:id="rId10"/>
+    <sheet name="NewUsersPerformance" sheetId="12" r:id="rId7"/>
+    <sheet name="Waypoint Times" sheetId="3" r:id="rId8"/>
+    <sheet name="Total Locations Chart" sheetId="8" r:id="rId9"/>
+    <sheet name="Player Movement" sheetId="4" r:id="rId10"/>
+    <sheet name="Player Movement Chart" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="59">
   <si>
     <t>Non Diegetic</t>
   </si>
@@ -186,6 +187,21 @@
   <si>
     <t>Noob</t>
   </si>
+  <si>
+    <t>Direct - SE</t>
+  </si>
+  <si>
+    <t>Around - SE</t>
+  </si>
+  <si>
+    <t>Hit By Asterodis SE</t>
+  </si>
+  <si>
+    <t>Noob SE</t>
+  </si>
+  <si>
+    <t>Exp SE</t>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,14 +314,15 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -430,6 +447,108 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Asteroids Dodged'!$N$6:$X$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>2.6422733568883707</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2856508805280074</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9484204040828756</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.2224297833876778</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3983918498266878</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.5862464210559484</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.895934460408204</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.5556587537612763</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.1594126606586528</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.6854989374491005</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Asteroids Dodged'!$N$6:$X$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>2.6422733568883707</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2856508805280074</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9484204040828756</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.2224297833876778</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.3983918498266878</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.5862464210559484</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.895934460408204</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.5556587537612763</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.1594126606586528</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.6854989374491005</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Asteroids Dodged'!$N$1:$X$2</c:f>
@@ -528,47 +647,16 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2128662400"/>
-        <c:axId val="2128652608"/>
+        <c:axId val="549826576"/>
+        <c:axId val="549825488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128662400"/>
+        <c:axId val="549826576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -606,7 +694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128652608"/>
+        <c:crossAx val="549825488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128652608"/>
+        <c:axId val="549825488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128662400"/>
+        <c:crossAx val="549826576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -865,6 +953,108 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Asteroids Dodged'!$N$5:$X$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>1.9431580464922626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2734525358786386</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9689261405626739</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.5730966944070734</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1217566945738855</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.3807114491464274</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.2063035777239728</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.0313958170890878</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.9166602578081493</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.8918349582759493</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Asteroids Dodged'!$N$5:$X$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>1.9431580464922626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2734525358786386</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9689261405626739</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.5730966944070734</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.1217566945738855</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.3807114491464274</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.2063035777239728</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.0313958170890878</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.9166602578081493</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.8918349582759493</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Asteroids Dodged'!$N$1:$X$2</c:f>
@@ -963,11 +1153,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2128656416"/>
-        <c:axId val="2128660224"/>
+        <c:axId val="549820592"/>
+        <c:axId val="549829296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128656416"/>
+        <c:axId val="549820592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128660224"/>
+        <c:crossAx val="549829296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128660224"/>
+        <c:axId val="549829296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -1132,7 +1322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128656416"/>
+        <c:crossAx val="549820592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1221,6 +1411,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1270,6 +1461,102 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Asteroids Hit'!$N$4:$X$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>1.3129292497094691</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0213808837762919</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.4348043278313429</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.5600922211647625</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9463950359662927</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.9166602578081495</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.4896193702096423</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.6282337992639786</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.6114283117782198</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.6546127186133117</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Asteroids Hit'!$N$4:$X$4</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>1.3129292497094691</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0213808837762919</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.4348043278313429</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.5600922211647625</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9463950359662927</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.9166602578081495</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.4896193702096423</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.6282337992639786</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.6114283117782198</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.6546127186133117</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>'Asteroids Hit'!$N$1:$X$2</c:f>
@@ -1368,11 +1655,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2128662944"/>
-        <c:axId val="2128663488"/>
+        <c:axId val="549822224"/>
+        <c:axId val="549817872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128662944"/>
+        <c:axId val="549822224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128663488"/>
+        <c:crossAx val="549817872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1423,7 +1710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128663488"/>
+        <c:axId val="549817872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128662944"/>
+        <c:crossAx val="549822224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2758,11 +3045,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="136853072"/>
-        <c:axId val="136861232"/>
+        <c:axId val="549826032"/>
+        <c:axId val="549827120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136853072"/>
+        <c:axId val="549826032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2805,7 +3092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136861232"/>
+        <c:crossAx val="549827120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2813,7 +3100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136861232"/>
+        <c:axId val="549827120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +3212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136853072"/>
+        <c:crossAx val="549826032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3006,6 +3293,447 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>New</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Oculus users waypoint time performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>New Oculus user performed better</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Waypoint Times'!$N$56:$X$57</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Diegetic</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Meta </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Spatial </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>No Interface</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Virtual Reality</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Non Virtual Reality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waypoint Times'!$N$58:$X$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="549823856"/>
+        <c:axId val="549824400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="549823856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549824400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="549824400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of locations a new user was faster</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549823856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3198,11 +3926,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="136856336"/>
-        <c:axId val="136861776"/>
+        <c:axId val="549814608"/>
+        <c:axId val="419962256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136856336"/>
+        <c:axId val="549814608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3245,7 +3973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136861776"/>
+        <c:crossAx val="419962256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3253,7 +3981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136861776"/>
+        <c:axId val="419962256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3365,7 +4093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136856336"/>
+        <c:crossAx val="549814608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3409,7 +4137,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3454,6 +4182,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3724,11 +4453,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="136855248"/>
-        <c:axId val="136849264"/>
+        <c:axId val="719071872"/>
+        <c:axId val="719067520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136855248"/>
+        <c:axId val="719071872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3771,7 +4500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136849264"/>
+        <c:crossAx val="719067520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3779,7 +4508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136849264"/>
+        <c:axId val="719067520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3839,6 +4568,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3899,7 +4629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136855248"/>
+        <c:crossAx val="719071872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3952,6 +4682,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4214,6 +4945,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6266,7 +7037,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6470,22 +7241,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6590,8 +7362,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6723,19 +7495,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7271,11 +8044,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7297,7 +8573,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7330,6 +8606,17 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7341,7 +8628,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302238" cy="6083710"/>
+    <xdr:ext cx="9295918" cy="6076709"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7395,7 +8682,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302238" cy="6083710"/>
+    <xdr:ext cx="9295918" cy="6076709"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7473,6 +8760,33 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -7788,8 +9102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7815,35 +9129,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="N1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="T1" s="19" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="T1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8104,6 +9418,52 @@
       <c r="L5" s="1">
         <v>47</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="12">
+        <f>SQRT(STDEV(B4,B8,B12,B16,B20,B24,B28,B32,B36,B40,B44,B48,B52,B56,B60))</f>
+        <v>1.9431580464922626</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" ref="O5:X5" si="7">SQRT(STDEV(C4,C8,C12,C16,C20,C24,C28,C32,C36,C40,C44,C48,C52,C56,C60))</f>
+        <v>2.2734525358786386</v>
+      </c>
+      <c r="P5" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9689261405626739</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" si="7"/>
+        <v>1.5730966944070734</v>
+      </c>
+      <c r="R5" s="12">
+        <f t="shared" si="7"/>
+        <v>2.1217566945738855</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
+        <f t="shared" si="7"/>
+        <v>2.3807114491464274</v>
+      </c>
+      <c r="U5" s="12">
+        <f t="shared" si="7"/>
+        <v>2.2063035777239728</v>
+      </c>
+      <c r="V5" s="12">
+        <f t="shared" si="7"/>
+        <v>2.0313958170890878</v>
+      </c>
+      <c r="W5" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9166602578081493</v>
+      </c>
+      <c r="X5" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8918349582759493</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -8140,7 +9500,52 @@
       <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="12">
+        <f>SQRT(STDEV(B5,B9,B13,B17,B21,B25,B29,B33,B37,B41,B45,B49,B53,B57,B61))</f>
+        <v>2.6422733568883707</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" ref="O6:X6" si="8">SQRT(STDEV(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45,C49,C53,C57,C61))</f>
+        <v>3.2856508805280074</v>
+      </c>
+      <c r="P6" s="12">
+        <f t="shared" si="8"/>
+        <v>2.9484204040828756</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="8"/>
+        <v>3.2224297833876778</v>
+      </c>
+      <c r="R6" s="12">
+        <f t="shared" si="8"/>
+        <v>3.3983918498266878</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0</v>
+      </c>
+      <c r="T6" s="12">
+        <f t="shared" si="8"/>
+        <v>3.5862464210559484</v>
+      </c>
+      <c r="U6" s="12">
+        <f t="shared" si="8"/>
+        <v>3.895934460408204</v>
+      </c>
+      <c r="V6" s="12">
+        <f t="shared" si="8"/>
+        <v>3.5556587537612763</v>
+      </c>
+      <c r="W6" s="12">
+        <f t="shared" si="8"/>
+        <v>3.1594126606586528</v>
+      </c>
+      <c r="X6" s="12">
+        <f t="shared" si="8"/>
+        <v>3.6854989374491005</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -8177,20 +9582,20 @@
         <v>483</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="T7" s="19" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="T7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -8300,39 +9705,39 @@
         <v>111</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:S9" si="7">AVERAGE(C12,C20,C28,C52)</f>
+        <f t="shared" ref="O9:R9" si="9">AVERAGE(C12,C20,C28,C52)</f>
         <v>114</v>
       </c>
       <c r="P9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>113.25</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>114.5</v>
       </c>
       <c r="R9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T9">
-        <f t="shared" ref="T9:T10" si="8">AVERAGE(H12,H20,H28,H52)</f>
+        <f t="shared" ref="T9:T10" si="10">AVERAGE(H12,H20,H28,H52)</f>
         <v>111.75</v>
       </c>
       <c r="U9">
-        <f t="shared" ref="U9:U10" si="9">AVERAGE(I12,I20,I28,I52)</f>
+        <f t="shared" ref="U9:U10" si="11">AVERAGE(I12,I20,I28,I52)</f>
         <v>109.5</v>
       </c>
       <c r="V9">
-        <f t="shared" ref="V9:V10" si="10">AVERAGE(J12,J20,J28,J52)</f>
+        <f t="shared" ref="V9:V10" si="12">AVERAGE(J12,J20,J28,J52)</f>
         <v>114</v>
       </c>
       <c r="W9">
-        <f t="shared" ref="W9:X9" si="11">AVERAGE(K12,K20,K28,K52)</f>
+        <f t="shared" ref="W9:X9" si="13">AVERAGE(K12,K20,K28,K52)</f>
         <v>117.25</v>
       </c>
       <c r="X9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>113.5</v>
       </c>
     </row>
@@ -8379,15 +9784,15 @@
         <v>50</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:S10" si="12">AVERAGE(C13,C21,C29,C53)</f>
+        <f t="shared" ref="O10:Q10" si="14">AVERAGE(C13,C21,C29,C53)</f>
         <v>54.5</v>
       </c>
       <c r="P10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>55.5</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>59</v>
       </c>
       <c r="R10">
@@ -8395,23 +9800,23 @@
         <v>53.25</v>
       </c>
       <c r="T10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>51.5</v>
       </c>
       <c r="U10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>51.5</v>
       </c>
       <c r="V10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="W10">
-        <f t="shared" ref="W10:X10" si="13">AVERAGE(K13,K21,K29,K53)</f>
+        <f t="shared" ref="W10:X10" si="15">AVERAGE(K13,K21,K29,K53)</f>
         <v>52.75</v>
       </c>
       <c r="X10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>48.75</v>
       </c>
     </row>
@@ -8492,40 +9897,40 @@
         <v>113.18181818181819</v>
       </c>
       <c r="O12" s="12">
-        <f t="shared" ref="O12:X12" si="14">AVERAGE(C4,C8,C16,C24,C32,C36,C40,C44,C48,C56,C60)</f>
+        <f t="shared" ref="O12:X12" si="16">AVERAGE(C4,C8,C16,C24,C32,C36,C40,C44,C48,C56,C60)</f>
         <v>112.63636363636364</v>
       </c>
       <c r="P12" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>114</v>
       </c>
       <c r="Q12" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>114.54545454545455</v>
       </c>
       <c r="R12" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>112</v>
       </c>
       <c r="S12" s="12"/>
       <c r="T12" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>112.27272727272727</v>
       </c>
       <c r="U12" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>114.90909090909091</v>
       </c>
       <c r="V12" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>111.54545454545455</v>
       </c>
       <c r="W12" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>115.63636363636364</v>
       </c>
       <c r="X12" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>116</v>
       </c>
     </row>
@@ -8572,40 +9977,40 @@
         <v>46.18181818181818</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" ref="O13:X13" si="15">AVERAGE(C5,C9,C17,C25,C33,C37,C41,C45,C49,C57,C61)</f>
+        <f t="shared" ref="O13:X13" si="17">AVERAGE(C5,C9,C17,C25,C33,C37,C41,C45,C49,C57,C61)</f>
         <v>46.18181818181818</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.636363636363633</v>
       </c>
       <c r="Q13" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>44.81818181818182</v>
       </c>
       <c r="R13" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.545454545454547</v>
       </c>
       <c r="S13" s="12"/>
       <c r="T13" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.909090909090907</v>
       </c>
       <c r="U13" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>46.272727272727273</v>
       </c>
       <c r="V13" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>56.272727272727273</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>44.545454545454547</v>
       </c>
       <c r="X13" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>48.727272727272727</v>
       </c>
     </row>
@@ -10355,7 +11760,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X10" sqref="N8:X10"/>
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10374,35 +11779,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="N1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="T1" s="19" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="T1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -10521,7 +11926,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="Q3" s="12">
-        <f t="shared" ref="O3:X3" si="0">AVERAGE(E3,E5,E7,E9,E11,E13,E15,E17,E19,E21,E23,E25,E27,E29,E31)</f>
+        <f t="shared" ref="Q3" si="0">AVERAGE(E3,E5,E7,E9,E11,E13,E15,E17,E19,E21,E23,E25,E27,E29,E31)</f>
         <v>4.2666666666666666</v>
       </c>
       <c r="R3" s="12">
@@ -10585,6 +11990,50 @@
       <c r="L4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="12">
+        <f>SQRT(STDEV(B3,B5,B7,B9,B11,B13,B15,B17,B19,B21,B23,B25,B27,B29,B31))</f>
+        <v>1.3129292497094691</v>
+      </c>
+      <c r="O4" s="12">
+        <f t="shared" ref="O4:X4" si="1">SQRT(STDEV(C3,C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31))</f>
+        <v>2.0213808837762919</v>
+      </c>
+      <c r="P4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.4348043278313429</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5600922211647625</v>
+      </c>
+      <c r="R4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.9463950359662927</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.9166602578081495</v>
+      </c>
+      <c r="U4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.4896193702096423</v>
+      </c>
+      <c r="V4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6282337992639786</v>
+      </c>
+      <c r="W4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6114283117782198</v>
+      </c>
+      <c r="X4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6546127186133117</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -10657,20 +12106,20 @@
       <c r="L6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="T6" s="19" t="s">
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="T6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -10781,40 +12230,40 @@
         <v>8</v>
       </c>
       <c r="O8" s="12">
-        <f t="shared" ref="O8:X8" si="1">AVERAGE(C7,C11,C15,C27)</f>
+        <f t="shared" ref="O8:X8" si="2">AVERAGE(C7,C11,C15,C27)</f>
         <v>6.75</v>
       </c>
       <c r="P8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="Q8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="R8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.25</v>
       </c>
       <c r="S8" s="12"/>
       <c r="T8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
       <c r="U8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="V8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
       <c r="W8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.75</v>
       </c>
       <c r="X8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.75</v>
       </c>
     </row>
@@ -10853,17 +12302,52 @@
       <c r="L9" s="1">
         <v>7</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
+      <c r="M9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="12">
+        <f>SQRT(STDEV(B7,B11,B15,B27))</f>
+        <v>1.4697778401749317</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" ref="O9:X9" si="3">SQRT(STDEV(C7,C11,C15,C27))</f>
+        <v>1.6217137970913929</v>
+      </c>
+      <c r="P9" s="12">
+        <f t="shared" si="3"/>
+        <v>1.4697778401749317</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="3"/>
+        <v>1.442797975971041</v>
+      </c>
+      <c r="R9" s="12">
+        <f t="shared" si="3"/>
+        <v>1.8708286933869707</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <f t="shared" si="3"/>
+        <v>2.3054441885171122</v>
+      </c>
+      <c r="U9" s="12">
+        <f t="shared" si="3"/>
+        <v>1.7782794100389228</v>
+      </c>
+      <c r="V9" s="12">
+        <f t="shared" si="3"/>
+        <v>1.3068378352572798</v>
+      </c>
+      <c r="W9" s="12">
+        <f t="shared" si="3"/>
+        <v>1.7594589898131903</v>
+      </c>
+      <c r="X9" s="12">
+        <f t="shared" si="3"/>
+        <v>1.2247448713915889</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -10908,40 +12392,40 @@
         <v>7.1818181818181817</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10:X10" si="2">AVERAGE(C3,C5,C9,C13,C17,C19,C21,C23,C25,C29,C31)</f>
+        <f t="shared" ref="O10:X10" si="4">AVERAGE(C3,C5,C9,C13,C17,C19,C21,C23,C25,C29,C31)</f>
         <v>6.4545454545454541</v>
       </c>
       <c r="P10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0909090909090908</v>
       </c>
       <c r="Q10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1818181818181817</v>
       </c>
       <c r="R10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.4545454545454541</v>
       </c>
       <c r="S10" s="12"/>
       <c r="T10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.8181818181818183</v>
       </c>
       <c r="U10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="V10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.1818181818181817</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0909090909090908</v>
       </c>
       <c r="X10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0909090909090908</v>
       </c>
     </row>
@@ -10979,6 +12463,52 @@
       </c>
       <c r="L11" s="1">
         <v>4</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="12">
+        <f>SQRT(STDEV(B3,B5,B9,B13,B17,B19,B21,B23,B25,B29,B31))</f>
+        <v>1.2653600121643207</v>
+      </c>
+      <c r="O11" s="12">
+        <f>SQRT(STDEV(C3,C5,C9,C13,C17,C19,C21,C23,C25,C29,C31))</f>
+        <v>2.1476118570902996</v>
+      </c>
+      <c r="P11" s="12">
+        <f>SQRT(STDEV(D3,D5,D9,D13,D17,D19,D21,D23,D25,D29,D31))</f>
+        <v>1.4392536130610385</v>
+      </c>
+      <c r="Q11" s="12">
+        <f>SQRT(STDEV(E3,E5,E9,E13,E17,E19,E21,E23,E25,E29,E31))</f>
+        <v>1.6244599969526543</v>
+      </c>
+      <c r="R11" s="12">
+        <f>SQRT(STDEV(F3,F5,F9,F13,F17,F19,F21,F23,F25,F29,F31))</f>
+        <v>1.9833150965596753</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0</v>
+      </c>
+      <c r="T11" s="12">
+        <f>SQRT(STDEV(H3,H5,H9,H13,H17,H19,H21,H23,H25,H29,H31))</f>
+        <v>1.6244599969526543</v>
+      </c>
+      <c r="U11" s="12">
+        <f>SQRT(STDEV(I3,I5,I9,I13,I17,I19,I21,I23,I25,I29,I31))</f>
+        <v>1.3774493079968597</v>
+      </c>
+      <c r="V11" s="12">
+        <f>SQRT(STDEV(J3,J5,J9,J13,J17,J19,J21,J23,J25,J29,J31))</f>
+        <v>1.7302986042057737</v>
+      </c>
+      <c r="W11" s="12">
+        <f>SQRT(STDEV(K3,K5,K9,K13,K17,K19,K21,K23,K25,K29,K31))</f>
+        <v>1.455739163602974</v>
+      </c>
+      <c r="X11" s="12">
+        <f>SQRT(STDEV(L3,L5,L9,L13,L17,L19,L21,L23,L25,L29,L31))</f>
+        <v>1.7643759522470774</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -11719,8 +13249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34:S40"/>
+    <sheetView tabSelected="1" topLeftCell="M37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W64" sqref="W64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11744,36 +13274,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="N1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -11880,44 +13410,44 @@
       <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="19">
         <f>AVERAGE(B5,B6,B27,B28,B49,B50,B71,B72,B93,B94,B115,B116,B137,B138,B159,B160,B181,B182,B203,B204,B225,B226,B247,B248,B269,B270,B291,B292,B313,B314)</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="19">
         <f t="shared" ref="O3:X3" si="0">AVERAGE(C5,C6,C27,C28,C49,C50,C71,C72,C93,C94,C115,C116,C137,C138,C159,C160,C181,C182,C203,C204,C225,C226,C247,C248,C269,C270,C291,C292,C313,C314)</f>
         <v>3.875</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="19">
         <f t="shared" si="0"/>
         <v>3.5416666666666665</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="19">
         <f t="shared" si="0"/>
         <v>3.85</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="19">
         <f t="shared" si="0"/>
         <v>3.7391304347826089</v>
       </c>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21">
+      <c r="S3" s="19"/>
+      <c r="T3" s="19">
         <f>AVERAGE(H5,H6,H27,H28,H49,H50,H71,H72,H93,H94,H115,H116,H137,H138,H159,H160,H181,H182,H203,H204,H225,H226,H247,H248,H269,H270,H291,H292,H313,H314)</f>
         <v>4.1363636363636367</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="19">
         <f t="shared" si="0"/>
         <v>4.8095238095238093</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="19">
         <f t="shared" si="0"/>
         <v>3.9230769230769229</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="19">
         <f t="shared" si="0"/>
         <v>6.7</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="19">
         <f t="shared" si="0"/>
         <v>5.2608695652173916</v>
       </c>
@@ -12717,21 +14247,21 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="19" t="s">
+      <c r="T16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -13200,44 +14730,44 @@
       <c r="M23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="20">
         <f>AVERAGE(B59,B60,B103,B104,B147,B148,B279,B280)</f>
         <v>6.833333333333333</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="20">
         <f t="shared" ref="O23:X23" si="22">AVERAGE(C59,C60,C103,C104,C147,C148,C279,C280)</f>
         <v>7.4</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="20">
         <f t="shared" si="22"/>
         <v>6.5714285714285712</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="20">
         <f t="shared" si="22"/>
         <v>6.5</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="20">
         <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22">
+      <c r="S23" s="20"/>
+      <c r="T23" s="20">
         <f t="shared" si="22"/>
         <v>6.25</v>
       </c>
-      <c r="U23" s="22">
+      <c r="U23" s="20">
         <f t="shared" si="22"/>
         <v>6.2</v>
       </c>
-      <c r="V23" s="22">
+      <c r="V23" s="20">
         <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="W23" s="22">
+      <c r="W23" s="20">
         <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="X23" s="22">
+      <c r="X23" s="20">
         <f t="shared" si="22"/>
         <v>7.2</v>
       </c>
@@ -13661,43 +15191,44 @@
       <c r="M30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="12">
         <f>AVERAGE(B5,B6,B27,B28,B71,B72,B115,B116,B159,B160,B181,B182,B203,B204,B225,B226,B247,B248,B291,B292,B313,B314)</f>
         <v>3.4</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="12">
         <f t="shared" ref="O30:X30" si="28">AVERAGE(C5,C6,C27,C28,C71,C72,C115,C116,C159,C160,C181,C182,C203,C204,C225,C226,C247,C248,C291,C292,C313,C314)</f>
         <v>3.6470588235294117</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="12">
         <f t="shared" si="28"/>
         <v>3.4117647058823528</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="12">
         <f t="shared" si="28"/>
         <v>3.8666666666666667</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="12">
         <f t="shared" si="28"/>
         <v>3.75</v>
       </c>
-      <c r="T30">
+      <c r="S30" s="12"/>
+      <c r="T30" s="12">
         <f t="shared" si="28"/>
         <v>4.1875</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="12">
         <f t="shared" si="28"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="12">
         <f t="shared" si="28"/>
         <v>4.1500000000000004</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="12">
         <f t="shared" si="28"/>
         <v>6.9333333333333336</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="12">
         <f t="shared" si="28"/>
         <v>5.2352941176470589</v>
       </c>
@@ -13740,43 +15271,44 @@
       <c r="M31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="12">
         <f>AVERAGE(B7,B8,B29,B30,B73,B74,B117,B118,B161,B162,B183,B184,B205,B206,B227,B228,B249,B250,B293,B294,B315,B316)</f>
         <v>8.4285714285714288</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="12">
         <f t="shared" ref="O31:X31" si="29">AVERAGE(C7,C8,C29,C30,C73,C74,C117,C118,C161,C162,C183,C184,C205,C206,C227,C228,C249,C250,C293,C294,C315,C316)</f>
         <v>7.5294117647058822</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="12">
         <f t="shared" si="29"/>
         <v>7.2352941176470589</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="12">
         <f t="shared" si="29"/>
         <v>8.3125</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="12">
         <f t="shared" si="29"/>
         <v>7.4</v>
       </c>
-      <c r="T31">
+      <c r="S31" s="12"/>
+      <c r="T31" s="12">
         <f t="shared" si="29"/>
         <v>7.3529411764705879</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="12">
         <f t="shared" si="29"/>
         <v>7.1333333333333337</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="12">
         <f t="shared" si="29"/>
         <v>7.85</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="12">
         <f t="shared" si="29"/>
         <v>7.1333333333333337</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="12">
         <f t="shared" si="29"/>
         <v>7.0714285714285712</v>
       </c>
@@ -13801,43 +15333,44 @@
       <c r="M32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="12">
         <f>AVERAGE(B9,B10,B31,B32,B75,B76,B119,B120,B163,B164,B185,B186,B207,B208,B229,B230,B251,B252,B295,B296,B317,B318)</f>
         <v>7.7142857142857144</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="12">
         <f t="shared" ref="O32:X32" si="30">AVERAGE(C9,C10,C31,C32,C75,C76,C119,C120,C163,C164,C185,C186,C207,C208,C229,C230,C251,C252,C295,C296,C317,C318)</f>
         <v>7.0769230769230766</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="12">
         <f t="shared" si="30"/>
         <v>6.833333333333333</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="12">
         <f t="shared" si="30"/>
         <v>6.75</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="12">
         <f t="shared" si="30"/>
         <v>6.7333333333333334</v>
       </c>
-      <c r="T32">
+      <c r="S32" s="12"/>
+      <c r="T32" s="12">
         <f t="shared" si="30"/>
         <v>7.3125</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="12">
         <f t="shared" si="30"/>
         <v>7.0555555555555554</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="12">
         <f t="shared" si="30"/>
         <v>6.7058823529411766</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="12">
         <f t="shared" si="30"/>
         <v>7.6923076923076925</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="12">
         <f t="shared" si="30"/>
         <v>6.666666666666667</v>
       </c>
@@ -13880,43 +15413,44 @@
       <c r="M33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="12">
         <f>AVERAGE(B11,B12,B33,B34,B77,B78,B121,B122,B165,B166,B187,B188,B209,B210,B231,B232,B253,B254,B297,B298,B319,B320)</f>
         <v>6.6</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="12">
         <f t="shared" ref="O33:X33" si="31">AVERAGE(C11,C12,C33,C34,C77,C78,C121,C122,C165,C166,C187,C188,C209,C210,C231,C232,C253,C254,C297,C298,C319,C320)</f>
         <v>7.7857142857142856</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="12">
         <f t="shared" si="31"/>
         <v>5.5294117647058822</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="12">
         <f t="shared" si="31"/>
         <v>6.7857142857142856</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="12">
         <f t="shared" si="31"/>
         <v>5.6</v>
       </c>
-      <c r="T33">
+      <c r="S33" s="12"/>
+      <c r="T33" s="12">
         <f t="shared" si="31"/>
         <v>4.9375</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="12">
         <f t="shared" si="31"/>
         <v>4.7</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="12">
         <f t="shared" si="31"/>
         <v>5.0714285714285712</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="12">
         <f t="shared" si="31"/>
         <v>5.8461538461538458</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="12">
         <f t="shared" si="31"/>
         <v>7</v>
       </c>
@@ -13941,43 +15475,44 @@
       <c r="M34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="12">
         <f>AVERAGE(B13,B14,B35,B36,B79,B80,B123,B124,B167,B168,B189,B190,B211,B212,B233,B234,B255,B256,B299,B300,B321,B322)</f>
         <v>6.8125</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="12">
         <f t="shared" ref="O34:X34" si="32">AVERAGE(C13,C14,C35,C36,C79,C80,C123,C124,C167,C168,C189,C190,C211,C212,C233,C234,C255,C256,C299,C300,C321,C322)</f>
         <v>6.9285714285714288</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="12">
         <f t="shared" si="32"/>
         <v>7.4</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="12">
         <f t="shared" si="32"/>
         <v>7</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="12">
         <f t="shared" si="32"/>
         <v>6.3125</v>
       </c>
-      <c r="T34">
+      <c r="S34" s="12"/>
+      <c r="T34" s="12">
         <f t="shared" si="32"/>
         <v>6.5625</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="12">
         <f t="shared" si="32"/>
         <v>6.5</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="12">
         <f t="shared" si="32"/>
         <v>6.5</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="12">
         <f t="shared" si="32"/>
         <v>7.1428571428571432</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="12">
         <f t="shared" si="32"/>
         <v>6.615384615384615</v>
       </c>
@@ -14020,43 +15555,44 @@
       <c r="M35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="12">
         <f>AVERAGE(B15,B16,B37,B38,B81,B82,B125,B126,B169,B170,B191,B192,B213,B214,B235,B236,B257,B258,B301,B302,B323,B324)</f>
         <v>7.4666666666666668</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="12">
         <f t="shared" ref="O35:X35" si="33">AVERAGE(C15,C16,C37,C38,C81,C82,C125,C126,C169,C170,C191,C192,C213,C214,C235,C236,C257,C258,C301,C302,C323,C324)</f>
         <v>8.454545454545455</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="12">
         <f t="shared" si="33"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="12">
         <f t="shared" si="33"/>
         <v>7.7142857142857144</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="12">
         <f t="shared" si="33"/>
         <v>8.1666666666666661</v>
       </c>
-      <c r="T35">
+      <c r="S35" s="12"/>
+      <c r="T35" s="12">
         <f t="shared" si="33"/>
         <v>7.6111111111111107</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="12">
         <f t="shared" si="33"/>
         <v>7.5625</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="12">
         <f t="shared" si="33"/>
         <v>7.1428571428571432</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="12">
         <f t="shared" si="33"/>
         <v>8.1428571428571423</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="12">
         <f t="shared" si="33"/>
         <v>7.7857142857142856</v>
       </c>
@@ -14081,43 +15617,44 @@
       <c r="M36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="12">
         <f>AVERAGE(B39,B40,B17,B18,B83,B84,B127,B128,B171,B172,B193,B194,B215,B216,B237,B238,B259,B260,B303,B304,B325,B326)</f>
         <v>7.6428571428571432</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="12">
         <f t="shared" ref="O36:X36" si="34">AVERAGE(C39,C40,C17,C18,C83,C84,C127,C128,C171,C172,C193,C194,C215,C216,C237,C238,C259,C260,C303,C304,C325,C326)</f>
         <v>8.1428571428571423</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="12">
         <f t="shared" si="34"/>
         <v>7.2142857142857144</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="12">
         <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="12">
         <f t="shared" si="34"/>
         <v>7.2941176470588234</v>
       </c>
-      <c r="T36">
+      <c r="S36" s="12"/>
+      <c r="T36" s="12">
         <f t="shared" si="34"/>
         <v>7.9285714285714288</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="12">
         <f t="shared" si="34"/>
         <v>7.4615384615384617</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="12">
         <f t="shared" si="34"/>
         <v>6.8666666666666663</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="12">
         <f t="shared" si="34"/>
         <v>7.375</v>
       </c>
-      <c r="X36">
+      <c r="X36" s="12">
         <f t="shared" si="34"/>
         <v>7.125</v>
       </c>
@@ -14160,43 +15697,44 @@
       <c r="M37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="12">
         <f>AVERAGE(B19,B20,B41,B42,B85,B86,B129,B130,B173,B174,B195,B196,B217,B218,B239,B240,B261,B262,B305,B306,B327,B328)</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="12">
         <f t="shared" ref="O37:X37" si="35">AVERAGE(C19,C20,C41,C42,C85,C86,C129,C130,C173,C174,C195,C196,C217,C218,C239,C240,C261,C262,C305,C306,C327,C328)</f>
         <v>7.1333333333333337</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="12">
         <f t="shared" si="35"/>
         <v>6.5333333333333332</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="12">
         <f t="shared" si="35"/>
         <v>7.2307692307692308</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="12">
         <f t="shared" si="35"/>
         <v>6.1538461538461542</v>
       </c>
-      <c r="T37">
+      <c r="S37" s="12"/>
+      <c r="T37" s="12">
         <f t="shared" si="35"/>
         <v>5.7692307692307692</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="12">
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="12">
         <f t="shared" si="35"/>
         <v>6.2</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="12">
         <f t="shared" si="35"/>
         <v>6.6428571428571432</v>
       </c>
-      <c r="X37">
+      <c r="X37" s="12">
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
@@ -14217,43 +15755,44 @@
       <c r="M38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="12">
         <f>AVERAGE(B21,B22,B43,B44,B87,B88,B131,B132,B175,B176,B197,B198,B219,B220,B241,B242,B263,B264,B307,B308,B329,B330)</f>
         <v>8.0666666666666664</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="12">
         <f t="shared" ref="O38:X38" si="36">AVERAGE(C21,C22,C43,C44,C87,C88,C131,C132,C175,C176,C197,C198,C219,C220,C241,C242,C263,C264,C307,C308,C329,C330)</f>
         <v>8.2857142857142865</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="12">
         <f t="shared" si="36"/>
         <v>7.7692307692307692</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="12">
         <f t="shared" si="36"/>
         <v>8.384615384615385</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="12">
         <f t="shared" si="36"/>
         <v>7.8461538461538458</v>
       </c>
-      <c r="T38">
+      <c r="S38" s="12"/>
+      <c r="T38" s="12">
         <f t="shared" si="36"/>
         <v>7.0666666666666664</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="12">
         <f t="shared" si="36"/>
         <v>7.8571428571428568</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="12">
         <f t="shared" si="36"/>
         <v>7</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="12">
         <f t="shared" si="36"/>
         <v>7.8461538461538458</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="12">
         <f t="shared" si="36"/>
         <v>7.375</v>
       </c>
@@ -14296,43 +15835,44 @@
       <c r="M39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="12">
         <f>AVERAGE(B3,B4,B25,B26,B69,B70,B113,B114,B157,B158,B179,B180,B201,B202,B223,B224,B245,B246,B289,B290,B311,B312)</f>
         <v>4.5333333333333332</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="12">
         <f t="shared" ref="O39:X39" si="37">AVERAGE(C3,C4,C25,C26,C69,C70,C113,C114,C157,C158,C179,C180,C201,C202,C223,C224,C245,C246,C289,C290,C311,C312)</f>
         <v>4.8666666666666663</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="12">
         <f t="shared" si="37"/>
         <v>4.1333333333333337</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="12">
         <f t="shared" si="37"/>
         <v>4.833333333333333</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="12">
         <f t="shared" si="37"/>
         <v>3.9166666666666665</v>
       </c>
-      <c r="T39">
+      <c r="S39" s="12"/>
+      <c r="T39" s="12">
         <f t="shared" si="37"/>
         <v>4.6923076923076925</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="12">
         <f t="shared" si="37"/>
         <v>4.0714285714285712</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="12">
         <f t="shared" si="37"/>
         <v>3.7142857142857144</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="12">
         <f t="shared" si="37"/>
         <v>5.6923076923076925</v>
       </c>
-      <c r="X39">
+      <c r="X39" s="12">
         <f t="shared" si="37"/>
         <v>3.8888888888888888</v>
       </c>
@@ -14353,43 +15893,44 @@
       <c r="M40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="12">
         <f>AVERAGE(B23,B45,B89,B133,B177,B221,B199,B243,B265,B309,B331)</f>
         <v>13.454545454545455</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="12">
         <f t="shared" ref="O40:X40" si="38">AVERAGE(C23,C45,C89,C133,C177,C221,C199,C243,C265,C309,C331)</f>
         <v>13.090909090909092</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="12">
         <f t="shared" si="38"/>
         <v>14.181818181818182</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="12">
         <f t="shared" si="38"/>
         <v>12.727272727272727</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="12">
         <f t="shared" si="38"/>
         <v>13.636363636363637</v>
       </c>
-      <c r="T40">
+      <c r="S40" s="12"/>
+      <c r="T40" s="12">
         <f t="shared" si="38"/>
         <v>14</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="12">
         <f t="shared" si="38"/>
         <v>14.272727272727273</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="12">
         <f t="shared" si="38"/>
         <v>14.454545454545455</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="12">
         <f t="shared" si="38"/>
         <v>12.727272727272727</v>
       </c>
-      <c r="X40">
+      <c r="X40" s="12">
         <f t="shared" si="38"/>
         <v>14</v>
       </c>
@@ -14443,6 +15984,21 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
+      <c r="N42" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -14474,6 +16030,37 @@
       </c>
       <c r="L43">
         <v>7</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -14491,6 +16078,50 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
+      <c r="M44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="12">
+        <f>N18-N30</f>
+        <v>0.93333333333333313</v>
+      </c>
+      <c r="O44" s="12">
+        <f t="shared" ref="O44:X44" si="39">O18-O30</f>
+        <v>0.78151260504201714</v>
+      </c>
+      <c r="P44" s="12">
+        <f t="shared" si="39"/>
+        <v>0.4453781512605044</v>
+      </c>
+      <c r="Q44" s="12">
+        <f t="shared" si="39"/>
+        <v>-6.6666666666666874E-2</v>
+      </c>
+      <c r="R44" s="12">
+        <f t="shared" si="39"/>
+        <v>-3.5714285714285587E-2</v>
+      </c>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12">
+        <f t="shared" si="39"/>
+        <v>-0.1875</v>
+      </c>
+      <c r="U44" s="12">
+        <f t="shared" si="39"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="V44" s="12">
+        <f t="shared" si="39"/>
+        <v>-0.98333333333333384</v>
+      </c>
+      <c r="W44" s="12">
+        <f t="shared" si="39"/>
+        <v>-0.93333333333333357</v>
+      </c>
+      <c r="X44" s="12">
+        <f t="shared" si="39"/>
+        <v>9.8039215686274161E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
@@ -14501,41 +16132,85 @@
         <v>10</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:L45" si="39">COUNT(C25:C44)</f>
+        <f t="shared" ref="C45:L45" si="40">COUNT(C25:C44)</f>
         <v>12</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>11</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>11</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>9</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>15</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="21">
+        <f t="shared" ref="N45:X45" si="41">N19-N31</f>
+        <v>-1.5714285714285721</v>
+      </c>
+      <c r="O45" s="12">
+        <f t="shared" si="41"/>
+        <v>-0.86274509803921529</v>
+      </c>
+      <c r="P45" s="12">
+        <f t="shared" si="41"/>
+        <v>0.43137254901960809</v>
+      </c>
+      <c r="Q45" s="12">
+        <f t="shared" si="41"/>
+        <v>-0.97916666666666696</v>
+      </c>
+      <c r="R45" s="12">
+        <f t="shared" si="41"/>
+        <v>-0.82857142857142918</v>
+      </c>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12">
+        <f t="shared" si="41"/>
+        <v>0.48039215686274517</v>
+      </c>
+      <c r="U45" s="12">
+        <f t="shared" si="41"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="V45" s="12">
+        <f t="shared" si="41"/>
+        <v>-0.64999999999999947</v>
+      </c>
+      <c r="W45" s="12">
+        <f t="shared" si="41"/>
+        <v>0.26666666666666661</v>
+      </c>
+      <c r="X45" s="12">
+        <f t="shared" si="41"/>
+        <v>7.1428571428572063E-2</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
@@ -14573,6 +16248,50 @@
       <c r="L46" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="M46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="21">
+        <f t="shared" ref="N46:X46" si="42">N20-N32</f>
+        <v>-1.5714285714285712</v>
+      </c>
+      <c r="O46" s="12">
+        <f t="shared" si="42"/>
+        <v>-7.692307692307665E-2</v>
+      </c>
+      <c r="P46" s="12">
+        <f t="shared" si="42"/>
+        <v>-0.43333333333333268</v>
+      </c>
+      <c r="Q46" s="12">
+        <f t="shared" si="42"/>
+        <v>-0.75</v>
+      </c>
+      <c r="R46" s="12">
+        <f t="shared" si="42"/>
+        <v>-0.60833333333333339</v>
+      </c>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12">
+        <f t="shared" si="42"/>
+        <v>0.97321428571428648</v>
+      </c>
+      <c r="U46" s="12">
+        <f t="shared" si="42"/>
+        <v>-0.3888888888888884</v>
+      </c>
+      <c r="V46" s="12">
+        <f t="shared" si="42"/>
+        <v>-0.50588235294117645</v>
+      </c>
+      <c r="W46" s="12">
+        <f t="shared" si="42"/>
+        <v>-0.19230769230769251</v>
+      </c>
+      <c r="X46" s="12">
+        <f t="shared" si="42"/>
+        <v>-9.5238095238095788E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -14606,6 +16325,50 @@
       </c>
       <c r="L47" s="8">
         <v>6</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N47" s="21">
+        <f t="shared" ref="N47:X47" si="43">N21-N33</f>
+        <v>-1.7428571428571429</v>
+      </c>
+      <c r="O47" s="21">
+        <f t="shared" si="43"/>
+        <v>-2.3857142857142852</v>
+      </c>
+      <c r="P47" s="21">
+        <f t="shared" si="43"/>
+        <v>-1.5294117647058822</v>
+      </c>
+      <c r="Q47" s="12">
+        <f t="shared" si="43"/>
+        <v>-0.78571428571428559</v>
+      </c>
+      <c r="R47" s="12">
+        <f t="shared" si="43"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12">
+        <f t="shared" si="43"/>
+        <v>-0.50892857142857117</v>
+      </c>
+      <c r="U47" s="21">
+        <f t="shared" si="43"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="V47" s="21">
+        <f t="shared" si="43"/>
+        <v>2.4285714285714288</v>
+      </c>
+      <c r="W47" s="12">
+        <f t="shared" si="43"/>
+        <v>-1.0961538461538458</v>
+      </c>
+      <c r="X47" s="12">
+        <f t="shared" si="43"/>
+        <v>-2.166666666666667</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -14625,8 +16388,52 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
+      <c r="M48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="12">
+        <f t="shared" ref="N48:X48" si="44">N22-N34</f>
+        <v>-0.38392857142857117</v>
+      </c>
+      <c r="O48" s="12">
+        <f t="shared" si="44"/>
+        <v>-0.52857142857142847</v>
+      </c>
+      <c r="P48" s="21">
+        <f t="shared" si="44"/>
+        <v>-1.0666666666666673</v>
+      </c>
+      <c r="Q48" s="12">
+        <f t="shared" si="44"/>
+        <v>-0.57142857142857117</v>
+      </c>
+      <c r="R48" s="12">
+        <f t="shared" si="44"/>
+        <v>0.40178571428571441</v>
+      </c>
+      <c r="S48" s="12"/>
+      <c r="T48" s="21">
+        <f t="shared" si="44"/>
+        <v>1.2374999999999998</v>
+      </c>
+      <c r="U48" s="21">
+        <f t="shared" si="44"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="V48" s="12">
+        <f t="shared" si="44"/>
+        <v>0.21428571428571441</v>
+      </c>
+      <c r="W48" s="21">
+        <f t="shared" si="44"/>
+        <v>1.0238095238095228</v>
+      </c>
+      <c r="X48" s="12">
+        <f t="shared" si="44"/>
+        <v>0.5846153846153852</v>
+      </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>25</v>
       </c>
@@ -14661,8 +16468,52 @@
       <c r="L49" s="10">
         <v>3</v>
       </c>
+      <c r="M49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="12">
+        <f t="shared" ref="N49:X49" si="45">N23-N35</f>
+        <v>-0.63333333333333375</v>
+      </c>
+      <c r="O49" s="12">
+        <f t="shared" si="45"/>
+        <v>-1.0545454545454547</v>
+      </c>
+      <c r="P49" s="21">
+        <f t="shared" si="45"/>
+        <v>-1.0952380952380958</v>
+      </c>
+      <c r="Q49" s="21">
+        <f t="shared" si="45"/>
+        <v>-1.2142857142857144</v>
+      </c>
+      <c r="R49" s="21">
+        <f t="shared" si="45"/>
+        <v>-1.1666666666666661</v>
+      </c>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12">
+        <f t="shared" si="45"/>
+        <v>-1.3611111111111107</v>
+      </c>
+      <c r="U49" s="12">
+        <f t="shared" si="45"/>
+        <v>-1.3624999999999998</v>
+      </c>
+      <c r="V49" s="12">
+        <f t="shared" si="45"/>
+        <v>-0.14285714285714324</v>
+      </c>
+      <c r="W49" s="12">
+        <f t="shared" si="45"/>
+        <v>-1.1428571428571423</v>
+      </c>
+      <c r="X49" s="12">
+        <f t="shared" si="45"/>
+        <v>-0.58571428571428541</v>
+      </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="1">
         <v>7</v>
@@ -14681,8 +16532,52 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
+      <c r="M50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="12">
+        <f t="shared" ref="N50:X50" si="46">N24-N36</f>
+        <v>-0.8095238095238102</v>
+      </c>
+      <c r="O50" s="21">
+        <f t="shared" si="46"/>
+        <v>-1.4761904761904754</v>
+      </c>
+      <c r="P50" s="12">
+        <f t="shared" si="46"/>
+        <v>-0.64285714285714324</v>
+      </c>
+      <c r="Q50" s="21">
+        <f t="shared" si="46"/>
+        <v>-1</v>
+      </c>
+      <c r="R50" s="12">
+        <f t="shared" si="46"/>
+        <v>-0.29411764705882337</v>
+      </c>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12">
+        <f t="shared" si="46"/>
+        <v>-1.4285714285714288</v>
+      </c>
+      <c r="U50" s="12">
+        <f t="shared" si="46"/>
+        <v>0.13846153846153797</v>
+      </c>
+      <c r="V50" s="12">
+        <f t="shared" si="46"/>
+        <v>0.96666666666666679</v>
+      </c>
+      <c r="W50" s="12">
+        <f t="shared" si="46"/>
+        <v>-0.375</v>
+      </c>
+      <c r="X50" s="12">
+        <f t="shared" si="46"/>
+        <v>0.625</v>
+      </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>26</v>
       </c>
@@ -14717,8 +16612,52 @@
       <c r="L51" s="10">
         <v>10</v>
       </c>
+      <c r="M51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="12">
+        <f t="shared" ref="N51:X51" si="47">N25-N37</f>
+        <v>-0.93333333333333268</v>
+      </c>
+      <c r="O51" s="12">
+        <f t="shared" si="47"/>
+        <v>-1.1333333333333337</v>
+      </c>
+      <c r="P51" s="21">
+        <f t="shared" si="47"/>
+        <v>-1.1047619047619044</v>
+      </c>
+      <c r="Q51" s="12">
+        <f t="shared" si="47"/>
+        <v>-0.83076923076923048</v>
+      </c>
+      <c r="R51" s="21">
+        <f t="shared" si="47"/>
+        <v>-1.1538461538461542</v>
+      </c>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12">
+        <f t="shared" si="47"/>
+        <v>0.23076923076923084</v>
+      </c>
+      <c r="U51" s="12">
+        <f t="shared" si="47"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="V51" s="12">
+        <f t="shared" si="47"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="W51" s="12">
+        <f t="shared" si="47"/>
+        <v>-0.64285714285714324</v>
+      </c>
+      <c r="X51" s="12">
+        <f t="shared" si="47"/>
+        <v>0.79999999999999982</v>
+      </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="1">
         <v>7</v>
@@ -14737,8 +16676,52 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
+      <c r="M52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" s="12">
+        <f t="shared" ref="N52:X52" si="48">N26-N38</f>
+        <v>-0.86666666666666625</v>
+      </c>
+      <c r="O52" s="12">
+        <f t="shared" si="48"/>
+        <v>-0.85714285714285765</v>
+      </c>
+      <c r="P52" s="21">
+        <f t="shared" si="48"/>
+        <v>-1.6263736263736259</v>
+      </c>
+      <c r="Q52" s="21">
+        <f t="shared" si="48"/>
+        <v>-1.384615384615385</v>
+      </c>
+      <c r="R52" s="21">
+        <f t="shared" si="48"/>
+        <v>-1.6461538461538456</v>
+      </c>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12">
+        <f t="shared" si="48"/>
+        <v>-0.73333333333333339</v>
+      </c>
+      <c r="U52" s="12">
+        <f t="shared" si="48"/>
+        <v>-0.6904761904761898</v>
+      </c>
+      <c r="V52" s="12">
+        <f t="shared" si="48"/>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="W52" s="12">
+        <f t="shared" si="48"/>
+        <v>-1.4461538461538455</v>
+      </c>
+      <c r="X52" s="12">
+        <f t="shared" si="48"/>
+        <v>-0.70833333333333304</v>
+      </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>27</v>
       </c>
@@ -14773,8 +16756,52 @@
       <c r="L53" s="10">
         <v>7</v>
       </c>
+      <c r="M53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" s="21">
+        <f t="shared" ref="N53:X53" si="49">N27-N39</f>
+        <v>-1.1333333333333333</v>
+      </c>
+      <c r="O53" s="21">
+        <f t="shared" si="49"/>
+        <v>-1.5809523809523807</v>
+      </c>
+      <c r="P53" s="12">
+        <f t="shared" si="49"/>
+        <v>-0.56190476190476213</v>
+      </c>
+      <c r="Q53" s="12">
+        <f t="shared" si="49"/>
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="R53" s="12">
+        <f t="shared" si="49"/>
+        <v>0.28333333333333366</v>
+      </c>
+      <c r="S53" s="12"/>
+      <c r="T53" s="21">
+        <f t="shared" si="49"/>
+        <v>4.5076923076923068</v>
+      </c>
+      <c r="U53" s="12">
+        <f t="shared" si="49"/>
+        <v>-0.47142857142857109</v>
+      </c>
+      <c r="V53" s="12">
+        <f t="shared" si="49"/>
+        <v>0.48571428571428577</v>
+      </c>
+      <c r="W53" s="21">
+        <f t="shared" si="49"/>
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="X53" s="21">
+        <f t="shared" si="49"/>
+        <v>1.3111111111111113</v>
+      </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="1">
         <v>6</v>
@@ -14793,8 +16820,52 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
+      <c r="M54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N54" s="12">
+        <f t="shared" ref="N54:X54" si="50">N28-N40</f>
+        <v>1.795454545454545</v>
+      </c>
+      <c r="O54" s="12">
+        <f t="shared" si="50"/>
+        <v>1.9090909090909083</v>
+      </c>
+      <c r="P54" s="12">
+        <f t="shared" si="50"/>
+        <v>1.8181818181818183</v>
+      </c>
+      <c r="Q54" s="12">
+        <f t="shared" si="50"/>
+        <v>1.5227272727272734</v>
+      </c>
+      <c r="R54" s="12">
+        <f t="shared" si="50"/>
+        <v>1.3636363636363633</v>
+      </c>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12">
+        <f t="shared" si="50"/>
+        <v>-1.25</v>
+      </c>
+      <c r="U54" s="12">
+        <f t="shared" si="50"/>
+        <v>-0.77272727272727337</v>
+      </c>
+      <c r="V54" s="12">
+        <f t="shared" si="50"/>
+        <v>4.545454545454497E-2</v>
+      </c>
+      <c r="W54" s="12">
+        <f t="shared" si="50"/>
+        <v>0.52272727272727337</v>
+      </c>
+      <c r="X54" s="12">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>28</v>
       </c>
@@ -14830,7 +16901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="1">
         <v>4</v>
@@ -14849,8 +16920,23 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
+      <c r="N56" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
@@ -14885,8 +16971,39 @@
       <c r="L57" s="10">
         <v>10</v>
       </c>
+      <c r="N57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1">
@@ -14905,8 +17022,52 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
+      <c r="N58" s="12">
+        <f>COUNTIF(N44:N53,"&lt;0")/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="O58" s="12">
+        <f t="shared" ref="O58:X58" si="51">COUNTIF(O44:O53,"&lt;0")/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="P58" s="12">
+        <f t="shared" si="51"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q58" s="12">
+        <f t="shared" si="51"/>
+        <v>0.9</v>
+      </c>
+      <c r="R58" s="12">
+        <f t="shared" si="51"/>
+        <v>0.8</v>
+      </c>
+      <c r="S58" s="12">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="12">
+        <f t="shared" si="51"/>
+        <v>0.5</v>
+      </c>
+      <c r="U58" s="12">
+        <f t="shared" si="51"/>
+        <v>0.5</v>
+      </c>
+      <c r="V58" s="12">
+        <f t="shared" si="51"/>
+        <v>0.5</v>
+      </c>
+      <c r="W58" s="12">
+        <f t="shared" si="51"/>
+        <v>0.7</v>
+      </c>
+      <c r="X58" s="12">
+        <f t="shared" si="51"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>30</v>
       </c>
@@ -14939,8 +17100,19 @@
       <c r="L59" s="10">
         <v>10</v>
       </c>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1">
@@ -14958,7 +17130,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>31</v>
       </c>
@@ -14992,7 +17164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1">
@@ -15010,7 +17182,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>32</v>
       </c>
@@ -15042,7 +17214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1">
@@ -15120,40 +17292,40 @@
         <v>14</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:L67" si="40">COUNT(C47:C66)</f>
+        <f t="shared" ref="C67:L67" si="52">COUNT(C47:C66)</f>
         <v>14</v>
       </c>
       <c r="D67" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>16</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>15</v>
       </c>
       <c r="F67" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>16</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>6</v>
       </c>
       <c r="I67" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="J67" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="K67" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="L67" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>12</v>
       </c>
     </row>
@@ -15769,40 +17941,40 @@
         <v>14</v>
       </c>
       <c r="C89" s="14">
-        <f t="shared" ref="C89:L89" si="41">COUNT(C69:C88)</f>
+        <f t="shared" ref="C89:L89" si="53">COUNT(C69:C88)</f>
         <v>11</v>
       </c>
       <c r="D89" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>12</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>12</v>
       </c>
       <c r="F89" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>13</v>
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>16</v>
       </c>
       <c r="I89" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>15</v>
       </c>
       <c r="J89" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>13</v>
       </c>
       <c r="K89" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>13</v>
       </c>
       <c r="L89" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>15</v>
       </c>
     </row>
@@ -16456,40 +18628,40 @@
         <v>15</v>
       </c>
       <c r="C111" s="14">
-        <f t="shared" ref="C111:L111" si="42">COUNT(C91:C110)</f>
+        <f t="shared" ref="C111:L111" si="54">COUNT(C91:C110)</f>
         <v>15</v>
       </c>
       <c r="D111" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>17</v>
       </c>
       <c r="E111" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="F111" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>16</v>
       </c>
       <c r="I111" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>16</v>
       </c>
       <c r="J111" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>16</v>
       </c>
       <c r="K111" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>16</v>
       </c>
       <c r="L111" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
     </row>
@@ -17133,40 +19305,40 @@
         <v>15</v>
       </c>
       <c r="C133" s="14">
-        <f t="shared" ref="C133:L133" si="43">COUNT(C113:C132)</f>
+        <f t="shared" ref="C133:L133" si="55">COUNT(C113:C132)</f>
         <v>16</v>
       </c>
       <c r="D133" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="E133" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>13</v>
       </c>
       <c r="F133" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>13</v>
       </c>
       <c r="I133" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>17</v>
       </c>
       <c r="J133" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="K133" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="L133" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
     </row>
@@ -17810,40 +19982,40 @@
         <v>16</v>
       </c>
       <c r="C155" s="14">
-        <f t="shared" ref="C155:L155" si="44">COUNT(C135:C154)</f>
+        <f t="shared" ref="C155:L155" si="56">COUNT(C135:C154)</f>
         <v>16</v>
       </c>
       <c r="D155" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="E155" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>13</v>
       </c>
       <c r="F155" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="G155" s="14"/>
       <c r="H155" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="I155" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="J155" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="K155" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="L155" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
     </row>
@@ -18465,40 +20637,40 @@
         <v>14</v>
       </c>
       <c r="C177" s="14">
-        <f t="shared" ref="C177:L177" si="45">COUNT(C157:C176)</f>
+        <f t="shared" ref="C177:L177" si="57">COUNT(C157:C176)</f>
         <v>13</v>
       </c>
       <c r="D177" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>15</v>
       </c>
       <c r="E177" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>13</v>
       </c>
       <c r="F177" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>14</v>
       </c>
       <c r="G177" s="14"/>
       <c r="H177" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>15</v>
       </c>
       <c r="I177" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>15</v>
       </c>
       <c r="J177" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>14</v>
       </c>
       <c r="K177" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>13</v>
       </c>
       <c r="L177" s="14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>11</v>
       </c>
     </row>
@@ -19146,40 +21318,40 @@
         <v>11</v>
       </c>
       <c r="C199" s="14">
-        <f t="shared" ref="C199:L199" si="46">COUNT(C179:C198)</f>
+        <f t="shared" ref="C199:L199" si="58">COUNT(C179:C198)</f>
         <v>14</v>
       </c>
       <c r="D199" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>16</v>
       </c>
       <c r="E199" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>15</v>
       </c>
       <c r="F199" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>17</v>
       </c>
       <c r="G199" s="14"/>
       <c r="H199" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>16</v>
       </c>
       <c r="I199" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>15</v>
       </c>
       <c r="J199" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="K199" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>16</v>
       </c>
       <c r="L199" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>16</v>
       </c>
     </row>
@@ -19803,40 +21975,40 @@
         <v>15</v>
       </c>
       <c r="C221" s="14">
-        <f t="shared" ref="C221:L221" si="47">COUNT(C201:C220)</f>
+        <f t="shared" ref="C221:L221" si="59">COUNT(C201:C220)</f>
         <v>15</v>
       </c>
       <c r="D221" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>15</v>
       </c>
       <c r="E221" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>14</v>
       </c>
       <c r="F221" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>13</v>
       </c>
       <c r="G221" s="14"/>
       <c r="H221" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>13</v>
       </c>
       <c r="I221" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>13</v>
       </c>
       <c r="J221" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>13</v>
       </c>
       <c r="K221" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>13</v>
       </c>
       <c r="L221" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>14</v>
       </c>
     </row>
@@ -20402,40 +22574,40 @@
         <v>10</v>
       </c>
       <c r="C243" s="14">
-        <f t="shared" ref="C243:L243" si="48">COUNT(C223:C242)</f>
+        <f t="shared" ref="C243:L243" si="60">COUNT(C223:C242)</f>
         <v>12</v>
       </c>
       <c r="D243" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>13</v>
       </c>
       <c r="E243" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>10</v>
       </c>
       <c r="F243" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>12</v>
       </c>
       <c r="G243" s="14"/>
       <c r="H243" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>11</v>
       </c>
       <c r="I243" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>10</v>
       </c>
       <c r="J243" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>12</v>
       </c>
       <c r="K243" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>10</v>
       </c>
       <c r="L243" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>9</v>
       </c>
     </row>
@@ -21066,40 +23238,40 @@
         <v>16</v>
       </c>
       <c r="C265" s="14">
-        <f t="shared" ref="C265:L265" si="49">COUNT(C245:C264)</f>
+        <f t="shared" ref="C265:L265" si="61">COUNT(C245:C264)</f>
         <v>11</v>
       </c>
       <c r="D265" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>14</v>
       </c>
       <c r="E265" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>14</v>
       </c>
       <c r="F265" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>14</v>
       </c>
       <c r="G265" s="14"/>
       <c r="H265" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="I265" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15</v>
       </c>
       <c r="J265" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>16</v>
       </c>
       <c r="K265" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="L265" s="14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>13</v>
       </c>
     </row>
@@ -21753,40 +23925,40 @@
         <v>16</v>
       </c>
       <c r="C287" s="14">
-        <f t="shared" ref="C287:L287" si="50">COUNT(C267:C286)</f>
+        <f t="shared" ref="C287:L287" si="62">COUNT(C267:C286)</f>
         <v>15</v>
       </c>
       <c r="D287" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>16</v>
       </c>
       <c r="E287" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>15</v>
       </c>
       <c r="F287" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>15</v>
       </c>
       <c r="G287" s="14"/>
       <c r="H287" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>15</v>
       </c>
       <c r="I287" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>14</v>
       </c>
       <c r="J287" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>17</v>
       </c>
       <c r="K287" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>15</v>
       </c>
       <c r="L287" s="14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>15</v>
       </c>
     </row>
@@ -22428,40 +24600,40 @@
         <v>15</v>
       </c>
       <c r="C309" s="14">
-        <f t="shared" ref="C309:L309" si="51">COUNT(C289:C308)</f>
+        <f t="shared" ref="C309:L309" si="63">COUNT(C289:C308)</f>
         <v>15</v>
       </c>
       <c r="D309" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>16</v>
       </c>
       <c r="E309" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>14</v>
       </c>
       <c r="F309" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>16</v>
       </c>
       <c r="G309" s="14"/>
       <c r="H309" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>14</v>
       </c>
       <c r="I309" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>14</v>
       </c>
       <c r="J309" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>15</v>
       </c>
       <c r="K309" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>13</v>
       </c>
       <c r="L309" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>15</v>
       </c>
     </row>
@@ -23125,45 +25297,49 @@
         <v>16</v>
       </c>
       <c r="C331" s="14">
-        <f t="shared" ref="C331:L331" si="52">COUNT(C311:C330)</f>
+        <f t="shared" ref="C331:L331" si="64">COUNT(C311:C330)</f>
         <v>15</v>
       </c>
       <c r="D331" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>16</v>
       </c>
       <c r="E331" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="F331" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="G331" s="14"/>
       <c r="H331" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>16</v>
       </c>
       <c r="I331" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>17</v>
       </c>
       <c r="J331" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>18</v>
       </c>
       <c r="K331" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="L331" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="N56:R56"/>
+    <mergeCell ref="T56:X56"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:R1"/>
@@ -23185,7 +25361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP210"/>
   <sheetViews>
-    <sheetView topLeftCell="F207" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R209" sqref="R209"/>
     </sheetView>
   </sheetViews>
@@ -23213,13 +25389,13 @@
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
@@ -24640,13 +26816,13 @@
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -26073,13 +28249,13 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -27500,13 +29676,13 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -28933,13 +31109,13 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -30360,13 +32536,13 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -31793,13 +33969,13 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -33220,13 +35396,13 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -34656,13 +36832,13 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -36083,13 +38259,13 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -37516,13 +39692,13 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
     </row>
     <row r="68" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -38943,13 +41119,13 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
     </row>
     <row r="74" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -40376,13 +42552,13 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
     </row>
     <row r="81" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -41803,13 +43979,13 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
     </row>
     <row r="87" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -43236,13 +45412,13 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
     </row>
     <row r="94" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -44663,13 +46839,13 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
     </row>
     <row r="100" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -46096,13 +48272,13 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
     </row>
     <row r="107" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -47523,13 +49699,13 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="19" t="s">
+      <c r="D112" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
     </row>
     <row r="113" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
@@ -48956,13 +51132,13 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="19" t="s">
+      <c r="D119" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
     </row>
     <row r="120" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
@@ -50383,13 +52559,13 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
     </row>
     <row r="126" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -51816,13 +53992,13 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
     </row>
     <row r="133" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
@@ -53243,13 +55419,13 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="19" t="s">
+      <c r="D138" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
     </row>
     <row r="139" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
@@ -54676,13 +56852,13 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="19" t="s">
+      <c r="D145" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
     </row>
     <row r="146" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -56103,13 +58279,13 @@
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="19" t="s">
+      <c r="D151" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
     </row>
     <row r="152" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
@@ -57536,13 +59712,13 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="19" t="s">
+      <c r="D158" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
     </row>
     <row r="159" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -58963,13 +61139,13 @@
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="19" t="s">
+      <c r="D164" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
     </row>
     <row r="165" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
@@ -60396,13 +62572,13 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="19" t="s">
+      <c r="D171" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
+      <c r="E171" s="22"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
     </row>
     <row r="172" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
@@ -61823,13 +63999,13 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="19" t="s">
+      <c r="D177" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
     </row>
     <row r="178" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
@@ -63257,13 +65433,13 @@
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="19" t="s">
+      <c r="D184" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="19"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
     </row>
     <row r="185" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
@@ -66102,23 +68278,23 @@
     </row>
     <row r="196" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
-      <c r="F196" s="19" t="s">
+      <c r="F196" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G196" s="19"/>
-      <c r="H196" s="19"/>
-      <c r="L196" s="19" t="s">
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
+      <c r="L196" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="M196" s="19"/>
-      <c r="N196" s="19"/>
+      <c r="M196" s="22"/>
+      <c r="N196" s="22"/>
     </row>
     <row r="197" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="B197" s="19" t="s">
+      <c r="B197" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C197" s="19"/>
-      <c r="D197" s="19"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
       <c r="E197" s="13"/>
       <c r="F197" s="2" t="s">
         <v>0</v>
@@ -66293,11 +68469,11 @@
       </c>
     </row>
     <row r="204" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="B204" s="19" t="s">
+      <c r="B204" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C204" s="19"/>
-      <c r="D204" s="19"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
       <c r="E204" s="11"/>
     </row>
     <row r="205" spans="1:93" x14ac:dyDescent="0.25">
